--- a/Oscillation.xlsx
+++ b/Oscillation.xlsx
@@ -878,763 +878,763 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="253"/>
                 <c:pt idx="0">
-                  <c:v>0.96560563527198751</c:v>
+                  <c:v>0.87159951543483927</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.9048508736220513</c:v>
+                  <c:v>0.65121751855088772</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.82297976300274645</c:v>
+                  <c:v>0.61878916190957234</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.72691035305688123</c:v>
+                  <c:v>0.81423632878822649</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.62456016766267075</c:v>
+                  <c:v>0.98708626682757183</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.52411023079535646</c:v>
+                  <c:v>0.91615679826332586</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.43327478405157288</c:v>
+                  <c:v>0.69128628905143386</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.35864070107041107</c:v>
+                  <c:v>0.59825717604959905</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.30513196454297065</c:v>
+                  <c:v>0.7543145461982278</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.27564140129090986</c:v>
+                  <c:v>0.95913136130967069</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.27085550598847663</c:v>
+                  <c:v>0.95066178538118729</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.28928018906624892</c:v>
+                  <c:v>0.73911373425246796</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.32745730575585918</c:v>
+                  <c:v>0.59339991577401219</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.38034544168980672</c:v>
+                  <c:v>0.69802323066212379</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.44182502410064844</c:v>
+                  <c:v>0.91818672632457721</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.50527845890562084</c:v>
+                  <c:v>0.97216433659146551</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.56419132848437337</c:v>
+                  <c:v>0.79051650832763554</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.61272094867105842</c:v>
+                  <c:v>0.60413279531948805</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.64618355991746312</c:v>
+                  <c:v>0.64947600426052199</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.66142049427360161</c:v>
+                  <c:v>0.86731487869266444</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.65701585897681847</c:v>
+                  <c:v>0.97877615810924967</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.63335241329593706</c:v>
+                  <c:v>0.84107097967662714</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.59250706865082992</c:v>
+                  <c:v>0.62913753993543087</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.5380014911427583</c:v>
+                  <c:v>0.6121331154698233</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.47443542247714782</c:v>
+                  <c:v>0.8103365232266867</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.4070395673797525</c:v>
+                  <c:v>0.96980994634085604</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.34119052492751489</c:v>
+                  <c:v>0.88646635047077638</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.28193191390410893</c:v>
+                  <c:v>0.6659789755390213</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.2335435663753844</c:v>
+                  <c:v>0.58853357982414112</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.19919479415611482</c:v>
+                  <c:v>0.75152006862774601</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.18070892684051851</c:v>
+                  <c:v>0.94582192429016509</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.17845546722621999</c:v>
+                  <c:v>0.92284531638829592</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.19137434504358949</c:v>
+                  <c:v>0.71130921192896257</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.21712495611703733</c:v>
+                  <c:v>0.58010302765643595</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.25234198590996515</c:v>
+                  <c:v>0.69523873569080497</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.29297133051743934</c:v>
+                  <c:v>0.90855535926733599</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.3346534299861057</c:v>
+                  <c:v>0.94710538062804728</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.37311844051525678</c:v>
+                  <c:v>0.76114216090301379</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.4045580257162123</c:v>
+                  <c:v>0.58705174079661493</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.4259419844593102</c:v>
+                  <c:v>0.64562276714282918</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0.43525403068790053</c:v>
+                  <c:v>0.86079052546358048</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0.43162915829930787</c:v>
+                  <c:v>0.95713732341421098</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0.41538436862735062</c:v>
+                  <c:v>0.81117592371743119</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0.38794423926358168</c:v>
+                  <c:v>0.60837006519549619</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0.35167200371191748</c:v>
+                  <c:v>0.60623436309115974</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0.30962470336859127</c:v>
+                  <c:v>0.80611393829812616</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0.26525692337776724</c:v>
+                  <c:v>0.95198254477359401</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>0.22210118486770539</c:v>
+                  <c:v>0.85713701044602608</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>0.18345401841402911</c:v>
+                  <c:v>0.64192059428707915</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>0.15209510583189403</c:v>
+                  <c:v>0.57979088935110734</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>0.13006289516654593</c:v>
+                  <c:v>0.74862596051257202</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>0.11850420919922655</c:v>
+                  <c:v>0.93189761257317816</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>0.11760817305192144</c:v>
+                  <c:v>0.895118881887632</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>0.12662696571210871</c:v>
+                  <c:v>0.68461885126183775</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>0.14397816589296283</c:v>
+                  <c:v>0.56795782431046016</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>0.16741649145275586</c:v>
+                  <c:v>0.69261057625911349</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>0.19425710681198205</c:v>
+                  <c:v>0.89832182132061877</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>0.22162883633632724</c:v>
+                  <c:v>0.92188802854151208</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>0.24673384079597047</c:v>
+                  <c:v>0.73268726391674976</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>0.26709066479214649</c:v>
+                  <c:v>0.57122716704243037</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>0.280739931026391</c:v>
+                  <c:v>0.64219389223873125</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>0.28639605511578392</c:v>
+                  <c:v>0.85375129895189128</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>0.28353375409536363</c:v>
+                  <c:v>0.93513364157864165</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>0.27240429687756645</c:v>
+                  <c:v>0.78196156590485955</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>0.25398282223824264</c:v>
+                  <c:v>0.58889009696904859</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>0.22985406055669508</c:v>
+                  <c:v>0.60101855447682262</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>0.20204892529025051</c:v>
+                  <c:v>0.80153057316395748</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>0.17284827238942721</c:v>
+                  <c:v>0.93364164141566075</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>0.14457237438914125</c:v>
+                  <c:v>0.82822480909722673</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>0.11937518508330874</c:v>
+                  <c:v>0.61910511498946375</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>9.9061301380815911E-2</c:v>
+                  <c:v>0.57195973688961232</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>8.4940830589652683E-2</c:v>
+                  <c:v>0.74557894466350361</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>7.7733441258493741E-2</c:v>
+                  <c:v>0.91738001834236038</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>7.7528107774508456E-2</c:v>
+                  <c:v>0.8675422294840992</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>8.3799905364808872E-2</c:v>
+                  <c:v>0.6590553133109387</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>9.5480141353631601E-2</c:v>
+                  <c:v>0.55690480640920115</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>0.11107156322123625</c:v>
+                  <c:v>0.6900740110575313</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>0.12879674335001176</c:v>
+                  <c:v>0.88748960126007914</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>0.14676528905399305</c:v>
+                  <c:v>0.89657040760989459</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>0.16314443352569327</c:v>
+                  <c:v>0.70518141768401166</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>0.17631787156444503</c:v>
+                  <c:v>0.55661350076572713</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>0.1850193313228429</c:v>
+                  <c:v>0.63911786018483696</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>0.18843012497015102</c:v>
+                  <c:v>0.84618192745587772</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>0.18623351103006525</c:v>
+                  <c:v>0.91281646691235685</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>0.17862278060965986</c:v>
+                  <c:v>0.7534713708741485</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>0.1662641708093914</c:v>
+                  <c:v>0.57066890389617997</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>0.15021963830804672</c:v>
+                  <c:v>0.59641257185913121</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>0.1318378590811905</c:v>
+                  <c:v>0.79655323537155398</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>0.11262428670017856</c:v>
+                  <c:v>0.91482725603840842</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>9.4102518717697078E-2</c:v>
+                  <c:v>0.79978293457056804</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>7.7679504793027487E-2</c:v>
+                  <c:v>0.59752220254091726</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>6.4526300877065776E-2</c:v>
+                  <c:v>0.56497066389635109</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>5.5484247563859057E-2</c:v>
+                  <c:v>0.7423301629126049</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>5.1003827326337216E-2</c:v>
+                  <c:v>0.90229421210949101</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>5.1120296774622299E-2</c:v>
+                  <c:v>0.84017340305589028</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>5.5466795088981551E-2</c:v>
+                  <c:v>0.63462674227306792</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>6.3322306245923818E-2</c:v>
+                  <c:v>0.54688309259008383</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>7.3688890079271374E-2</c:v>
+                  <c:v>0.68756799365610932</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>8.5390242004518238E-2</c:v>
+                  <c:v>0.87606642963116987</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>9.7182076711139917E-2</c:v>
+                  <c:v>0.87121021586582081</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>0.10786416389071851</c:v>
+                  <c:v>0.67864986551615603</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>0.1163840976193574</c:v>
+                  <c:v>0.54316262950467875</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>0.1219239969464327</c:v>
+                  <c:v>0.63632584826626337</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>0.12396318159703663</c:v>
+                  <c:v>0.8380718122212969</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>0.12231225244471063</c:v>
+                  <c:v>0.89023803195127527</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>0.11711670057690583</c:v>
+                  <c:v>0.72574496160538149</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>0.10883092231210369</c:v>
+                  <c:v>0.55367428276301467</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>9.8166085932302929E-2</c:v>
+                  <c:v>0.59234480361431907</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>8.6017460534728737E-2</c:v>
+                  <c:v>0.79115347339063669</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>7.3378403733191475E-2</c:v>
+                  <c:v>0.8955815230492179</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>6.124909611057628E-2</c:v>
+                  <c:v>0.77186155973955617</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>5.0548255218142289E-2</c:v>
+                  <c:v>0.5771574134088483</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>4.2035477053108249E-2</c:v>
+                  <c:v>0.55875443144062298</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>3.6250618376596294E-2</c:v>
+                  <c:v>0.73883520095295308</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>3.347488301552444E-2</c:v>
+                  <c:v>0.88666844698880565</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>3.3716183575602084E-2</c:v>
+                  <c:v>0.81306849995087949</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>3.6719114135682997E-2</c:v>
+                  <c:v>0.61133688092231453</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>4.19976917925097E-2</c:v>
+                  <c:v>0.53783074144821963</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>4.8887094628551286E-2</c:v>
+                  <c:v>0.68503528651611123</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>5.6609100853488414E-2</c:v>
+                  <c:v>0.86406403604745063</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>6.4344936477343725E-2</c:v>
+                  <c:v>0.84586442870755296</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>7.1308834028899315E-2</c:v>
+                  <c:v>0.65311351963916042</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>7.6815804908916055E-2</c:v>
+                  <c:v>0.53082420931090035</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>8.0337891647803764E-2</c:v>
+                  <c:v>0.63375192343094355</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>8.1544404356594088E-2</c:v>
+                  <c:v>0.82941485623706568</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>8.0323230535092827E-2</c:v>
+                  <c:v>0.86745112700652827</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>7.6782086141228362E-2</c:v>
+                  <c:v>0.69881805441418277</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>7.1230384388555071E-2</c:v>
+                  <c:v>0.53787082738212644</c:v>
                 </c:pt>
                 <c:pt idx="128">
-                  <c:v>6.4144076891555532E-2</c:v>
+                  <c:v>0.58874539994876329</c:v>
                 </c:pt>
                 <c:pt idx="129">
-                  <c:v>5.6117227040200966E-2</c:v>
+                  <c:v>0.78530748952833196</c:v>
                 </c:pt>
                 <c:pt idx="130">
-                  <c:v>4.7805094963157137E-2</c:v>
+                  <c:v>0.87594836941489151</c:v>
                 </c:pt>
                 <c:pt idx="131">
-                  <c:v>3.9864072596446497E-2</c:v>
+                  <c:v>0.74450769208670919</c:v>
                 </c:pt>
                 <c:pt idx="132">
-                  <c:v>3.2893875082665426E-2</c:v>
+                  <c:v>0.55799240453732746</c:v>
                 </c:pt>
                 <c:pt idx="133">
-                  <c:v>2.7386984300009288E-2</c:v>
+                  <c:v>0.55324231742637431</c:v>
                 </c:pt>
                 <c:pt idx="134">
-                  <c:v>2.3689506605405645E-2</c:v>
+                  <c:v>0.73505409120108023</c:v>
                 </c:pt>
                 <c:pt idx="135">
-                  <c:v>2.1976439794864643E-2</c:v>
+                  <c:v>0.87053386030789304</c:v>
                 </c:pt>
                 <c:pt idx="136">
-                  <c:v>2.2242959553391714E-2</c:v>
+                  <c:v>0.78628144826939406</c:v>
                 </c:pt>
                 <c:pt idx="137">
-                  <c:v>2.4311863608137863E-2</c:v>
+                  <c:v>0.58918520333208924</c:v>
                 </c:pt>
                 <c:pt idx="138">
-                  <c:v>2.7855885304093896E-2</c:v>
+                  <c:v>0.52968506607640342</c:v>
                 </c:pt>
                 <c:pt idx="139">
-                  <c:v>3.2432331065608909E-2</c:v>
+                  <c:v>0.68242255243941341</c:v>
                 </c:pt>
                 <c:pt idx="140">
-                  <c:v>3.7526512129464708E-2</c:v>
+                  <c:v>0.85149789767342043</c:v>
                 </c:pt>
                 <c:pt idx="141">
-                  <c:v>4.259980587462784E-2</c:v>
+                  <c:v>0.8205890217257753</c:v>
                 </c:pt>
                 <c:pt idx="142">
-                  <c:v>4.7137938198753081E-2</c:v>
+                  <c:v>0.6285890077308014</c:v>
                 </c:pt>
                 <c:pt idx="143">
-                  <c:v>5.06952318123279E-2</c:v>
+                  <c:v>0.51954597125861857</c:v>
                 </c:pt>
                 <c:pt idx="144">
-                  <c:v>5.2931086966400413E-2</c:v>
+                  <c:v>0.63133321395647635</c:v>
                 </c:pt>
                 <c:pt idx="145">
-                  <c:v>5.3635790682017258E-2</c:v>
+                  <c:v>0.82020927882863126</c:v>
                 </c:pt>
                 <c:pt idx="146">
-                  <c:v>5.2743802976205963E-2</c:v>
+                  <c:v>0.84450879081651764</c:v>
                 </c:pt>
                 <c:pt idx="147">
-                  <c:v>5.0333842580270634E-2</c:v>
+                  <c:v>0.67272241623521123</c:v>
                 </c:pt>
                 <c:pt idx="148">
-                  <c:v>4.661628220058403E-2</c:v>
+                  <c:v>0.52322020261223834</c:v>
                 </c:pt>
                 <c:pt idx="149">
-                  <c:v>4.1909459502712819E-2</c:v>
+                  <c:v>0.58554651013804837</c:v>
                 </c:pt>
                 <c:pt idx="150">
-                  <c:v>3.660742188634853E-2</c:v>
+                  <c:v>0.77899603443970267</c:v>
                 </c:pt>
                 <c:pt idx="151">
-                  <c:v>3.1142277784716257E-2</c:v>
+                  <c:v>0.85597319775075553</c:v>
                 </c:pt>
                 <c:pt idx="152">
-                  <c:v>2.5944677175562442E-2</c:v>
+                  <c:v>0.71776504577291556</c:v>
                 </c:pt>
                 <c:pt idx="153">
-                  <c:v>2.1405970400908369E-2</c:v>
+                  <c:v>0.5400051532392246</c:v>
                 </c:pt>
                 <c:pt idx="154">
-                  <c:v>1.7845307623058509E-2</c:v>
+                  <c:v>0.54836639970610923</c:v>
                 </c:pt>
                 <c:pt idx="155">
-                  <c:v>1.5484378796293842E-2</c:v>
+                  <c:v>0.73095129455873697</c:v>
                 </c:pt>
                 <c:pt idx="156">
-                  <c:v>1.4431716184264342E-2</c:v>
+                  <c:v>0.85392417410154076</c:v>
                 </c:pt>
                 <c:pt idx="157">
-                  <c:v>1.4677565060432341E-2</c:v>
+                  <c:v>0.75986380447633461</c:v>
                 </c:pt>
                 <c:pt idx="158">
-                  <c:v>1.6099359322390299E-2</c:v>
+                  <c:v>0.56816706350967094</c:v>
                 </c:pt>
                 <c:pt idx="159">
-                  <c:v>1.8476904605230802E-2</c:v>
+                  <c:v>0.5223829399163965</c:v>
                 </c:pt>
                 <c:pt idx="160">
-                  <c:v>2.1515552889789822E-2</c:v>
+                  <c:v>0.6796804239258617</c:v>
                 </c:pt>
                 <c:pt idx="161">
-                  <c:v>2.4875017032693802E-2</c:v>
+                  <c:v>0.83838698046357896</c:v>
                 </c:pt>
                 <c:pt idx="162">
-                  <c:v>2.8201069818860516E-2</c:v>
+                  <c:v>0.79543871041300507</c:v>
                 </c:pt>
                 <c:pt idx="163">
-                  <c:v>3.1157226483339285E-2</c:v>
+                  <c:v>0.60508873898903381</c:v>
                 </c:pt>
                 <c:pt idx="164">
-                  <c:v>3.3453624855317173E-2</c:v>
+                  <c:v>0.50927402532445598</c:v>
                 </c:pt>
                 <c:pt idx="165">
-                  <c:v>3.4870672981927094E-2</c:v>
+                  <c:v>0.62901005979998637</c:v>
                 </c:pt>
                 <c:pt idx="166">
-                  <c:v>3.5275589578711124E-2</c:v>
+                  <c:v>0.81045741752106815</c:v>
                 </c:pt>
                 <c:pt idx="167">
-                  <c:v>3.4630661238107728E-2</c:v>
+                  <c:v>0.82146401333551711</c:v>
                 </c:pt>
                 <c:pt idx="168">
-                  <c:v>3.2992814955571485E-2</c:v>
+                  <c:v>0.64748584347588833</c:v>
                 </c:pt>
                 <c:pt idx="169">
-                  <c:v>3.0504884094369165E-2</c:v>
+                  <c:v>0.50968142196098276</c:v>
                 </c:pt>
                 <c:pt idx="170">
-                  <c:v>2.7379661648624719E-2</c:v>
+                  <c:v>0.58268250091144325</c:v>
                 </c:pt>
                 <c:pt idx="171">
-                  <c:v>2.3878426132899162E-2</c:v>
+                  <c:v>0.77220428449039047</c:v>
                 </c:pt>
                 <c:pt idx="172">
-                  <c:v>2.0286045478322381E-2</c:v>
+                  <c:v>0.83570257589007468</c:v>
                 </c:pt>
                 <c:pt idx="173">
-                  <c:v>1.6884982727705659E-2</c:v>
+                  <c:v>0.69167393559041923</c:v>
                 </c:pt>
                 <c:pt idx="174">
-                  <c:v>1.3930532792116998E-2</c:v>
+                  <c:v>0.52317018654282821</c:v>
                 </c:pt>
                 <c:pt idx="175">
-                  <c:v>1.1629419927579506E-2</c:v>
+                  <c:v>0.54405982427792765</c:v>
                 </c:pt>
                 <c:pt idx="176">
-                  <c:v>1.0123506509148008E-2</c:v>
+                  <c:v>0.72649566201755456</c:v>
                 </c:pt>
                 <c:pt idx="177">
-                  <c:v>9.4798454983757476E-3</c:v>
+                  <c:v>0.83687539597701677</c:v>
                 </c:pt>
                 <c:pt idx="178">
-                  <c:v>9.6877027474862511E-3</c:v>
+                  <c:v>0.73386457147698203</c:v>
                 </c:pt>
                 <c:pt idx="179">
-                  <c:v>1.066253773287394E-2</c:v>
+                  <c:v>0.54827385855351307</c:v>
                 </c:pt>
                 <c:pt idx="180">
-                  <c:v>1.2256319761861992E-2</c:v>
+                  <c:v>0.51586109277943515</c:v>
                 </c:pt>
                 <c:pt idx="181">
-                  <c:v>1.4273023916305617E-2</c:v>
+                  <c:v>0.6767635509973049</c:v>
                 </c:pt>
                 <c:pt idx="182">
-                  <c:v>1.648774075428731E-2</c:v>
+                  <c:v>0.82475347470021787</c:v>
                 </c:pt>
                 <c:pt idx="183">
-                  <c:v>1.8667577362976747E-2</c:v>
+                  <c:v>0.77046670731321443</c:v>
                 </c:pt>
                 <c:pt idx="184">
-                  <c:v>2.0592441263514009E-2</c:v>
+                  <c:v>0.58262098859432498</c:v>
                 </c:pt>
                 <c:pt idx="185">
-                  <c:v>2.2073883805398261E-2</c:v>
+                  <c:v>0.49995316025622272</c:v>
                 </c:pt>
                 <c:pt idx="186">
-                  <c:v>2.2970421851547667E-2</c:v>
+                  <c:v>0.62672614176426955</c:v>
                 </c:pt>
                 <c:pt idx="187">
-                  <c:v>2.3198128290446828E-2</c:v>
+                  <c:v>0.8001655186454929</c:v>
                 </c:pt>
                 <c:pt idx="188">
-                  <c:v>2.2735745443813685E-2</c:v>
+                  <c:v>0.79836945159113093</c:v>
                 </c:pt>
                 <c:pt idx="189">
-                  <c:v>2.1624086399796887E-2</c:v>
+                  <c:v>0.62313216164316898</c:v>
                 </c:pt>
                 <c:pt idx="190">
-                  <c:v>1.99600008938919E-2</c:v>
+                  <c:v>0.4972111272613523</c:v>
                 </c:pt>
                 <c:pt idx="191">
-                  <c:v>1.7885649563110499E-2</c:v>
+                  <c:v>0.58009015568319022</c:v>
                 </c:pt>
                 <c:pt idx="192">
-                  <c:v>1.5574213863284739E-2</c:v>
+                  <c:v>0.7649217032597122</c:v>
                 </c:pt>
                 <c:pt idx="193">
-                  <c:v>1.3213438222372587E-2</c:v>
+                  <c:v>0.81518393416307189</c:v>
                 </c:pt>
                 <c:pt idx="194">
-                  <c:v>1.0988536897846499E-2</c:v>
+                  <c:v>0.6662711924020247</c:v>
                 </c:pt>
                 <c:pt idx="195">
-                  <c:v>9.065993791875504E-3</c:v>
+                  <c:v>0.50745881847667174</c:v>
                 </c:pt>
                 <c:pt idx="196">
-                  <c:v>7.579645018477999E-3</c:v>
+                  <c:v>0.54025705786307787</c:v>
                 </c:pt>
                 <c:pt idx="197">
-                  <c:v>6.6201787535248849E-3</c:v>
+                  <c:v>0.72166037710935549</c:v>
                 </c:pt>
                 <c:pt idx="198">
-                  <c:v>6.2288418618317081E-3</c:v>
+                  <c:v>0.81942552177652028</c:v>
                 </c:pt>
                 <c:pt idx="199">
-                  <c:v>6.395741851747099E-3</c:v>
+                  <c:v>0.70833003718628951</c:v>
                 </c:pt>
                 <c:pt idx="200">
-                  <c:v>7.0627133119110464E-3</c:v>
+                  <c:v>0.52949320493027241</c:v>
                 </c:pt>
                 <c:pt idx="201">
-                  <c:v>8.1303177467189919E-3</c:v>
+                  <c:v>0.51005639598897978</c:v>
                 </c:pt>
                 <c:pt idx="202">
-                  <c:v>9.4681990963801765E-3</c:v>
+                  <c:v>0.67363062812869801</c:v>
                 </c:pt>
                 <c:pt idx="203">
-                  <c:v>1.0927752588597147E-2</c:v>
+                  <c:v>0.8106225263370449</c:v>
                 </c:pt>
                 <c:pt idx="204">
-                  <c:v>1.2355901981947415E-2</c:v>
+                  <c:v>0.74572449706195687</c:v>
                 </c:pt>
                 <c:pt idx="205">
-                  <c:v>1.3608730024077203E-2</c:v>
+                  <c:v>0.56118999938619585</c:v>
                 </c:pt>
                 <c:pt idx="206">
-                  <c:v>1.4563769073877617E-2</c:v>
+                  <c:v>0.4915271381256871</c:v>
                 </c:pt>
                 <c:pt idx="207">
-                  <c:v>1.512992345607425E-2</c:v>
+                  <c:v>0.62442858971099813</c:v>
                 </c:pt>
                 <c:pt idx="208">
-                  <c:v>1.5254243731997552E-2</c:v>
+                  <c:v>0.78934351815684578</c:v>
                 </c:pt>
                 <c:pt idx="209">
-                  <c:v>1.4925080522374297E-2</c:v>
+                  <c:v>0.77527715944141073</c:v>
                 </c:pt>
                 <c:pt idx="210">
-                  <c:v>1.4171482459264988E-2</c:v>
+                  <c:v>0.5996812448781117</c:v>
                 </c:pt>
                 <c:pt idx="211">
-                  <c:v>1.3059038484383383E-2</c:v>
+                  <c:v>0.48576386896474116</c:v>
                 </c:pt>
                 <c:pt idx="212">
-                  <c:v>1.1682669581337879E-2</c:v>
+                  <c:v>0.57770885443746522</c:v>
                 </c:pt>
                 <c:pt idx="213">
-                  <c:v>1.0157123522889352E-2</c:v>
+                  <c:v>0.75714188849715769</c:v>
                 </c:pt>
                 <c:pt idx="214">
-                  <c:v>8.6060986866040544E-3</c:v>
+                  <c:v>0.79446527152710322</c:v>
                 </c:pt>
                 <c:pt idx="215">
-                  <c:v>7.1510072551355568E-3</c:v>
+                  <c:v>0.64159009958115276</c:v>
                 </c:pt>
                 <c:pt idx="216">
-                  <c:v>5.900380218594751E-3</c:v>
+                  <c:v>0.49283939380032543</c:v>
                 </c:pt>
                 <c:pt idx="217">
-                  <c:v>4.9408208444671883E-3</c:v>
+                  <c:v>0.53689412426637029</c:v>
                 </c:pt>
                 <c:pt idx="218">
-                  <c:v>4.3302415415100957E-3</c:v>
+                  <c:v>0.71642288025725909</c:v>
                 </c:pt>
                 <c:pt idx="219">
-                  <c:v>4.0938894020001188E-3</c:v>
+                  <c:v>0.80161424139541548</c:v>
                 </c:pt>
                 <c:pt idx="220">
-                  <c:v>4.2234006291124986E-3</c:v>
+                  <c:v>0.68330363352077605</c:v>
                 </c:pt>
                 <c:pt idx="221">
-                  <c:v>4.6788482461992374E-3</c:v>
+                  <c:v>0.51180912646275589</c:v>
                 </c:pt>
                 <c:pt idx="222">
-                  <c:v>5.3934856206996071E-3</c:v>
+                  <c:v>0.50490613569484644</c:v>
                 </c:pt>
                 <c:pt idx="223">
-                  <c:v>6.2806629015593448E-3</c:v>
+                  <c:v>0.67024440100242988</c:v>
                 </c:pt>
                 <c:pt idx="224">
-                  <c:v>7.2422228638858504E-3</c:v>
+                  <c:v>0.79602196561431116</c:v>
                 </c:pt>
                 <c:pt idx="225">
-                  <c:v>8.1775797330404937E-3</c:v>
+                  <c:v>0.72126162966199692</c:v>
                 </c:pt>
                 <c:pt idx="226">
-                  <c:v>8.9926557205311682E-3</c:v>
+                  <c:v>0.5407960995393587</c:v>
                 </c:pt>
                 <c:pt idx="227">
-                  <c:v>9.6078948776114233E-3</c:v>
+                  <c:v>0.48393898234007693</c:v>
                 </c:pt>
                 <c:pt idx="228">
-                  <c:v>9.964685622427371E-3</c:v>
+                  <c:v>0.62206807014463661</c:v>
                 </c:pt>
                 <c:pt idx="229">
-                  <c:v>1.0029689472178201E-2</c:v>
+                  <c:v>0.7780048141184166</c:v>
                 </c:pt>
                 <c:pt idx="230">
-                  <c:v>9.7967773638106791E-3</c:v>
+                  <c:v>0.75223833196092149</c:v>
                 </c:pt>
                 <c:pt idx="231">
-                  <c:v>9.2864970690811257E-3</c:v>
+                  <c:v>0.57714905447211085</c:v>
                 </c:pt>
                 <c:pt idx="232">
-                  <c:v>8.5432153502795656E-3</c:v>
+                  <c:v>0.47529238565069842</c:v>
                 </c:pt>
                 <c:pt idx="233">
-                  <c:v>7.6302773778000816E-3</c:v>
+                  <c:v>0.57548073417621592</c:v>
                 </c:pt>
                 <c:pt idx="234">
-                  <c:v>6.6236868827876895E-3</c:v>
+                  <c:v>0.74886240586193331</c:v>
                 </c:pt>
                 <c:pt idx="235">
-                  <c:v>5.6049208784842265E-3</c:v>
+                  <c:v>0.77359487159982543</c:v>
                 </c:pt>
                 <c:pt idx="236">
-                  <c:v>4.6535448301319466E-3</c:v>
+                  <c:v>0.61766034988554641</c:v>
                 </c:pt>
                 <c:pt idx="237">
-                  <c:v>3.8402855944179668E-3</c:v>
+                  <c:v>0.47927753671928208</c:v>
                 </c:pt>
                 <c:pt idx="238">
-                  <c:v>3.221153414574717E-3</c:v>
+                  <c:v>0.53390882402555895</c:v>
                 </c:pt>
                 <c:pt idx="239">
-                  <c:v>2.833088807843396E-3</c:v>
+                  <c:v>0.71076477612725997</c:v>
                 </c:pt>
                 <c:pt idx="240">
-                  <c:v>2.6914574094428524E-3</c:v>
+                  <c:v>0.78348264904391773</c:v>
                 </c:pt>
                 <c:pt idx="241">
-                  <c:v>2.7895406413257374E-3</c:v>
+                  <c:v>0.65882581564605569</c:v>
                 </c:pt>
                 <c:pt idx="242">
-                  <c:v>3.0999887426056433E-3</c:v>
+                  <c:v>0.49520225262135592</c:v>
                 </c:pt>
                 <c:pt idx="243">
-                  <c:v>3.5780314203395897E-3</c:v>
+                  <c:v>0.50034827350477595</c:v>
                 </c:pt>
                 <c:pt idx="244">
-                  <c:v>4.1660948241276389E-3</c:v>
+                  <c:v>0.66657165387058459</c:v>
                 </c:pt>
                 <c:pt idx="245">
-                  <c:v>4.7993636359252041E-3</c:v>
+                  <c:v>0.7809820343644297</c:v>
                 </c:pt>
                 <c:pt idx="246">
-                  <c:v>5.4117620275534488E-3</c:v>
+                  <c:v>0.69712553223687135</c:v>
                 </c:pt>
                 <c:pt idx="247">
-                  <c:v>5.9418110333344073E-3</c:v>
+                  <c:v>0.52143583499741741</c:v>
                 </c:pt>
                 <c:pt idx="248">
-                  <c:v>6.3378520245036471E-3</c:v>
+                  <c:v>0.47713125796950384</c:v>
                 </c:pt>
                 <c:pt idx="249">
-                  <c:v>6.5622017333053428E-3</c:v>
+                  <c:v>0.61959885357763</c:v>
                 </c:pt>
                 <c:pt idx="250">
-                  <c:v>6.5939152842810489E-3</c:v>
+                  <c:v>0.7661660322894901</c:v>
                 </c:pt>
                 <c:pt idx="251">
-                  <c:v>6.4299688027853914E-3</c:v>
+                  <c:v>0.72930306508419107</c:v>
                 </c:pt>
                 <c:pt idx="252">
-                  <c:v>6.0848195579225528E-3</c:v>
+                  <c:v>0.55554769538488258</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1649,11 +1649,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="322936832"/>
-        <c:axId val="322237952"/>
+        <c:axId val="280560000"/>
+        <c:axId val="280576384"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="322936832"/>
+        <c:axId val="280560000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1663,12 +1663,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="322237952"/>
+        <c:crossAx val="280576384"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="322237952"/>
+        <c:axId val="280576384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1679,7 +1679,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="322936832"/>
+        <c:crossAx val="280560000"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2024,185 +2024,195 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:F253"/>
+  <dimension ref="A1:H253"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="6" max="6" width="19.8984375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1">
         <v>1</v>
       </c>
       <c r="B1">
-        <f>EXP(-lambda*A1)*(2+COS(freq*A1))/3</f>
-        <v>0.96560563527198751</v>
+        <f>EXP(-lambda*A1)*(4+COS(freq*A1))/5</f>
+        <v>0.87159951543483927</v>
       </c>
       <c r="D1" t="s">
         <v>0</v>
       </c>
       <c r="E1">
-        <v>0.02</v>
+        <f>G1*H1</f>
+        <v>1E-3</v>
       </c>
       <c r="F1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G1">
+        <v>0.1</v>
+      </c>
+      <c r="H1">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>2</v>
       </c>
       <c r="B2">
-        <f>EXP(-lambda*A2)*(2+COS(freq*A2))/3</f>
-        <v>0.9048508736220513</v>
+        <f>EXP(-lambda*A2)*(4+COS(freq*A2))/5</f>
+        <v>0.65121751855088772</v>
       </c>
       <c r="D2" t="s">
         <v>1</v>
       </c>
       <c r="E2">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3">
         <f>A2+1</f>
         <v>3</v>
       </c>
       <c r="B3">
-        <f>EXP(-lambda*A3)*(2+COS(freq*A3))/3</f>
-        <v>0.82297976300274645</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+        <f>EXP(-lambda*A3)*(4+COS(freq*A3))/5</f>
+        <v>0.61878916190957234</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4">
         <f t="shared" ref="A4:A14" si="0">A3+1</f>
         <v>4</v>
       </c>
       <c r="B4">
-        <f>EXP(-lambda*A4)*(2+COS(freq*A4))/3</f>
-        <v>0.72691035305688123</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+        <f>EXP(-lambda*A4)*(4+COS(freq*A4))/5</f>
+        <v>0.81423632878822649</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="B5">
-        <f>EXP(-lambda*A5)*(2+COS(freq*A5))/3</f>
-        <v>0.62456016766267075</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+        <f>EXP(-lambda*A5)*(4+COS(freq*A5))/5</f>
+        <v>0.98708626682757183</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="B6">
-        <f>EXP(-lambda*A6)*(2+COS(freq*A6))/3</f>
-        <v>0.52411023079535646</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+        <f>EXP(-lambda*A6)*(4+COS(freq*A6))/5</f>
+        <v>0.91615679826332586</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="B7">
-        <f>EXP(-lambda*A7)*(2+COS(freq*A7))/3</f>
-        <v>0.43327478405157288</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+        <f>EXP(-lambda*A7)*(4+COS(freq*A7))/5</f>
+        <v>0.69128628905143386</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="B8">
-        <f>EXP(-lambda*A8)*(2+COS(freq*A8))/3</f>
-        <v>0.35864070107041107</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+        <f>EXP(-lambda*A8)*(4+COS(freq*A8))/5</f>
+        <v>0.59825717604959905</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="B9">
-        <f>EXP(-lambda*A9)*(2+COS(freq*A9))/3</f>
-        <v>0.30513196454297065</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+        <f>EXP(-lambda*A9)*(4+COS(freq*A9))/5</f>
+        <v>0.7543145461982278</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="B10">
-        <f>EXP(-lambda*A10)*(2+COS(freq*A10))/3</f>
-        <v>0.27564140129090986</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+        <f>EXP(-lambda*A10)*(4+COS(freq*A10))/5</f>
+        <v>0.95913136130967069</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="B11">
-        <f>EXP(-lambda*A11)*(2+COS(freq*A11))/3</f>
-        <v>0.27085550598847663</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+        <f>EXP(-lambda*A11)*(4+COS(freq*A11))/5</f>
+        <v>0.95066178538118729</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="B12">
-        <f>EXP(-lambda*A12)*(2+COS(freq*A12))/3</f>
-        <v>0.28928018906624892</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+        <f>EXP(-lambda*A12)*(4+COS(freq*A12))/5</f>
+        <v>0.73911373425246796</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
       <c r="B13">
-        <f>EXP(-lambda*A13)*(2+COS(freq*A13))/3</f>
-        <v>0.32745730575585918</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+        <f>EXP(-lambda*A13)*(4+COS(freq*A13))/5</f>
+        <v>0.59339991577401219</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
       <c r="B14">
-        <f>EXP(-lambda*A14)*(2+COS(freq*A14))/3</f>
-        <v>0.38034544168980672</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+        <f>EXP(-lambda*A14)*(4+COS(freq*A14))/5</f>
+        <v>0.69802323066212379</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15">
         <f>A14+1</f>
         <v>15</v>
       </c>
       <c r="B15">
-        <f>EXP(-lambda*A15)*(2+COS(freq*A15))/3</f>
-        <v>0.44182502410064844</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+        <f>EXP(-lambda*A15)*(4+COS(freq*A15))/5</f>
+        <v>0.91818672632457721</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16">
         <f t="shared" ref="A16:A79" si="1">A15+1</f>
         <v>16</v>
       </c>
       <c r="B16">
-        <f>EXP(-lambda*A16)*(2+COS(freq*A16))/3</f>
-        <v>0.50527845890562084</v>
+        <f>EXP(-lambda*A16)*(4+COS(freq*A16))/5</f>
+        <v>0.97216433659146551</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
@@ -2211,8 +2221,8 @@
         <v>17</v>
       </c>
       <c r="B17">
-        <f>EXP(-lambda*A17)*(2+COS(freq*A17))/3</f>
-        <v>0.56419132848437337</v>
+        <f>EXP(-lambda*A17)*(4+COS(freq*A17))/5</f>
+        <v>0.79051650832763554</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
@@ -2221,8 +2231,8 @@
         <v>18</v>
       </c>
       <c r="B18">
-        <f>EXP(-lambda*A18)*(2+COS(freq*A18))/3</f>
-        <v>0.61272094867105842</v>
+        <f>EXP(-lambda*A18)*(4+COS(freq*A18))/5</f>
+        <v>0.60413279531948805</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
@@ -2231,8 +2241,8 @@
         <v>19</v>
       </c>
       <c r="B19">
-        <f>EXP(-lambda*A19)*(2+COS(freq*A19))/3</f>
-        <v>0.64618355991746312</v>
+        <f>EXP(-lambda*A19)*(4+COS(freq*A19))/5</f>
+        <v>0.64947600426052199</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
@@ -2241,8 +2251,8 @@
         <v>20</v>
       </c>
       <c r="B20">
-        <f>EXP(-lambda*A20)*(2+COS(freq*A20))/3</f>
-        <v>0.66142049427360161</v>
+        <f>EXP(-lambda*A20)*(4+COS(freq*A20))/5</f>
+        <v>0.86731487869266444</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
@@ -2251,8 +2261,8 @@
         <v>21</v>
       </c>
       <c r="B21">
-        <f>EXP(-lambda*A21)*(2+COS(freq*A21))/3</f>
-        <v>0.65701585897681847</v>
+        <f>EXP(-lambda*A21)*(4+COS(freq*A21))/5</f>
+        <v>0.97877615810924967</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
@@ -2261,8 +2271,8 @@
         <v>22</v>
       </c>
       <c r="B22">
-        <f>EXP(-lambda*A22)*(2+COS(freq*A22))/3</f>
-        <v>0.63335241329593706</v>
+        <f>EXP(-lambda*A22)*(4+COS(freq*A22))/5</f>
+        <v>0.84107097967662714</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
@@ -2271,8 +2281,8 @@
         <v>23</v>
       </c>
       <c r="B23">
-        <f>EXP(-lambda*A23)*(2+COS(freq*A23))/3</f>
-        <v>0.59250706865082992</v>
+        <f>EXP(-lambda*A23)*(4+COS(freq*A23))/5</f>
+        <v>0.62913753993543087</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
@@ -2281,8 +2291,8 @@
         <v>24</v>
       </c>
       <c r="B24">
-        <f>EXP(-lambda*A24)*(2+COS(freq*A24))/3</f>
-        <v>0.5380014911427583</v>
+        <f>EXP(-lambda*A24)*(4+COS(freq*A24))/5</f>
+        <v>0.6121331154698233</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
@@ -2291,8 +2301,8 @@
         <v>25</v>
       </c>
       <c r="B25">
-        <f>EXP(-lambda*A25)*(2+COS(freq*A25))/3</f>
-        <v>0.47443542247714782</v>
+        <f>EXP(-lambda*A25)*(4+COS(freq*A25))/5</f>
+        <v>0.8103365232266867</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
@@ -2301,8 +2311,8 @@
         <v>26</v>
       </c>
       <c r="B26">
-        <f>EXP(-lambda*A26)*(2+COS(freq*A26))/3</f>
-        <v>0.4070395673797525</v>
+        <f>EXP(-lambda*A26)*(4+COS(freq*A26))/5</f>
+        <v>0.96980994634085604</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
@@ -2311,8 +2321,8 @@
         <v>27</v>
       </c>
       <c r="B27">
-        <f>EXP(-lambda*A27)*(2+COS(freq*A27))/3</f>
-        <v>0.34119052492751489</v>
+        <f>EXP(-lambda*A27)*(4+COS(freq*A27))/5</f>
+        <v>0.88646635047077638</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
@@ -2321,8 +2331,8 @@
         <v>28</v>
       </c>
       <c r="B28">
-        <f>EXP(-lambda*A28)*(2+COS(freq*A28))/3</f>
-        <v>0.28193191390410893</v>
+        <f>EXP(-lambda*A28)*(4+COS(freq*A28))/5</f>
+        <v>0.6659789755390213</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
@@ -2331,8 +2341,8 @@
         <v>29</v>
       </c>
       <c r="B29">
-        <f>EXP(-lambda*A29)*(2+COS(freq*A29))/3</f>
-        <v>0.2335435663753844</v>
+        <f>EXP(-lambda*A29)*(4+COS(freq*A29))/5</f>
+        <v>0.58853357982414112</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
@@ -2341,8 +2351,8 @@
         <v>30</v>
       </c>
       <c r="B30">
-        <f>EXP(-lambda*A30)*(2+COS(freq*A30))/3</f>
-        <v>0.19919479415611482</v>
+        <f>EXP(-lambda*A30)*(4+COS(freq*A30))/5</f>
+        <v>0.75152006862774601</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
@@ -2351,8 +2361,8 @@
         <v>31</v>
       </c>
       <c r="B31">
-        <f>EXP(-lambda*A31)*(2+COS(freq*A31))/3</f>
-        <v>0.18070892684051851</v>
+        <f>EXP(-lambda*A31)*(4+COS(freq*A31))/5</f>
+        <v>0.94582192429016509</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
@@ -2361,8 +2371,8 @@
         <v>32</v>
       </c>
       <c r="B32">
-        <f>EXP(-lambda*A32)*(2+COS(freq*A32))/3</f>
-        <v>0.17845546722621999</v>
+        <f>EXP(-lambda*A32)*(4+COS(freq*A32))/5</f>
+        <v>0.92284531638829592</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
@@ -2371,8 +2381,8 @@
         <v>33</v>
       </c>
       <c r="B33">
-        <f>EXP(-lambda*A33)*(2+COS(freq*A33))/3</f>
-        <v>0.19137434504358949</v>
+        <f>EXP(-lambda*A33)*(4+COS(freq*A33))/5</f>
+        <v>0.71130921192896257</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
@@ -2381,8 +2391,8 @@
         <v>34</v>
       </c>
       <c r="B34">
-        <f>EXP(-lambda*A34)*(2+COS(freq*A34))/3</f>
-        <v>0.21712495611703733</v>
+        <f>EXP(-lambda*A34)*(4+COS(freq*A34))/5</f>
+        <v>0.58010302765643595</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
@@ -2391,8 +2401,8 @@
         <v>35</v>
       </c>
       <c r="B35">
-        <f>EXP(-lambda*A35)*(2+COS(freq*A35))/3</f>
-        <v>0.25234198590996515</v>
+        <f>EXP(-lambda*A35)*(4+COS(freq*A35))/5</f>
+        <v>0.69523873569080497</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
@@ -2401,8 +2411,8 @@
         <v>36</v>
       </c>
       <c r="B36">
-        <f>EXP(-lambda*A36)*(2+COS(freq*A36))/3</f>
-        <v>0.29297133051743934</v>
+        <f>EXP(-lambda*A36)*(4+COS(freq*A36))/5</f>
+        <v>0.90855535926733599</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
@@ -2411,8 +2421,8 @@
         <v>37</v>
       </c>
       <c r="B37">
-        <f>EXP(-lambda*A37)*(2+COS(freq*A37))/3</f>
-        <v>0.3346534299861057</v>
+        <f>EXP(-lambda*A37)*(4+COS(freq*A37))/5</f>
+        <v>0.94710538062804728</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
@@ -2421,8 +2431,8 @@
         <v>38</v>
       </c>
       <c r="B38">
-        <f>EXP(-lambda*A38)*(2+COS(freq*A38))/3</f>
-        <v>0.37311844051525678</v>
+        <f>EXP(-lambda*A38)*(4+COS(freq*A38))/5</f>
+        <v>0.76114216090301379</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
@@ -2431,8 +2441,8 @@
         <v>39</v>
       </c>
       <c r="B39">
-        <f>EXP(-lambda*A39)*(2+COS(freq*A39))/3</f>
-        <v>0.4045580257162123</v>
+        <f>EXP(-lambda*A39)*(4+COS(freq*A39))/5</f>
+        <v>0.58705174079661493</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
@@ -2441,8 +2451,8 @@
         <v>40</v>
       </c>
       <c r="B40">
-        <f>EXP(-lambda*A40)*(2+COS(freq*A40))/3</f>
-        <v>0.4259419844593102</v>
+        <f>EXP(-lambda*A40)*(4+COS(freq*A40))/5</f>
+        <v>0.64562276714282918</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
@@ -2451,8 +2461,8 @@
         <v>41</v>
       </c>
       <c r="B41">
-        <f>EXP(-lambda*A41)*(2+COS(freq*A41))/3</f>
-        <v>0.43525403068790053</v>
+        <f>EXP(-lambda*A41)*(4+COS(freq*A41))/5</f>
+        <v>0.86079052546358048</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
@@ -2461,8 +2471,8 @@
         <v>42</v>
       </c>
       <c r="B42">
-        <f>EXP(-lambda*A42)*(2+COS(freq*A42))/3</f>
-        <v>0.43162915829930787</v>
+        <f>EXP(-lambda*A42)*(4+COS(freq*A42))/5</f>
+        <v>0.95713732341421098</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
@@ -2471,8 +2481,8 @@
         <v>43</v>
       </c>
       <c r="B43">
-        <f>EXP(-lambda*A43)*(2+COS(freq*A43))/3</f>
-        <v>0.41538436862735062</v>
+        <f>EXP(-lambda*A43)*(4+COS(freq*A43))/5</f>
+        <v>0.81117592371743119</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
@@ -2481,8 +2491,8 @@
         <v>44</v>
       </c>
       <c r="B44">
-        <f>EXP(-lambda*A44)*(2+COS(freq*A44))/3</f>
-        <v>0.38794423926358168</v>
+        <f>EXP(-lambda*A44)*(4+COS(freq*A44))/5</f>
+        <v>0.60837006519549619</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
@@ -2491,8 +2501,8 @@
         <v>45</v>
       </c>
       <c r="B45">
-        <f>EXP(-lambda*A45)*(2+COS(freq*A45))/3</f>
-        <v>0.35167200371191748</v>
+        <f>EXP(-lambda*A45)*(4+COS(freq*A45))/5</f>
+        <v>0.60623436309115974</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
@@ -2501,8 +2511,8 @@
         <v>46</v>
       </c>
       <c r="B46">
-        <f>EXP(-lambda*A46)*(2+COS(freq*A46))/3</f>
-        <v>0.30962470336859127</v>
+        <f>EXP(-lambda*A46)*(4+COS(freq*A46))/5</f>
+        <v>0.80611393829812616</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
@@ -2511,8 +2521,8 @@
         <v>47</v>
       </c>
       <c r="B47">
-        <f>EXP(-lambda*A47)*(2+COS(freq*A47))/3</f>
-        <v>0.26525692337776724</v>
+        <f>EXP(-lambda*A47)*(4+COS(freq*A47))/5</f>
+        <v>0.95198254477359401</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
@@ -2521,8 +2531,8 @@
         <v>48</v>
       </c>
       <c r="B48">
-        <f>EXP(-lambda*A48)*(2+COS(freq*A48))/3</f>
-        <v>0.22210118486770539</v>
+        <f>EXP(-lambda*A48)*(4+COS(freq*A48))/5</f>
+        <v>0.85713701044602608</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
@@ -2531,8 +2541,8 @@
         <v>49</v>
       </c>
       <c r="B49">
-        <f>EXP(-lambda*A49)*(2+COS(freq*A49))/3</f>
-        <v>0.18345401841402911</v>
+        <f>EXP(-lambda*A49)*(4+COS(freq*A49))/5</f>
+        <v>0.64192059428707915</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
@@ -2541,8 +2551,8 @@
         <v>50</v>
       </c>
       <c r="B50">
-        <f>EXP(-lambda*A50)*(2+COS(freq*A50))/3</f>
-        <v>0.15209510583189403</v>
+        <f>EXP(-lambda*A50)*(4+COS(freq*A50))/5</f>
+        <v>0.57979088935110734</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
@@ -2551,8 +2561,8 @@
         <v>51</v>
       </c>
       <c r="B51">
-        <f>EXP(-lambda*A51)*(2+COS(freq*A51))/3</f>
-        <v>0.13006289516654593</v>
+        <f>EXP(-lambda*A51)*(4+COS(freq*A51))/5</f>
+        <v>0.74862596051257202</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
@@ -2561,8 +2571,8 @@
         <v>52</v>
       </c>
       <c r="B52">
-        <f>EXP(-lambda*A52)*(2+COS(freq*A52))/3</f>
-        <v>0.11850420919922655</v>
+        <f>EXP(-lambda*A52)*(4+COS(freq*A52))/5</f>
+        <v>0.93189761257317816</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
@@ -2571,8 +2581,8 @@
         <v>53</v>
       </c>
       <c r="B53">
-        <f>EXP(-lambda*A53)*(2+COS(freq*A53))/3</f>
-        <v>0.11760817305192144</v>
+        <f>EXP(-lambda*A53)*(4+COS(freq*A53))/5</f>
+        <v>0.895118881887632</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
@@ -2581,8 +2591,8 @@
         <v>54</v>
       </c>
       <c r="B54">
-        <f>EXP(-lambda*A54)*(2+COS(freq*A54))/3</f>
-        <v>0.12662696571210871</v>
+        <f>EXP(-lambda*A54)*(4+COS(freq*A54))/5</f>
+        <v>0.68461885126183775</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
@@ -2591,8 +2601,8 @@
         <v>55</v>
       </c>
       <c r="B55">
-        <f>EXP(-lambda*A55)*(2+COS(freq*A55))/3</f>
-        <v>0.14397816589296283</v>
+        <f>EXP(-lambda*A55)*(4+COS(freq*A55))/5</f>
+        <v>0.56795782431046016</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.3">
@@ -2601,8 +2611,8 @@
         <v>56</v>
       </c>
       <c r="B56">
-        <f>EXP(-lambda*A56)*(2+COS(freq*A56))/3</f>
-        <v>0.16741649145275586</v>
+        <f>EXP(-lambda*A56)*(4+COS(freq*A56))/5</f>
+        <v>0.69261057625911349</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.3">
@@ -2611,8 +2621,8 @@
         <v>57</v>
       </c>
       <c r="B57">
-        <f>EXP(-lambda*A57)*(2+COS(freq*A57))/3</f>
-        <v>0.19425710681198205</v>
+        <f>EXP(-lambda*A57)*(4+COS(freq*A57))/5</f>
+        <v>0.89832182132061877</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.3">
@@ -2621,8 +2631,8 @@
         <v>58</v>
       </c>
       <c r="B58">
-        <f>EXP(-lambda*A58)*(2+COS(freq*A58))/3</f>
-        <v>0.22162883633632724</v>
+        <f>EXP(-lambda*A58)*(4+COS(freq*A58))/5</f>
+        <v>0.92188802854151208</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.3">
@@ -2631,8 +2641,8 @@
         <v>59</v>
       </c>
       <c r="B59">
-        <f>EXP(-lambda*A59)*(2+COS(freq*A59))/3</f>
-        <v>0.24673384079597047</v>
+        <f>EXP(-lambda*A59)*(4+COS(freq*A59))/5</f>
+        <v>0.73268726391674976</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.3">
@@ -2641,8 +2651,8 @@
         <v>60</v>
       </c>
       <c r="B60">
-        <f>EXP(-lambda*A60)*(2+COS(freq*A60))/3</f>
-        <v>0.26709066479214649</v>
+        <f>EXP(-lambda*A60)*(4+COS(freq*A60))/5</f>
+        <v>0.57122716704243037</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.3">
@@ -2651,8 +2661,8 @@
         <v>61</v>
       </c>
       <c r="B61">
-        <f>EXP(-lambda*A61)*(2+COS(freq*A61))/3</f>
-        <v>0.280739931026391</v>
+        <f>EXP(-lambda*A61)*(4+COS(freq*A61))/5</f>
+        <v>0.64219389223873125</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.3">
@@ -2661,8 +2671,8 @@
         <v>62</v>
       </c>
       <c r="B62">
-        <f>EXP(-lambda*A62)*(2+COS(freq*A62))/3</f>
-        <v>0.28639605511578392</v>
+        <f>EXP(-lambda*A62)*(4+COS(freq*A62))/5</f>
+        <v>0.85375129895189128</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.3">
@@ -2671,8 +2681,8 @@
         <v>63</v>
       </c>
       <c r="B63">
-        <f>EXP(-lambda*A63)*(2+COS(freq*A63))/3</f>
-        <v>0.28353375409536363</v>
+        <f>EXP(-lambda*A63)*(4+COS(freq*A63))/5</f>
+        <v>0.93513364157864165</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.3">
@@ -2681,8 +2691,8 @@
         <v>64</v>
       </c>
       <c r="B64">
-        <f>EXP(-lambda*A64)*(2+COS(freq*A64))/3</f>
-        <v>0.27240429687756645</v>
+        <f>EXP(-lambda*A64)*(4+COS(freq*A64))/5</f>
+        <v>0.78196156590485955</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.3">
@@ -2691,8 +2701,8 @@
         <v>65</v>
       </c>
       <c r="B65">
-        <f>EXP(-lambda*A65)*(2+COS(freq*A65))/3</f>
-        <v>0.25398282223824264</v>
+        <f>EXP(-lambda*A65)*(4+COS(freq*A65))/5</f>
+        <v>0.58889009696904859</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.3">
@@ -2701,8 +2711,8 @@
         <v>66</v>
       </c>
       <c r="B66">
-        <f>EXP(-lambda*A66)*(2+COS(freq*A66))/3</f>
-        <v>0.22985406055669508</v>
+        <f>EXP(-lambda*A66)*(4+COS(freq*A66))/5</f>
+        <v>0.60101855447682262</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.3">
@@ -2711,8 +2721,8 @@
         <v>67</v>
       </c>
       <c r="B67">
-        <f>EXP(-lambda*A67)*(2+COS(freq*A67))/3</f>
-        <v>0.20204892529025051</v>
+        <f>EXP(-lambda*A67)*(4+COS(freq*A67))/5</f>
+        <v>0.80153057316395748</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.3">
@@ -2721,8 +2731,8 @@
         <v>68</v>
       </c>
       <c r="B68">
-        <f>EXP(-lambda*A68)*(2+COS(freq*A68))/3</f>
-        <v>0.17284827238942721</v>
+        <f>EXP(-lambda*A68)*(4+COS(freq*A68))/5</f>
+        <v>0.93364164141566075</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.3">
@@ -2731,8 +2741,8 @@
         <v>69</v>
       </c>
       <c r="B69">
-        <f>EXP(-lambda*A69)*(2+COS(freq*A69))/3</f>
-        <v>0.14457237438914125</v>
+        <f>EXP(-lambda*A69)*(4+COS(freq*A69))/5</f>
+        <v>0.82822480909722673</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.3">
@@ -2741,8 +2751,8 @@
         <v>70</v>
       </c>
       <c r="B70">
-        <f>EXP(-lambda*A70)*(2+COS(freq*A70))/3</f>
-        <v>0.11937518508330874</v>
+        <f>EXP(-lambda*A70)*(4+COS(freq*A70))/5</f>
+        <v>0.61910511498946375</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.3">
@@ -2751,8 +2761,8 @@
         <v>71</v>
       </c>
       <c r="B71">
-        <f>EXP(-lambda*A71)*(2+COS(freq*A71))/3</f>
-        <v>9.9061301380815911E-2</v>
+        <f>EXP(-lambda*A71)*(4+COS(freq*A71))/5</f>
+        <v>0.57195973688961232</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.3">
@@ -2761,8 +2771,8 @@
         <v>72</v>
       </c>
       <c r="B72">
-        <f>EXP(-lambda*A72)*(2+COS(freq*A72))/3</f>
-        <v>8.4940830589652683E-2</v>
+        <f>EXP(-lambda*A72)*(4+COS(freq*A72))/5</f>
+        <v>0.74557894466350361</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.3">
@@ -2771,8 +2781,8 @@
         <v>73</v>
       </c>
       <c r="B73">
-        <f>EXP(-lambda*A73)*(2+COS(freq*A73))/3</f>
-        <v>7.7733441258493741E-2</v>
+        <f>EXP(-lambda*A73)*(4+COS(freq*A73))/5</f>
+        <v>0.91738001834236038</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.3">
@@ -2781,8 +2791,8 @@
         <v>74</v>
       </c>
       <c r="B74">
-        <f>EXP(-lambda*A74)*(2+COS(freq*A74))/3</f>
-        <v>7.7528107774508456E-2</v>
+        <f>EXP(-lambda*A74)*(4+COS(freq*A74))/5</f>
+        <v>0.8675422294840992</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.3">
@@ -2791,8 +2801,8 @@
         <v>75</v>
       </c>
       <c r="B75">
-        <f>EXP(-lambda*A75)*(2+COS(freq*A75))/3</f>
-        <v>8.3799905364808872E-2</v>
+        <f>EXP(-lambda*A75)*(4+COS(freq*A75))/5</f>
+        <v>0.6590553133109387</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.3">
@@ -2801,8 +2811,8 @@
         <v>76</v>
       </c>
       <c r="B76">
-        <f>EXP(-lambda*A76)*(2+COS(freq*A76))/3</f>
-        <v>9.5480141353631601E-2</v>
+        <f>EXP(-lambda*A76)*(4+COS(freq*A76))/5</f>
+        <v>0.55690480640920115</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.3">
@@ -2811,8 +2821,8 @@
         <v>77</v>
       </c>
       <c r="B77">
-        <f>EXP(-lambda*A77)*(2+COS(freq*A77))/3</f>
-        <v>0.11107156322123625</v>
+        <f>EXP(-lambda*A77)*(4+COS(freq*A77))/5</f>
+        <v>0.6900740110575313</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.3">
@@ -2821,8 +2831,8 @@
         <v>78</v>
       </c>
       <c r="B78">
-        <f>EXP(-lambda*A78)*(2+COS(freq*A78))/3</f>
-        <v>0.12879674335001176</v>
+        <f>EXP(-lambda*A78)*(4+COS(freq*A78))/5</f>
+        <v>0.88748960126007914</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.3">
@@ -2831,8 +2841,8 @@
         <v>79</v>
       </c>
       <c r="B79">
-        <f>EXP(-lambda*A79)*(2+COS(freq*A79))/3</f>
-        <v>0.14676528905399305</v>
+        <f>EXP(-lambda*A79)*(4+COS(freq*A79))/5</f>
+        <v>0.89657040760989459</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.3">
@@ -2841,8 +2851,8 @@
         <v>80</v>
       </c>
       <c r="B80">
-        <f>EXP(-lambda*A80)*(2+COS(freq*A80))/3</f>
-        <v>0.16314443352569327</v>
+        <f>EXP(-lambda*A80)*(4+COS(freq*A80))/5</f>
+        <v>0.70518141768401166</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.3">
@@ -2851,8 +2861,8 @@
         <v>81</v>
       </c>
       <c r="B81">
-        <f>EXP(-lambda*A81)*(2+COS(freq*A81))/3</f>
-        <v>0.17631787156444503</v>
+        <f>EXP(-lambda*A81)*(4+COS(freq*A81))/5</f>
+        <v>0.55661350076572713</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.3">
@@ -2861,8 +2871,8 @@
         <v>82</v>
       </c>
       <c r="B82">
-        <f>EXP(-lambda*A82)*(2+COS(freq*A82))/3</f>
-        <v>0.1850193313228429</v>
+        <f>EXP(-lambda*A82)*(4+COS(freq*A82))/5</f>
+        <v>0.63911786018483696</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.3">
@@ -2871,8 +2881,8 @@
         <v>83</v>
       </c>
       <c r="B83">
-        <f>EXP(-lambda*A83)*(2+COS(freq*A83))/3</f>
-        <v>0.18843012497015102</v>
+        <f>EXP(-lambda*A83)*(4+COS(freq*A83))/5</f>
+        <v>0.84618192745587772</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.3">
@@ -2881,8 +2891,8 @@
         <v>84</v>
       </c>
       <c r="B84">
-        <f>EXP(-lambda*A84)*(2+COS(freq*A84))/3</f>
-        <v>0.18623351103006525</v>
+        <f>EXP(-lambda*A84)*(4+COS(freq*A84))/5</f>
+        <v>0.91281646691235685</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.3">
@@ -2891,8 +2901,8 @@
         <v>85</v>
       </c>
       <c r="B85">
-        <f>EXP(-lambda*A85)*(2+COS(freq*A85))/3</f>
-        <v>0.17862278060965986</v>
+        <f>EXP(-lambda*A85)*(4+COS(freq*A85))/5</f>
+        <v>0.7534713708741485</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.3">
@@ -2901,8 +2911,8 @@
         <v>86</v>
       </c>
       <c r="B86">
-        <f>EXP(-lambda*A86)*(2+COS(freq*A86))/3</f>
-        <v>0.1662641708093914</v>
+        <f>EXP(-lambda*A86)*(4+COS(freq*A86))/5</f>
+        <v>0.57066890389617997</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.3">
@@ -2911,8 +2921,8 @@
         <v>87</v>
       </c>
       <c r="B87">
-        <f>EXP(-lambda*A87)*(2+COS(freq*A87))/3</f>
-        <v>0.15021963830804672</v>
+        <f>EXP(-lambda*A87)*(4+COS(freq*A87))/5</f>
+        <v>0.59641257185913121</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.3">
@@ -2921,8 +2931,8 @@
         <v>88</v>
       </c>
       <c r="B88">
-        <f>EXP(-lambda*A88)*(2+COS(freq*A88))/3</f>
-        <v>0.1318378590811905</v>
+        <f>EXP(-lambda*A88)*(4+COS(freq*A88))/5</f>
+        <v>0.79655323537155398</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.3">
@@ -2931,8 +2941,8 @@
         <v>89</v>
       </c>
       <c r="B89">
-        <f>EXP(-lambda*A89)*(2+COS(freq*A89))/3</f>
-        <v>0.11262428670017856</v>
+        <f>EXP(-lambda*A89)*(4+COS(freq*A89))/5</f>
+        <v>0.91482725603840842</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.3">
@@ -2941,8 +2951,8 @@
         <v>90</v>
       </c>
       <c r="B90">
-        <f>EXP(-lambda*A90)*(2+COS(freq*A90))/3</f>
-        <v>9.4102518717697078E-2</v>
+        <f>EXP(-lambda*A90)*(4+COS(freq*A90))/5</f>
+        <v>0.79978293457056804</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.3">
@@ -2951,8 +2961,8 @@
         <v>91</v>
       </c>
       <c r="B91">
-        <f>EXP(-lambda*A91)*(2+COS(freq*A91))/3</f>
-        <v>7.7679504793027487E-2</v>
+        <f>EXP(-lambda*A91)*(4+COS(freq*A91))/5</f>
+        <v>0.59752220254091726</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.3">
@@ -2961,8 +2971,8 @@
         <v>92</v>
       </c>
       <c r="B92">
-        <f>EXP(-lambda*A92)*(2+COS(freq*A92))/3</f>
-        <v>6.4526300877065776E-2</v>
+        <f>EXP(-lambda*A92)*(4+COS(freq*A92))/5</f>
+        <v>0.56497066389635109</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.3">
@@ -2971,8 +2981,8 @@
         <v>93</v>
       </c>
       <c r="B93">
-        <f>EXP(-lambda*A93)*(2+COS(freq*A93))/3</f>
-        <v>5.5484247563859057E-2</v>
+        <f>EXP(-lambda*A93)*(4+COS(freq*A93))/5</f>
+        <v>0.7423301629126049</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.3">
@@ -2981,8 +2991,8 @@
         <v>94</v>
       </c>
       <c r="B94">
-        <f>EXP(-lambda*A94)*(2+COS(freq*A94))/3</f>
-        <v>5.1003827326337216E-2</v>
+        <f>EXP(-lambda*A94)*(4+COS(freq*A94))/5</f>
+        <v>0.90229421210949101</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.3">
@@ -2991,8 +3001,8 @@
         <v>95</v>
       </c>
       <c r="B95">
-        <f>EXP(-lambda*A95)*(2+COS(freq*A95))/3</f>
-        <v>5.1120296774622299E-2</v>
+        <f>EXP(-lambda*A95)*(4+COS(freq*A95))/5</f>
+        <v>0.84017340305589028</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.3">
@@ -3001,8 +3011,8 @@
         <v>96</v>
       </c>
       <c r="B96">
-        <f>EXP(-lambda*A96)*(2+COS(freq*A96))/3</f>
-        <v>5.5466795088981551E-2</v>
+        <f>EXP(-lambda*A96)*(4+COS(freq*A96))/5</f>
+        <v>0.63462674227306792</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.3">
@@ -3011,8 +3021,8 @@
         <v>97</v>
       </c>
       <c r="B97">
-        <f>EXP(-lambda*A97)*(2+COS(freq*A97))/3</f>
-        <v>6.3322306245923818E-2</v>
+        <f>EXP(-lambda*A97)*(4+COS(freq*A97))/5</f>
+        <v>0.54688309259008383</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.3">
@@ -3021,8 +3031,8 @@
         <v>98</v>
       </c>
       <c r="B98">
-        <f>EXP(-lambda*A98)*(2+COS(freq*A98))/3</f>
-        <v>7.3688890079271374E-2</v>
+        <f>EXP(-lambda*A98)*(4+COS(freq*A98))/5</f>
+        <v>0.68756799365610932</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.3">
@@ -3031,8 +3041,8 @@
         <v>99</v>
       </c>
       <c r="B99">
-        <f>EXP(-lambda*A99)*(2+COS(freq*A99))/3</f>
-        <v>8.5390242004518238E-2</v>
+        <f>EXP(-lambda*A99)*(4+COS(freq*A99))/5</f>
+        <v>0.87606642963116987</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.3">
@@ -3041,8 +3051,8 @@
         <v>100</v>
       </c>
       <c r="B100">
-        <f>EXP(-lambda*A100)*(2+COS(freq*A100))/3</f>
-        <v>9.7182076711139917E-2</v>
+        <f>EXP(-lambda*A100)*(4+COS(freq*A100))/5</f>
+        <v>0.87121021586582081</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.3">
@@ -3051,8 +3061,8 @@
         <v>101</v>
       </c>
       <c r="B101">
-        <f>EXP(-lambda*A101)*(2+COS(freq*A101))/3</f>
-        <v>0.10786416389071851</v>
+        <f>EXP(-lambda*A101)*(4+COS(freq*A101))/5</f>
+        <v>0.67864986551615603</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.3">
@@ -3061,8 +3071,8 @@
         <v>102</v>
       </c>
       <c r="B102">
-        <f>EXP(-lambda*A102)*(2+COS(freq*A102))/3</f>
-        <v>0.1163840976193574</v>
+        <f>EXP(-lambda*A102)*(4+COS(freq*A102))/5</f>
+        <v>0.54316262950467875</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.3">
@@ -3071,8 +3081,8 @@
         <v>103</v>
       </c>
       <c r="B103">
-        <f>EXP(-lambda*A103)*(2+COS(freq*A103))/3</f>
-        <v>0.1219239969464327</v>
+        <f>EXP(-lambda*A103)*(4+COS(freq*A103))/5</f>
+        <v>0.63632584826626337</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.3">
@@ -3081,8 +3091,8 @@
         <v>104</v>
       </c>
       <c r="B104">
-        <f>EXP(-lambda*A104)*(2+COS(freq*A104))/3</f>
-        <v>0.12396318159703663</v>
+        <f>EXP(-lambda*A104)*(4+COS(freq*A104))/5</f>
+        <v>0.8380718122212969</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.3">
@@ -3091,8 +3101,8 @@
         <v>105</v>
       </c>
       <c r="B105">
-        <f>EXP(-lambda*A105)*(2+COS(freq*A105))/3</f>
-        <v>0.12231225244471063</v>
+        <f>EXP(-lambda*A105)*(4+COS(freq*A105))/5</f>
+        <v>0.89023803195127527</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.3">
@@ -3101,8 +3111,8 @@
         <v>106</v>
       </c>
       <c r="B106">
-        <f>EXP(-lambda*A106)*(2+COS(freq*A106))/3</f>
-        <v>0.11711670057690583</v>
+        <f>EXP(-lambda*A106)*(4+COS(freq*A106))/5</f>
+        <v>0.72574496160538149</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.3">
@@ -3111,8 +3121,8 @@
         <v>107</v>
       </c>
       <c r="B107">
-        <f>EXP(-lambda*A107)*(2+COS(freq*A107))/3</f>
-        <v>0.10883092231210369</v>
+        <f>EXP(-lambda*A107)*(4+COS(freq*A107))/5</f>
+        <v>0.55367428276301467</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.3">
@@ -3121,8 +3131,8 @@
         <v>108</v>
       </c>
       <c r="B108">
-        <f>EXP(-lambda*A108)*(2+COS(freq*A108))/3</f>
-        <v>9.8166085932302929E-2</v>
+        <f>EXP(-lambda*A108)*(4+COS(freq*A108))/5</f>
+        <v>0.59234480361431907</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.3">
@@ -3131,8 +3141,8 @@
         <v>109</v>
       </c>
       <c r="B109">
-        <f>EXP(-lambda*A109)*(2+COS(freq*A109))/3</f>
-        <v>8.6017460534728737E-2</v>
+        <f>EXP(-lambda*A109)*(4+COS(freq*A109))/5</f>
+        <v>0.79115347339063669</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.3">
@@ -3141,8 +3151,8 @@
         <v>110</v>
       </c>
       <c r="B110">
-        <f>EXP(-lambda*A110)*(2+COS(freq*A110))/3</f>
-        <v>7.3378403733191475E-2</v>
+        <f>EXP(-lambda*A110)*(4+COS(freq*A110))/5</f>
+        <v>0.8955815230492179</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.3">
@@ -3151,8 +3161,8 @@
         <v>111</v>
       </c>
       <c r="B111">
-        <f>EXP(-lambda*A111)*(2+COS(freq*A111))/3</f>
-        <v>6.124909611057628E-2</v>
+        <f>EXP(-lambda*A111)*(4+COS(freq*A111))/5</f>
+        <v>0.77186155973955617</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.3">
@@ -3161,8 +3171,8 @@
         <v>112</v>
       </c>
       <c r="B112">
-        <f>EXP(-lambda*A112)*(2+COS(freq*A112))/3</f>
-        <v>5.0548255218142289E-2</v>
+        <f>EXP(-lambda*A112)*(4+COS(freq*A112))/5</f>
+        <v>0.5771574134088483</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.3">
@@ -3171,8 +3181,8 @@
         <v>113</v>
       </c>
       <c r="B113">
-        <f>EXP(-lambda*A113)*(2+COS(freq*A113))/3</f>
-        <v>4.2035477053108249E-2</v>
+        <f>EXP(-lambda*A113)*(4+COS(freq*A113))/5</f>
+        <v>0.55875443144062298</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.3">
@@ -3181,8 +3191,8 @@
         <v>114</v>
       </c>
       <c r="B114">
-        <f>EXP(-lambda*A114)*(2+COS(freq*A114))/3</f>
-        <v>3.6250618376596294E-2</v>
+        <f>EXP(-lambda*A114)*(4+COS(freq*A114))/5</f>
+        <v>0.73883520095295308</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.3">
@@ -3191,8 +3201,8 @@
         <v>115</v>
       </c>
       <c r="B115">
-        <f>EXP(-lambda*A115)*(2+COS(freq*A115))/3</f>
-        <v>3.347488301552444E-2</v>
+        <f>EXP(-lambda*A115)*(4+COS(freq*A115))/5</f>
+        <v>0.88666844698880565</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.3">
@@ -3201,8 +3211,8 @@
         <v>116</v>
       </c>
       <c r="B116">
-        <f>EXP(-lambda*A116)*(2+COS(freq*A116))/3</f>
-        <v>3.3716183575602084E-2</v>
+        <f>EXP(-lambda*A116)*(4+COS(freq*A116))/5</f>
+        <v>0.81306849995087949</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.3">
@@ -3211,8 +3221,8 @@
         <v>117</v>
       </c>
       <c r="B117">
-        <f>EXP(-lambda*A117)*(2+COS(freq*A117))/3</f>
-        <v>3.6719114135682997E-2</v>
+        <f>EXP(-lambda*A117)*(4+COS(freq*A117))/5</f>
+        <v>0.61133688092231453</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.3">
@@ -3221,8 +3231,8 @@
         <v>118</v>
       </c>
       <c r="B118">
-        <f>EXP(-lambda*A118)*(2+COS(freq*A118))/3</f>
-        <v>4.19976917925097E-2</v>
+        <f>EXP(-lambda*A118)*(4+COS(freq*A118))/5</f>
+        <v>0.53783074144821963</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.3">
@@ -3231,8 +3241,8 @@
         <v>119</v>
       </c>
       <c r="B119">
-        <f>EXP(-lambda*A119)*(2+COS(freq*A119))/3</f>
-        <v>4.8887094628551286E-2</v>
+        <f>EXP(-lambda*A119)*(4+COS(freq*A119))/5</f>
+        <v>0.68503528651611123</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.3">
@@ -3241,8 +3251,8 @@
         <v>120</v>
       </c>
       <c r="B120">
-        <f>EXP(-lambda*A120)*(2+COS(freq*A120))/3</f>
-        <v>5.6609100853488414E-2</v>
+        <f>EXP(-lambda*A120)*(4+COS(freq*A120))/5</f>
+        <v>0.86406403604745063</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.3">
@@ -3251,8 +3261,8 @@
         <v>121</v>
       </c>
       <c r="B121">
-        <f>EXP(-lambda*A121)*(2+COS(freq*A121))/3</f>
-        <v>6.4344936477343725E-2</v>
+        <f>EXP(-lambda*A121)*(4+COS(freq*A121))/5</f>
+        <v>0.84586442870755296</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.3">
@@ -3261,8 +3271,8 @@
         <v>122</v>
       </c>
       <c r="B122">
-        <f>EXP(-lambda*A122)*(2+COS(freq*A122))/3</f>
-        <v>7.1308834028899315E-2</v>
+        <f>EXP(-lambda*A122)*(4+COS(freq*A122))/5</f>
+        <v>0.65311351963916042</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.3">
@@ -3271,8 +3281,8 @@
         <v>123</v>
       </c>
       <c r="B123">
-        <f>EXP(-lambda*A123)*(2+COS(freq*A123))/3</f>
-        <v>7.6815804908916055E-2</v>
+        <f>EXP(-lambda*A123)*(4+COS(freq*A123))/5</f>
+        <v>0.53082420931090035</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.3">
@@ -3281,8 +3291,8 @@
         <v>124</v>
       </c>
       <c r="B124">
-        <f>EXP(-lambda*A124)*(2+COS(freq*A124))/3</f>
-        <v>8.0337891647803764E-2</v>
+        <f>EXP(-lambda*A124)*(4+COS(freq*A124))/5</f>
+        <v>0.63375192343094355</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.3">
@@ -3291,8 +3301,8 @@
         <v>125</v>
       </c>
       <c r="B125">
-        <f>EXP(-lambda*A125)*(2+COS(freq*A125))/3</f>
-        <v>8.1544404356594088E-2</v>
+        <f>EXP(-lambda*A125)*(4+COS(freq*A125))/5</f>
+        <v>0.82941485623706568</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.3">
@@ -3301,8 +3311,8 @@
         <v>126</v>
       </c>
       <c r="B126">
-        <f>EXP(-lambda*A126)*(2+COS(freq*A126))/3</f>
-        <v>8.0323230535092827E-2</v>
+        <f>EXP(-lambda*A126)*(4+COS(freq*A126))/5</f>
+        <v>0.86745112700652827</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.3">
@@ -3311,8 +3321,8 @@
         <v>127</v>
       </c>
       <c r="B127">
-        <f>EXP(-lambda*A127)*(2+COS(freq*A127))/3</f>
-        <v>7.6782086141228362E-2</v>
+        <f>EXP(-lambda*A127)*(4+COS(freq*A127))/5</f>
+        <v>0.69881805441418277</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.3">
@@ -3321,8 +3331,8 @@
         <v>128</v>
       </c>
       <c r="B128">
-        <f>EXP(-lambda*A128)*(2+COS(freq*A128))/3</f>
-        <v>7.1230384388555071E-2</v>
+        <f>EXP(-lambda*A128)*(4+COS(freq*A128))/5</f>
+        <v>0.53787082738212644</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.3">
@@ -3331,8 +3341,8 @@
         <v>129</v>
       </c>
       <c r="B129">
-        <f>EXP(-lambda*A129)*(2+COS(freq*A129))/3</f>
-        <v>6.4144076891555532E-2</v>
+        <f>EXP(-lambda*A129)*(4+COS(freq*A129))/5</f>
+        <v>0.58874539994876329</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.3">
@@ -3341,8 +3351,8 @@
         <v>130</v>
       </c>
       <c r="B130">
-        <f>EXP(-lambda*A130)*(2+COS(freq*A130))/3</f>
-        <v>5.6117227040200966E-2</v>
+        <f>EXP(-lambda*A130)*(4+COS(freq*A130))/5</f>
+        <v>0.78530748952833196</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.3">
@@ -3351,8 +3361,8 @@
         <v>131</v>
       </c>
       <c r="B131">
-        <f>EXP(-lambda*A131)*(2+COS(freq*A131))/3</f>
-        <v>4.7805094963157137E-2</v>
+        <f>EXP(-lambda*A131)*(4+COS(freq*A131))/5</f>
+        <v>0.87594836941489151</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.3">
@@ -3361,8 +3371,8 @@
         <v>132</v>
       </c>
       <c r="B132">
-        <f>EXP(-lambda*A132)*(2+COS(freq*A132))/3</f>
-        <v>3.9864072596446497E-2</v>
+        <f>EXP(-lambda*A132)*(4+COS(freq*A132))/5</f>
+        <v>0.74450769208670919</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.3">
@@ -3371,8 +3381,8 @@
         <v>133</v>
       </c>
       <c r="B133">
-        <f>EXP(-lambda*A133)*(2+COS(freq*A133))/3</f>
-        <v>3.2893875082665426E-2</v>
+        <f>EXP(-lambda*A133)*(4+COS(freq*A133))/5</f>
+        <v>0.55799240453732746</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.3">
@@ -3381,8 +3391,8 @@
         <v>134</v>
       </c>
       <c r="B134">
-        <f>EXP(-lambda*A134)*(2+COS(freq*A134))/3</f>
-        <v>2.7386984300009288E-2</v>
+        <f>EXP(-lambda*A134)*(4+COS(freq*A134))/5</f>
+        <v>0.55324231742637431</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.3">
@@ -3391,8 +3401,8 @@
         <v>135</v>
       </c>
       <c r="B135">
-        <f>EXP(-lambda*A135)*(2+COS(freq*A135))/3</f>
-        <v>2.3689506605405645E-2</v>
+        <f>EXP(-lambda*A135)*(4+COS(freq*A135))/5</f>
+        <v>0.73505409120108023</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.3">
@@ -3401,8 +3411,8 @@
         <v>136</v>
       </c>
       <c r="B136">
-        <f>EXP(-lambda*A136)*(2+COS(freq*A136))/3</f>
-        <v>2.1976439794864643E-2</v>
+        <f>EXP(-lambda*A136)*(4+COS(freq*A136))/5</f>
+        <v>0.87053386030789304</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.3">
@@ -3411,8 +3421,8 @@
         <v>137</v>
       </c>
       <c r="B137">
-        <f>EXP(-lambda*A137)*(2+COS(freq*A137))/3</f>
-        <v>2.2242959553391714E-2</v>
+        <f>EXP(-lambda*A137)*(4+COS(freq*A137))/5</f>
+        <v>0.78628144826939406</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.3">
@@ -3421,8 +3431,8 @@
         <v>138</v>
       </c>
       <c r="B138">
-        <f>EXP(-lambda*A138)*(2+COS(freq*A138))/3</f>
-        <v>2.4311863608137863E-2</v>
+        <f>EXP(-lambda*A138)*(4+COS(freq*A138))/5</f>
+        <v>0.58918520333208924</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.3">
@@ -3431,8 +3441,8 @@
         <v>139</v>
       </c>
       <c r="B139">
-        <f>EXP(-lambda*A139)*(2+COS(freq*A139))/3</f>
-        <v>2.7855885304093896E-2</v>
+        <f>EXP(-lambda*A139)*(4+COS(freq*A139))/5</f>
+        <v>0.52968506607640342</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.3">
@@ -3441,8 +3451,8 @@
         <v>140</v>
       </c>
       <c r="B140">
-        <f>EXP(-lambda*A140)*(2+COS(freq*A140))/3</f>
-        <v>3.2432331065608909E-2</v>
+        <f>EXP(-lambda*A140)*(4+COS(freq*A140))/5</f>
+        <v>0.68242255243941341</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.3">
@@ -3451,8 +3461,8 @@
         <v>141</v>
       </c>
       <c r="B141">
-        <f>EXP(-lambda*A141)*(2+COS(freq*A141))/3</f>
-        <v>3.7526512129464708E-2</v>
+        <f>EXP(-lambda*A141)*(4+COS(freq*A141))/5</f>
+        <v>0.85149789767342043</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.3">
@@ -3461,8 +3471,8 @@
         <v>142</v>
       </c>
       <c r="B142">
-        <f>EXP(-lambda*A142)*(2+COS(freq*A142))/3</f>
-        <v>4.259980587462784E-2</v>
+        <f>EXP(-lambda*A142)*(4+COS(freq*A142))/5</f>
+        <v>0.8205890217257753</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.3">
@@ -3471,8 +3481,8 @@
         <v>143</v>
       </c>
       <c r="B143">
-        <f>EXP(-lambda*A143)*(2+COS(freq*A143))/3</f>
-        <v>4.7137938198753081E-2</v>
+        <f>EXP(-lambda*A143)*(4+COS(freq*A143))/5</f>
+        <v>0.6285890077308014</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.3">
@@ -3481,8 +3491,8 @@
         <v>144</v>
       </c>
       <c r="B144">
-        <f>EXP(-lambda*A144)*(2+COS(freq*A144))/3</f>
-        <v>5.06952318123279E-2</v>
+        <f>EXP(-lambda*A144)*(4+COS(freq*A144))/5</f>
+        <v>0.51954597125861857</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.3">
@@ -3491,8 +3501,8 @@
         <v>145</v>
       </c>
       <c r="B145">
-        <f>EXP(-lambda*A145)*(2+COS(freq*A145))/3</f>
-        <v>5.2931086966400413E-2</v>
+        <f>EXP(-lambda*A145)*(4+COS(freq*A145))/5</f>
+        <v>0.63133321395647635</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.3">
@@ -3501,8 +3511,8 @@
         <v>146</v>
       </c>
       <c r="B146">
-        <f>EXP(-lambda*A146)*(2+COS(freq*A146))/3</f>
-        <v>5.3635790682017258E-2</v>
+        <f>EXP(-lambda*A146)*(4+COS(freq*A146))/5</f>
+        <v>0.82020927882863126</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.3">
@@ -3511,8 +3521,8 @@
         <v>147</v>
       </c>
       <c r="B147">
-        <f>EXP(-lambda*A147)*(2+COS(freq*A147))/3</f>
-        <v>5.2743802976205963E-2</v>
+        <f>EXP(-lambda*A147)*(4+COS(freq*A147))/5</f>
+        <v>0.84450879081651764</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.3">
@@ -3521,8 +3531,8 @@
         <v>148</v>
       </c>
       <c r="B148">
-        <f>EXP(-lambda*A148)*(2+COS(freq*A148))/3</f>
-        <v>5.0333842580270634E-2</v>
+        <f>EXP(-lambda*A148)*(4+COS(freq*A148))/5</f>
+        <v>0.67272241623521123</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.3">
@@ -3531,8 +3541,8 @@
         <v>149</v>
       </c>
       <c r="B149">
-        <f>EXP(-lambda*A149)*(2+COS(freq*A149))/3</f>
-        <v>4.661628220058403E-2</v>
+        <f>EXP(-lambda*A149)*(4+COS(freq*A149))/5</f>
+        <v>0.52322020261223834</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.3">
@@ -3541,8 +3551,8 @@
         <v>150</v>
       </c>
       <c r="B150">
-        <f>EXP(-lambda*A150)*(2+COS(freq*A150))/3</f>
-        <v>4.1909459502712819E-2</v>
+        <f>EXP(-lambda*A150)*(4+COS(freq*A150))/5</f>
+        <v>0.58554651013804837</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.3">
@@ -3551,8 +3561,8 @@
         <v>151</v>
       </c>
       <c r="B151">
-        <f>EXP(-lambda*A151)*(2+COS(freq*A151))/3</f>
-        <v>3.660742188634853E-2</v>
+        <f>EXP(-lambda*A151)*(4+COS(freq*A151))/5</f>
+        <v>0.77899603443970267</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.3">
@@ -3561,8 +3571,8 @@
         <v>152</v>
       </c>
       <c r="B152">
-        <f>EXP(-lambda*A152)*(2+COS(freq*A152))/3</f>
-        <v>3.1142277784716257E-2</v>
+        <f>EXP(-lambda*A152)*(4+COS(freq*A152))/5</f>
+        <v>0.85597319775075553</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.3">
@@ -3571,8 +3581,8 @@
         <v>153</v>
       </c>
       <c r="B153">
-        <f>EXP(-lambda*A153)*(2+COS(freq*A153))/3</f>
-        <v>2.5944677175562442E-2</v>
+        <f>EXP(-lambda*A153)*(4+COS(freq*A153))/5</f>
+        <v>0.71776504577291556</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.3">
@@ -3581,8 +3591,8 @@
         <v>154</v>
       </c>
       <c r="B154">
-        <f>EXP(-lambda*A154)*(2+COS(freq*A154))/3</f>
-        <v>2.1405970400908369E-2</v>
+        <f>EXP(-lambda*A154)*(4+COS(freq*A154))/5</f>
+        <v>0.5400051532392246</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.3">
@@ -3591,8 +3601,8 @@
         <v>155</v>
       </c>
       <c r="B155">
-        <f>EXP(-lambda*A155)*(2+COS(freq*A155))/3</f>
-        <v>1.7845307623058509E-2</v>
+        <f>EXP(-lambda*A155)*(4+COS(freq*A155))/5</f>
+        <v>0.54836639970610923</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.3">
@@ -3601,8 +3611,8 @@
         <v>156</v>
       </c>
       <c r="B156">
-        <f>EXP(-lambda*A156)*(2+COS(freq*A156))/3</f>
-        <v>1.5484378796293842E-2</v>
+        <f>EXP(-lambda*A156)*(4+COS(freq*A156))/5</f>
+        <v>0.73095129455873697</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.3">
@@ -3611,8 +3621,8 @@
         <v>157</v>
       </c>
       <c r="B157">
-        <f>EXP(-lambda*A157)*(2+COS(freq*A157))/3</f>
-        <v>1.4431716184264342E-2</v>
+        <f>EXP(-lambda*A157)*(4+COS(freq*A157))/5</f>
+        <v>0.85392417410154076</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.3">
@@ -3621,8 +3631,8 @@
         <v>158</v>
       </c>
       <c r="B158">
-        <f>EXP(-lambda*A158)*(2+COS(freq*A158))/3</f>
-        <v>1.4677565060432341E-2</v>
+        <f>EXP(-lambda*A158)*(4+COS(freq*A158))/5</f>
+        <v>0.75986380447633461</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.3">
@@ -3631,8 +3641,8 @@
         <v>159</v>
       </c>
       <c r="B159">
-        <f>EXP(-lambda*A159)*(2+COS(freq*A159))/3</f>
-        <v>1.6099359322390299E-2</v>
+        <f>EXP(-lambda*A159)*(4+COS(freq*A159))/5</f>
+        <v>0.56816706350967094</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.3">
@@ -3641,8 +3651,8 @@
         <v>160</v>
       </c>
       <c r="B160">
-        <f>EXP(-lambda*A160)*(2+COS(freq*A160))/3</f>
-        <v>1.8476904605230802E-2</v>
+        <f>EXP(-lambda*A160)*(4+COS(freq*A160))/5</f>
+        <v>0.5223829399163965</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.3">
@@ -3651,8 +3661,8 @@
         <v>161</v>
       </c>
       <c r="B161">
-        <f>EXP(-lambda*A161)*(2+COS(freq*A161))/3</f>
-        <v>2.1515552889789822E-2</v>
+        <f>EXP(-lambda*A161)*(4+COS(freq*A161))/5</f>
+        <v>0.6796804239258617</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.3">
@@ -3661,8 +3671,8 @@
         <v>162</v>
       </c>
       <c r="B162">
-        <f>EXP(-lambda*A162)*(2+COS(freq*A162))/3</f>
-        <v>2.4875017032693802E-2</v>
+        <f>EXP(-lambda*A162)*(4+COS(freq*A162))/5</f>
+        <v>0.83838698046357896</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.3">
@@ -3671,8 +3681,8 @@
         <v>163</v>
       </c>
       <c r="B163">
-        <f>EXP(-lambda*A163)*(2+COS(freq*A163))/3</f>
-        <v>2.8201069818860516E-2</v>
+        <f>EXP(-lambda*A163)*(4+COS(freq*A163))/5</f>
+        <v>0.79543871041300507</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.3">
@@ -3681,8 +3691,8 @@
         <v>164</v>
       </c>
       <c r="B164">
-        <f>EXP(-lambda*A164)*(2+COS(freq*A164))/3</f>
-        <v>3.1157226483339285E-2</v>
+        <f>EXP(-lambda*A164)*(4+COS(freq*A164))/5</f>
+        <v>0.60508873898903381</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.3">
@@ -3691,8 +3701,8 @@
         <v>165</v>
       </c>
       <c r="B165">
-        <f>EXP(-lambda*A165)*(2+COS(freq*A165))/3</f>
-        <v>3.3453624855317173E-2</v>
+        <f>EXP(-lambda*A165)*(4+COS(freq*A165))/5</f>
+        <v>0.50927402532445598</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.3">
@@ -3701,8 +3711,8 @@
         <v>166</v>
       </c>
       <c r="B166">
-        <f>EXP(-lambda*A166)*(2+COS(freq*A166))/3</f>
-        <v>3.4870672981927094E-2</v>
+        <f>EXP(-lambda*A166)*(4+COS(freq*A166))/5</f>
+        <v>0.62901005979998637</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.3">
@@ -3711,8 +3721,8 @@
         <v>167</v>
       </c>
       <c r="B167">
-        <f>EXP(-lambda*A167)*(2+COS(freq*A167))/3</f>
-        <v>3.5275589578711124E-2</v>
+        <f>EXP(-lambda*A167)*(4+COS(freq*A167))/5</f>
+        <v>0.81045741752106815</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.3">
@@ -3721,8 +3731,8 @@
         <v>168</v>
       </c>
       <c r="B168">
-        <f>EXP(-lambda*A168)*(2+COS(freq*A168))/3</f>
-        <v>3.4630661238107728E-2</v>
+        <f>EXP(-lambda*A168)*(4+COS(freq*A168))/5</f>
+        <v>0.82146401333551711</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.3">
@@ -3731,8 +3741,8 @@
         <v>169</v>
       </c>
       <c r="B169">
-        <f>EXP(-lambda*A169)*(2+COS(freq*A169))/3</f>
-        <v>3.2992814955571485E-2</v>
+        <f>EXP(-lambda*A169)*(4+COS(freq*A169))/5</f>
+        <v>0.64748584347588833</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.3">
@@ -3741,8 +3751,8 @@
         <v>170</v>
       </c>
       <c r="B170">
-        <f>EXP(-lambda*A170)*(2+COS(freq*A170))/3</f>
-        <v>3.0504884094369165E-2</v>
+        <f>EXP(-lambda*A170)*(4+COS(freq*A170))/5</f>
+        <v>0.50968142196098276</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.3">
@@ -3751,8 +3761,8 @@
         <v>171</v>
       </c>
       <c r="B171">
-        <f>EXP(-lambda*A171)*(2+COS(freq*A171))/3</f>
-        <v>2.7379661648624719E-2</v>
+        <f>EXP(-lambda*A171)*(4+COS(freq*A171))/5</f>
+        <v>0.58268250091144325</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.3">
@@ -3761,8 +3771,8 @@
         <v>172</v>
       </c>
       <c r="B172">
-        <f>EXP(-lambda*A172)*(2+COS(freq*A172))/3</f>
-        <v>2.3878426132899162E-2</v>
+        <f>EXP(-lambda*A172)*(4+COS(freq*A172))/5</f>
+        <v>0.77220428449039047</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.3">
@@ -3771,8 +3781,8 @@
         <v>173</v>
       </c>
       <c r="B173">
-        <f>EXP(-lambda*A173)*(2+COS(freq*A173))/3</f>
-        <v>2.0286045478322381E-2</v>
+        <f>EXP(-lambda*A173)*(4+COS(freq*A173))/5</f>
+        <v>0.83570257589007468</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.3">
@@ -3781,8 +3791,8 @@
         <v>174</v>
       </c>
       <c r="B174">
-        <f>EXP(-lambda*A174)*(2+COS(freq*A174))/3</f>
-        <v>1.6884982727705659E-2</v>
+        <f>EXP(-lambda*A174)*(4+COS(freq*A174))/5</f>
+        <v>0.69167393559041923</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.3">
@@ -3791,8 +3801,8 @@
         <v>175</v>
       </c>
       <c r="B175">
-        <f>EXP(-lambda*A175)*(2+COS(freq*A175))/3</f>
-        <v>1.3930532792116998E-2</v>
+        <f>EXP(-lambda*A175)*(4+COS(freq*A175))/5</f>
+        <v>0.52317018654282821</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.3">
@@ -3801,8 +3811,8 @@
         <v>176</v>
       </c>
       <c r="B176">
-        <f>EXP(-lambda*A176)*(2+COS(freq*A176))/3</f>
-        <v>1.1629419927579506E-2</v>
+        <f>EXP(-lambda*A176)*(4+COS(freq*A176))/5</f>
+        <v>0.54405982427792765</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.3">
@@ -3811,8 +3821,8 @@
         <v>177</v>
       </c>
       <c r="B177">
-        <f>EXP(-lambda*A177)*(2+COS(freq*A177))/3</f>
-        <v>1.0123506509148008E-2</v>
+        <f>EXP(-lambda*A177)*(4+COS(freq*A177))/5</f>
+        <v>0.72649566201755456</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.3">
@@ -3821,8 +3831,8 @@
         <v>178</v>
       </c>
       <c r="B178">
-        <f>EXP(-lambda*A178)*(2+COS(freq*A178))/3</f>
-        <v>9.4798454983757476E-3</v>
+        <f>EXP(-lambda*A178)*(4+COS(freq*A178))/5</f>
+        <v>0.83687539597701677</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.3">
@@ -3831,8 +3841,8 @@
         <v>179</v>
       </c>
       <c r="B179">
-        <f>EXP(-lambda*A179)*(2+COS(freq*A179))/3</f>
-        <v>9.6877027474862511E-3</v>
+        <f>EXP(-lambda*A179)*(4+COS(freq*A179))/5</f>
+        <v>0.73386457147698203</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.3">
@@ -3841,8 +3851,8 @@
         <v>180</v>
       </c>
       <c r="B180">
-        <f>EXP(-lambda*A180)*(2+COS(freq*A180))/3</f>
-        <v>1.066253773287394E-2</v>
+        <f>EXP(-lambda*A180)*(4+COS(freq*A180))/5</f>
+        <v>0.54827385855351307</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.3">
@@ -3851,8 +3861,8 @@
         <v>181</v>
       </c>
       <c r="B181">
-        <f>EXP(-lambda*A181)*(2+COS(freq*A181))/3</f>
-        <v>1.2256319761861992E-2</v>
+        <f>EXP(-lambda*A181)*(4+COS(freq*A181))/5</f>
+        <v>0.51586109277943515</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.3">
@@ -3861,8 +3871,8 @@
         <v>182</v>
       </c>
       <c r="B182">
-        <f>EXP(-lambda*A182)*(2+COS(freq*A182))/3</f>
-        <v>1.4273023916305617E-2</v>
+        <f>EXP(-lambda*A182)*(4+COS(freq*A182))/5</f>
+        <v>0.6767635509973049</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.3">
@@ -3871,8 +3881,8 @@
         <v>183</v>
       </c>
       <c r="B183">
-        <f>EXP(-lambda*A183)*(2+COS(freq*A183))/3</f>
-        <v>1.648774075428731E-2</v>
+        <f>EXP(-lambda*A183)*(4+COS(freq*A183))/5</f>
+        <v>0.82475347470021787</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.3">
@@ -3881,8 +3891,8 @@
         <v>184</v>
       </c>
       <c r="B184">
-        <f>EXP(-lambda*A184)*(2+COS(freq*A184))/3</f>
-        <v>1.8667577362976747E-2</v>
+        <f>EXP(-lambda*A184)*(4+COS(freq*A184))/5</f>
+        <v>0.77046670731321443</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.3">
@@ -3891,8 +3901,8 @@
         <v>185</v>
       </c>
       <c r="B185">
-        <f>EXP(-lambda*A185)*(2+COS(freq*A185))/3</f>
-        <v>2.0592441263514009E-2</v>
+        <f>EXP(-lambda*A185)*(4+COS(freq*A185))/5</f>
+        <v>0.58262098859432498</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.3">
@@ -3901,8 +3911,8 @@
         <v>186</v>
       </c>
       <c r="B186">
-        <f>EXP(-lambda*A186)*(2+COS(freq*A186))/3</f>
-        <v>2.2073883805398261E-2</v>
+        <f>EXP(-lambda*A186)*(4+COS(freq*A186))/5</f>
+        <v>0.49995316025622272</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.3">
@@ -3911,8 +3921,8 @@
         <v>187</v>
       </c>
       <c r="B187">
-        <f>EXP(-lambda*A187)*(2+COS(freq*A187))/3</f>
-        <v>2.2970421851547667E-2</v>
+        <f>EXP(-lambda*A187)*(4+COS(freq*A187))/5</f>
+        <v>0.62672614176426955</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.3">
@@ -3921,8 +3931,8 @@
         <v>188</v>
       </c>
       <c r="B188">
-        <f>EXP(-lambda*A188)*(2+COS(freq*A188))/3</f>
-        <v>2.3198128290446828E-2</v>
+        <f>EXP(-lambda*A188)*(4+COS(freq*A188))/5</f>
+        <v>0.8001655186454929</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.3">
@@ -3931,8 +3941,8 @@
         <v>189</v>
       </c>
       <c r="B189">
-        <f>EXP(-lambda*A189)*(2+COS(freq*A189))/3</f>
-        <v>2.2735745443813685E-2</v>
+        <f>EXP(-lambda*A189)*(4+COS(freq*A189))/5</f>
+        <v>0.79836945159113093</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.3">
@@ -3941,8 +3951,8 @@
         <v>190</v>
       </c>
       <c r="B190">
-        <f>EXP(-lambda*A190)*(2+COS(freq*A190))/3</f>
-        <v>2.1624086399796887E-2</v>
+        <f>EXP(-lambda*A190)*(4+COS(freq*A190))/5</f>
+        <v>0.62313216164316898</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.3">
@@ -3951,8 +3961,8 @@
         <v>191</v>
       </c>
       <c r="B191">
-        <f>EXP(-lambda*A191)*(2+COS(freq*A191))/3</f>
-        <v>1.99600008938919E-2</v>
+        <f>EXP(-lambda*A191)*(4+COS(freq*A191))/5</f>
+        <v>0.4972111272613523</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.3">
@@ -3961,8 +3971,8 @@
         <v>192</v>
       </c>
       <c r="B192">
-        <f>EXP(-lambda*A192)*(2+COS(freq*A192))/3</f>
-        <v>1.7885649563110499E-2</v>
+        <f>EXP(-lambda*A192)*(4+COS(freq*A192))/5</f>
+        <v>0.58009015568319022</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.3">
@@ -3971,8 +3981,8 @@
         <v>193</v>
       </c>
       <c r="B193">
-        <f>EXP(-lambda*A193)*(2+COS(freq*A193))/3</f>
-        <v>1.5574213863284739E-2</v>
+        <f>EXP(-lambda*A193)*(4+COS(freq*A193))/5</f>
+        <v>0.7649217032597122</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.3">
@@ -3981,8 +3991,8 @@
         <v>194</v>
       </c>
       <c r="B194">
-        <f>EXP(-lambda*A194)*(2+COS(freq*A194))/3</f>
-        <v>1.3213438222372587E-2</v>
+        <f>EXP(-lambda*A194)*(4+COS(freq*A194))/5</f>
+        <v>0.81518393416307189</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.3">
@@ -3991,8 +4001,8 @@
         <v>195</v>
       </c>
       <c r="B195">
-        <f>EXP(-lambda*A195)*(2+COS(freq*A195))/3</f>
-        <v>1.0988536897846499E-2</v>
+        <f>EXP(-lambda*A195)*(4+COS(freq*A195))/5</f>
+        <v>0.6662711924020247</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.3">
@@ -4001,8 +4011,8 @@
         <v>196</v>
       </c>
       <c r="B196">
-        <f>EXP(-lambda*A196)*(2+COS(freq*A196))/3</f>
-        <v>9.065993791875504E-3</v>
+        <f>EXP(-lambda*A196)*(4+COS(freq*A196))/5</f>
+        <v>0.50745881847667174</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.3">
@@ -4011,8 +4021,8 @@
         <v>197</v>
       </c>
       <c r="B197">
-        <f>EXP(-lambda*A197)*(2+COS(freq*A197))/3</f>
-        <v>7.579645018477999E-3</v>
+        <f>EXP(-lambda*A197)*(4+COS(freq*A197))/5</f>
+        <v>0.54025705786307787</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.3">
@@ -4021,8 +4031,8 @@
         <v>198</v>
       </c>
       <c r="B198">
-        <f>EXP(-lambda*A198)*(2+COS(freq*A198))/3</f>
-        <v>6.6201787535248849E-3</v>
+        <f>EXP(-lambda*A198)*(4+COS(freq*A198))/5</f>
+        <v>0.72166037710935549</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.3">
@@ -4031,8 +4041,8 @@
         <v>199</v>
       </c>
       <c r="B199">
-        <f>EXP(-lambda*A199)*(2+COS(freq*A199))/3</f>
-        <v>6.2288418618317081E-3</v>
+        <f>EXP(-lambda*A199)*(4+COS(freq*A199))/5</f>
+        <v>0.81942552177652028</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.3">
@@ -4041,8 +4051,8 @@
         <v>200</v>
       </c>
       <c r="B200">
-        <f>EXP(-lambda*A200)*(2+COS(freq*A200))/3</f>
-        <v>6.395741851747099E-3</v>
+        <f>EXP(-lambda*A200)*(4+COS(freq*A200))/5</f>
+        <v>0.70833003718628951</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.3">
@@ -4051,8 +4061,8 @@
         <v>201</v>
       </c>
       <c r="B201">
-        <f>EXP(-lambda*A201)*(2+COS(freq*A201))/3</f>
-        <v>7.0627133119110464E-3</v>
+        <f>EXP(-lambda*A201)*(4+COS(freq*A201))/5</f>
+        <v>0.52949320493027241</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.3">
@@ -4061,8 +4071,8 @@
         <v>202</v>
       </c>
       <c r="B202">
-        <f>EXP(-lambda*A202)*(2+COS(freq*A202))/3</f>
-        <v>8.1303177467189919E-3</v>
+        <f>EXP(-lambda*A202)*(4+COS(freq*A202))/5</f>
+        <v>0.51005639598897978</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.3">
@@ -4071,8 +4081,8 @@
         <v>203</v>
       </c>
       <c r="B203">
-        <f>EXP(-lambda*A203)*(2+COS(freq*A203))/3</f>
-        <v>9.4681990963801765E-3</v>
+        <f>EXP(-lambda*A203)*(4+COS(freq*A203))/5</f>
+        <v>0.67363062812869801</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.3">
@@ -4081,8 +4091,8 @@
         <v>204</v>
       </c>
       <c r="B204">
-        <f>EXP(-lambda*A204)*(2+COS(freq*A204))/3</f>
-        <v>1.0927752588597147E-2</v>
+        <f>EXP(-lambda*A204)*(4+COS(freq*A204))/5</f>
+        <v>0.8106225263370449</v>
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.3">
@@ -4091,8 +4101,8 @@
         <v>205</v>
       </c>
       <c r="B205">
-        <f>EXP(-lambda*A205)*(2+COS(freq*A205))/3</f>
-        <v>1.2355901981947415E-2</v>
+        <f>EXP(-lambda*A205)*(4+COS(freq*A205))/5</f>
+        <v>0.74572449706195687</v>
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.3">
@@ -4101,8 +4111,8 @@
         <v>206</v>
       </c>
       <c r="B206">
-        <f>EXP(-lambda*A206)*(2+COS(freq*A206))/3</f>
-        <v>1.3608730024077203E-2</v>
+        <f>EXP(-lambda*A206)*(4+COS(freq*A206))/5</f>
+        <v>0.56118999938619585</v>
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.3">
@@ -4111,8 +4121,8 @@
         <v>207</v>
       </c>
       <c r="B207">
-        <f>EXP(-lambda*A207)*(2+COS(freq*A207))/3</f>
-        <v>1.4563769073877617E-2</v>
+        <f>EXP(-lambda*A207)*(4+COS(freq*A207))/5</f>
+        <v>0.4915271381256871</v>
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.3">
@@ -4121,8 +4131,8 @@
         <v>208</v>
       </c>
       <c r="B208">
-        <f>EXP(-lambda*A208)*(2+COS(freq*A208))/3</f>
-        <v>1.512992345607425E-2</v>
+        <f>EXP(-lambda*A208)*(4+COS(freq*A208))/5</f>
+        <v>0.62442858971099813</v>
       </c>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.3">
@@ -4131,8 +4141,8 @@
         <v>209</v>
       </c>
       <c r="B209">
-        <f>EXP(-lambda*A209)*(2+COS(freq*A209))/3</f>
-        <v>1.5254243731997552E-2</v>
+        <f>EXP(-lambda*A209)*(4+COS(freq*A209))/5</f>
+        <v>0.78934351815684578</v>
       </c>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.3">
@@ -4141,8 +4151,8 @@
         <v>210</v>
       </c>
       <c r="B210">
-        <f>EXP(-lambda*A210)*(2+COS(freq*A210))/3</f>
-        <v>1.4925080522374297E-2</v>
+        <f>EXP(-lambda*A210)*(4+COS(freq*A210))/5</f>
+        <v>0.77527715944141073</v>
       </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.3">
@@ -4151,8 +4161,8 @@
         <v>211</v>
       </c>
       <c r="B211">
-        <f>EXP(-lambda*A211)*(2+COS(freq*A211))/3</f>
-        <v>1.4171482459264988E-2</v>
+        <f>EXP(-lambda*A211)*(4+COS(freq*A211))/5</f>
+        <v>0.5996812448781117</v>
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.3">
@@ -4161,8 +4171,8 @@
         <v>212</v>
       </c>
       <c r="B212">
-        <f>EXP(-lambda*A212)*(2+COS(freq*A212))/3</f>
-        <v>1.3059038484383383E-2</v>
+        <f>EXP(-lambda*A212)*(4+COS(freq*A212))/5</f>
+        <v>0.48576386896474116</v>
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.3">
@@ -4171,8 +4181,8 @@
         <v>213</v>
       </c>
       <c r="B213">
-        <f>EXP(-lambda*A213)*(2+COS(freq*A213))/3</f>
-        <v>1.1682669581337879E-2</v>
+        <f>EXP(-lambda*A213)*(4+COS(freq*A213))/5</f>
+        <v>0.57770885443746522</v>
       </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.3">
@@ -4181,8 +4191,8 @@
         <v>214</v>
       </c>
       <c r="B214">
-        <f>EXP(-lambda*A214)*(2+COS(freq*A214))/3</f>
-        <v>1.0157123522889352E-2</v>
+        <f>EXP(-lambda*A214)*(4+COS(freq*A214))/5</f>
+        <v>0.75714188849715769</v>
       </c>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.3">
@@ -4191,8 +4201,8 @@
         <v>215</v>
       </c>
       <c r="B215">
-        <f>EXP(-lambda*A215)*(2+COS(freq*A215))/3</f>
-        <v>8.6060986866040544E-3</v>
+        <f>EXP(-lambda*A215)*(4+COS(freq*A215))/5</f>
+        <v>0.79446527152710322</v>
       </c>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.3">
@@ -4201,8 +4211,8 @@
         <v>216</v>
       </c>
       <c r="B216">
-        <f>EXP(-lambda*A216)*(2+COS(freq*A216))/3</f>
-        <v>7.1510072551355568E-3</v>
+        <f>EXP(-lambda*A216)*(4+COS(freq*A216))/5</f>
+        <v>0.64159009958115276</v>
       </c>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.3">
@@ -4211,8 +4221,8 @@
         <v>217</v>
       </c>
       <c r="B217">
-        <f>EXP(-lambda*A217)*(2+COS(freq*A217))/3</f>
-        <v>5.900380218594751E-3</v>
+        <f>EXP(-lambda*A217)*(4+COS(freq*A217))/5</f>
+        <v>0.49283939380032543</v>
       </c>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.3">
@@ -4221,8 +4231,8 @@
         <v>218</v>
       </c>
       <c r="B218">
-        <f>EXP(-lambda*A218)*(2+COS(freq*A218))/3</f>
-        <v>4.9408208444671883E-3</v>
+        <f>EXP(-lambda*A218)*(4+COS(freq*A218))/5</f>
+        <v>0.53689412426637029</v>
       </c>
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.3">
@@ -4231,8 +4241,8 @@
         <v>219</v>
       </c>
       <c r="B219">
-        <f>EXP(-lambda*A219)*(2+COS(freq*A219))/3</f>
-        <v>4.3302415415100957E-3</v>
+        <f>EXP(-lambda*A219)*(4+COS(freq*A219))/5</f>
+        <v>0.71642288025725909</v>
       </c>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.3">
@@ -4241,8 +4251,8 @@
         <v>220</v>
       </c>
       <c r="B220">
-        <f>EXP(-lambda*A220)*(2+COS(freq*A220))/3</f>
-        <v>4.0938894020001188E-3</v>
+        <f>EXP(-lambda*A220)*(4+COS(freq*A220))/5</f>
+        <v>0.80161424139541548</v>
       </c>
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.3">
@@ -4251,8 +4261,8 @@
         <v>221</v>
       </c>
       <c r="B221">
-        <f>EXP(-lambda*A221)*(2+COS(freq*A221))/3</f>
-        <v>4.2234006291124986E-3</v>
+        <f>EXP(-lambda*A221)*(4+COS(freq*A221))/5</f>
+        <v>0.68330363352077605</v>
       </c>
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.3">
@@ -4261,8 +4271,8 @@
         <v>222</v>
       </c>
       <c r="B222">
-        <f>EXP(-lambda*A222)*(2+COS(freq*A222))/3</f>
-        <v>4.6788482461992374E-3</v>
+        <f>EXP(-lambda*A222)*(4+COS(freq*A222))/5</f>
+        <v>0.51180912646275589</v>
       </c>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.3">
@@ -4271,8 +4281,8 @@
         <v>223</v>
       </c>
       <c r="B223">
-        <f>EXP(-lambda*A223)*(2+COS(freq*A223))/3</f>
-        <v>5.3934856206996071E-3</v>
+        <f>EXP(-lambda*A223)*(4+COS(freq*A223))/5</f>
+        <v>0.50490613569484644</v>
       </c>
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.3">
@@ -4281,8 +4291,8 @@
         <v>224</v>
       </c>
       <c r="B224">
-        <f>EXP(-lambda*A224)*(2+COS(freq*A224))/3</f>
-        <v>6.2806629015593448E-3</v>
+        <f>EXP(-lambda*A224)*(4+COS(freq*A224))/5</f>
+        <v>0.67024440100242988</v>
       </c>
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.3">
@@ -4291,8 +4301,8 @@
         <v>225</v>
       </c>
       <c r="B225">
-        <f>EXP(-lambda*A225)*(2+COS(freq*A225))/3</f>
-        <v>7.2422228638858504E-3</v>
+        <f>EXP(-lambda*A225)*(4+COS(freq*A225))/5</f>
+        <v>0.79602196561431116</v>
       </c>
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.3">
@@ -4301,8 +4311,8 @@
         <v>226</v>
       </c>
       <c r="B226">
-        <f>EXP(-lambda*A226)*(2+COS(freq*A226))/3</f>
-        <v>8.1775797330404937E-3</v>
+        <f>EXP(-lambda*A226)*(4+COS(freq*A226))/5</f>
+        <v>0.72126162966199692</v>
       </c>
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.3">
@@ -4311,8 +4321,8 @@
         <v>227</v>
       </c>
       <c r="B227">
-        <f>EXP(-lambda*A227)*(2+COS(freq*A227))/3</f>
-        <v>8.9926557205311682E-3</v>
+        <f>EXP(-lambda*A227)*(4+COS(freq*A227))/5</f>
+        <v>0.5407960995393587</v>
       </c>
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.3">
@@ -4321,8 +4331,8 @@
         <v>228</v>
       </c>
       <c r="B228">
-        <f>EXP(-lambda*A228)*(2+COS(freq*A228))/3</f>
-        <v>9.6078948776114233E-3</v>
+        <f>EXP(-lambda*A228)*(4+COS(freq*A228))/5</f>
+        <v>0.48393898234007693</v>
       </c>
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.3">
@@ -4331,8 +4341,8 @@
         <v>229</v>
       </c>
       <c r="B229">
-        <f>EXP(-lambda*A229)*(2+COS(freq*A229))/3</f>
-        <v>9.964685622427371E-3</v>
+        <f>EXP(-lambda*A229)*(4+COS(freq*A229))/5</f>
+        <v>0.62206807014463661</v>
       </c>
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.3">
@@ -4341,8 +4351,8 @@
         <v>230</v>
       </c>
       <c r="B230">
-        <f>EXP(-lambda*A230)*(2+COS(freq*A230))/3</f>
-        <v>1.0029689472178201E-2</v>
+        <f>EXP(-lambda*A230)*(4+COS(freq*A230))/5</f>
+        <v>0.7780048141184166</v>
       </c>
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.3">
@@ -4351,8 +4361,8 @@
         <v>231</v>
       </c>
       <c r="B231">
-        <f>EXP(-lambda*A231)*(2+COS(freq*A231))/3</f>
-        <v>9.7967773638106791E-3</v>
+        <f>EXP(-lambda*A231)*(4+COS(freq*A231))/5</f>
+        <v>0.75223833196092149</v>
       </c>
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.3">
@@ -4361,8 +4371,8 @@
         <v>232</v>
       </c>
       <c r="B232">
-        <f>EXP(-lambda*A232)*(2+COS(freq*A232))/3</f>
-        <v>9.2864970690811257E-3</v>
+        <f>EXP(-lambda*A232)*(4+COS(freq*A232))/5</f>
+        <v>0.57714905447211085</v>
       </c>
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.3">
@@ -4371,8 +4381,8 @@
         <v>233</v>
       </c>
       <c r="B233">
-        <f>EXP(-lambda*A233)*(2+COS(freq*A233))/3</f>
-        <v>8.5432153502795656E-3</v>
+        <f>EXP(-lambda*A233)*(4+COS(freq*A233))/5</f>
+        <v>0.47529238565069842</v>
       </c>
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.3">
@@ -4381,8 +4391,8 @@
         <v>234</v>
       </c>
       <c r="B234">
-        <f>EXP(-lambda*A234)*(2+COS(freq*A234))/3</f>
-        <v>7.6302773778000816E-3</v>
+        <f>EXP(-lambda*A234)*(4+COS(freq*A234))/5</f>
+        <v>0.57548073417621592</v>
       </c>
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.3">
@@ -4391,8 +4401,8 @@
         <v>235</v>
       </c>
       <c r="B235">
-        <f>EXP(-lambda*A235)*(2+COS(freq*A235))/3</f>
-        <v>6.6236868827876895E-3</v>
+        <f>EXP(-lambda*A235)*(4+COS(freq*A235))/5</f>
+        <v>0.74886240586193331</v>
       </c>
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.3">
@@ -4401,8 +4411,8 @@
         <v>236</v>
       </c>
       <c r="B236">
-        <f>EXP(-lambda*A236)*(2+COS(freq*A236))/3</f>
-        <v>5.6049208784842265E-3</v>
+        <f>EXP(-lambda*A236)*(4+COS(freq*A236))/5</f>
+        <v>0.77359487159982543</v>
       </c>
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.3">
@@ -4411,8 +4421,8 @@
         <v>237</v>
       </c>
       <c r="B237">
-        <f>EXP(-lambda*A237)*(2+COS(freq*A237))/3</f>
-        <v>4.6535448301319466E-3</v>
+        <f>EXP(-lambda*A237)*(4+COS(freq*A237))/5</f>
+        <v>0.61766034988554641</v>
       </c>
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.3">
@@ -4421,8 +4431,8 @@
         <v>238</v>
       </c>
       <c r="B238">
-        <f>EXP(-lambda*A238)*(2+COS(freq*A238))/3</f>
-        <v>3.8402855944179668E-3</v>
+        <f>EXP(-lambda*A238)*(4+COS(freq*A238))/5</f>
+        <v>0.47927753671928208</v>
       </c>
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.3">
@@ -4431,8 +4441,8 @@
         <v>239</v>
       </c>
       <c r="B239">
-        <f>EXP(-lambda*A239)*(2+COS(freq*A239))/3</f>
-        <v>3.221153414574717E-3</v>
+        <f>EXP(-lambda*A239)*(4+COS(freq*A239))/5</f>
+        <v>0.53390882402555895</v>
       </c>
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.3">
@@ -4441,8 +4451,8 @@
         <v>240</v>
       </c>
       <c r="B240">
-        <f>EXP(-lambda*A240)*(2+COS(freq*A240))/3</f>
-        <v>2.833088807843396E-3</v>
+        <f>EXP(-lambda*A240)*(4+COS(freq*A240))/5</f>
+        <v>0.71076477612725997</v>
       </c>
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.3">
@@ -4451,8 +4461,8 @@
         <v>241</v>
       </c>
       <c r="B241">
-        <f>EXP(-lambda*A241)*(2+COS(freq*A241))/3</f>
-        <v>2.6914574094428524E-3</v>
+        <f>EXP(-lambda*A241)*(4+COS(freq*A241))/5</f>
+        <v>0.78348264904391773</v>
       </c>
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.3">
@@ -4461,8 +4471,8 @@
         <v>242</v>
       </c>
       <c r="B242">
-        <f>EXP(-lambda*A242)*(2+COS(freq*A242))/3</f>
-        <v>2.7895406413257374E-3</v>
+        <f>EXP(-lambda*A242)*(4+COS(freq*A242))/5</f>
+        <v>0.65882581564605569</v>
       </c>
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.3">
@@ -4471,8 +4481,8 @@
         <v>243</v>
       </c>
       <c r="B243">
-        <f>EXP(-lambda*A243)*(2+COS(freq*A243))/3</f>
-        <v>3.0999887426056433E-3</v>
+        <f>EXP(-lambda*A243)*(4+COS(freq*A243))/5</f>
+        <v>0.49520225262135592</v>
       </c>
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.3">
@@ -4481,8 +4491,8 @@
         <v>244</v>
       </c>
       <c r="B244">
-        <f>EXP(-lambda*A244)*(2+COS(freq*A244))/3</f>
-        <v>3.5780314203395897E-3</v>
+        <f>EXP(-lambda*A244)*(4+COS(freq*A244))/5</f>
+        <v>0.50034827350477595</v>
       </c>
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.3">
@@ -4491,8 +4501,8 @@
         <v>245</v>
       </c>
       <c r="B245">
-        <f>EXP(-lambda*A245)*(2+COS(freq*A245))/3</f>
-        <v>4.1660948241276389E-3</v>
+        <f>EXP(-lambda*A245)*(4+COS(freq*A245))/5</f>
+        <v>0.66657165387058459</v>
       </c>
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.3">
@@ -4501,8 +4511,8 @@
         <v>246</v>
       </c>
       <c r="B246">
-        <f>EXP(-lambda*A246)*(2+COS(freq*A246))/3</f>
-        <v>4.7993636359252041E-3</v>
+        <f>EXP(-lambda*A246)*(4+COS(freq*A246))/5</f>
+        <v>0.7809820343644297</v>
       </c>
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.3">
@@ -4511,8 +4521,8 @@
         <v>247</v>
       </c>
       <c r="B247">
-        <f>EXP(-lambda*A247)*(2+COS(freq*A247))/3</f>
-        <v>5.4117620275534488E-3</v>
+        <f>EXP(-lambda*A247)*(4+COS(freq*A247))/5</f>
+        <v>0.69712553223687135</v>
       </c>
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.3">
@@ -4521,8 +4531,8 @@
         <v>248</v>
       </c>
       <c r="B248">
-        <f>EXP(-lambda*A248)*(2+COS(freq*A248))/3</f>
-        <v>5.9418110333344073E-3</v>
+        <f>EXP(-lambda*A248)*(4+COS(freq*A248))/5</f>
+        <v>0.52143583499741741</v>
       </c>
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.3">
@@ -4531,8 +4541,8 @@
         <v>249</v>
       </c>
       <c r="B249">
-        <f>EXP(-lambda*A249)*(2+COS(freq*A249))/3</f>
-        <v>6.3378520245036471E-3</v>
+        <f>EXP(-lambda*A249)*(4+COS(freq*A249))/5</f>
+        <v>0.47713125796950384</v>
       </c>
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.3">
@@ -4541,8 +4551,8 @@
         <v>250</v>
       </c>
       <c r="B250">
-        <f>EXP(-lambda*A250)*(2+COS(freq*A250))/3</f>
-        <v>6.5622017333053428E-3</v>
+        <f>EXP(-lambda*A250)*(4+COS(freq*A250))/5</f>
+        <v>0.61959885357763</v>
       </c>
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.3">
@@ -4551,8 +4561,8 @@
         <v>251</v>
       </c>
       <c r="B251">
-        <f>EXP(-lambda*A251)*(2+COS(freq*A251))/3</f>
-        <v>6.5939152842810489E-3</v>
+        <f>EXP(-lambda*A251)*(4+COS(freq*A251))/5</f>
+        <v>0.7661660322894901</v>
       </c>
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.3">
@@ -4561,8 +4571,8 @@
         <v>252</v>
       </c>
       <c r="B252">
-        <f>EXP(-lambda*A252)*(2+COS(freq*A252))/3</f>
-        <v>6.4299688027853914E-3</v>
+        <f>EXP(-lambda*A252)*(4+COS(freq*A252))/5</f>
+        <v>0.72930306508419107</v>
       </c>
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.3">
@@ -4571,8 +4581,8 @@
         <v>253</v>
       </c>
       <c r="B253">
-        <f>EXP(-lambda*A253)*(2+COS(freq*A253))/3</f>
-        <v>6.0848195579225528E-3</v>
+        <f>EXP(-lambda*A253)*(4+COS(freq*A253))/5</f>
+        <v>0.55554769538488258</v>
       </c>
     </row>
   </sheetData>

--- a/Oscillation.xlsx
+++ b/Oscillation.xlsx
@@ -878,763 +878,763 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="253"/>
                 <c:pt idx="0">
-                  <c:v>0.87159951543483927</c:v>
+                  <c:v>0.85519545668549424</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.65121751855088772</c:v>
+                  <c:v>0.62693553244399436</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.61878916190957234</c:v>
+                  <c:v>0.58450457252806343</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.81423632878822649</c:v>
+                  <c:v>0.75464742549034192</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.98708626682757183</c:v>
+                  <c:v>0.89762953503828058</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.91615679826332586</c:v>
+                  <c:v>0.81744819208620689</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.69128628905143386</c:v>
+                  <c:v>0.60519701471794418</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.59825717604959905</c:v>
+                  <c:v>0.51389590309588473</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.7543145461982278</c:v>
+                  <c:v>0.63575257271932128</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.95913136130967069</c:v>
+                  <c:v>0.79316243988656332</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.95066178538118729</c:v>
+                  <c:v>0.77136244336655468</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.73911373425246796</c:v>
+                  <c:v>0.58842637461596436</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.59339991577401219</c:v>
+                  <c:v>0.46352882174917215</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.69802323066212379</c:v>
+                  <c:v>0.53499231588412077</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.91818672632457721</c:v>
+                  <c:v>0.69048950632293205</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.97216433659146551</c:v>
+                  <c:v>0.71732201972974297</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.79051650832763554</c:v>
+                  <c:v>0.57231328347542443</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.60413279531948805</c:v>
+                  <c:v>0.42914464656113516</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.64947600426052199</c:v>
+                  <c:v>0.45267113497776501</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.86731487869266444</c:v>
+                  <c:v>0.59312317517360902</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.97877615810924967</c:v>
+                  <c:v>0.65674970079775663</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.84107097967662714</c:v>
+                  <c:v>0.55372936444335674</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.62913753993543087</c:v>
+                  <c:v>0.40640487722624907</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.6121331154698233</c:v>
+                  <c:v>0.38797843873101795</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.8103365232266867</c:v>
+                  <c:v>0.50393617450249617</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.96980994634085604</c:v>
+                  <c:v>0.59175939250739373</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.88646635047077638</c:v>
+                  <c:v>0.5307245598932937</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.6659789755390213</c:v>
+                  <c:v>0.39121532110882651</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.58853357982414112</c:v>
+                  <c:v>0.33921495266539559</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.75152006862774601</c:v>
+                  <c:v>0.4250037165022123</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.94582192429016509</c:v>
+                  <c:v>0.52481945626812165</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.92284531638829592</c:v>
+                  <c:v>0.50243266581678969</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.71130921192896257</c:v>
+                  <c:v>0.37997567309139701</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.58010302765643595</c:v>
+                  <c:v>0.30405412297323375</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.69523873569080497</c:v>
+                  <c:v>0.35754287720200895</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.90855535926733599</c:v>
+                  <c:v>0.4584521025874353</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.94710538062804728</c:v>
+                  <c:v>0.46890977164108422</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.76114216090301379</c:v>
+                  <c:v>0.36974742907952929</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.58705174079661493</c:v>
+                  <c:v>0.27981060410885461</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.64562276714282918</c:v>
+                  <c:v>0.30193609270593752</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0.86079052546358048</c:v>
+                  <c:v>0.39498634025999185</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0.95713732341421098</c:v>
+                  <c:v>0.43093052180448976</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0.81117592371743119</c:v>
+                  <c:v>0.35834096615373967</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0.60837006519549619</c:v>
+                  <c:v>0.26369242224363632</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0.60623436309115974</c:v>
+                  <c:v>0.25782128447913844</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0.80611393829812616</c:v>
+                  <c:v>0.33637449076952586</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0.95198254477359401</c:v>
+                  <c:v>0.38976605466459036</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>0.85713701044602608</c:v>
+                  <c:v>0.34432906277728204</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>0.64192059428707915</c:v>
+                  <c:v>0.25301900668154509</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>0.57979088935110734</c:v>
+                  <c:v>0.22422892193724273</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>0.74862596051257202</c:v>
+                  <c:v>0.28407533686070718</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>0.93189761257317816</c:v>
+                  <c:v>0.34696466711857715</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>0.895118881887632</c:v>
+                  <c:v>0.32699881216855881</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>0.68461885126183775</c:v>
+                  <c:v>0.24539330793752967</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>0.56795782431046016</c:v>
+                  <c:v>0.1997461205617542</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>0.69261057625911349</c:v>
+                  <c:v>0.23900103972191791</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>0.89832182132061877</c:v>
+                  <c:v>0.30415224432191723</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>0.92188802854151208</c:v>
+                  <c:v>0.30625674070546033</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>0.73268726391674976</c:v>
+                  <c:v>0.23882210843437163</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>0.57122716704243037</c:v>
+                  <c:v>0.18268931379840853</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>0.64219389223873125</c:v>
+                  <c:v>0.20152033026773614</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>0.85375129895189128</c:v>
+                  <c:v>0.26286482649466203</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>0.93513364157864165</c:v>
+                  <c:v>0.28250307945267816</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>0.78196156590485955</c:v>
+                  <c:v>0.23178392753888194</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>0.58889009696904859</c:v>
+                  <c:v>0.17126971141277431</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>0.60101855447682262</c:v>
+                  <c:v>0.17150729578683149</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>0.80153057316395748</c:v>
+                  <c:v>0.2244208572902083</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>0.93364164141566075</c:v>
+                  <c:v>0.25649077089220573</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>0.82822480909722673</c:v>
+                  <c:v>0.22324830472371673</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>0.61910511498946375</c:v>
+                  <c:v>0.16373922526912593</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>0.57195973688961232</c:v>
+                  <c:v>0.14842334042370314</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>0.74557894466350361</c:v>
+                  <c:v>0.18983609149883141</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>0.91738001834236038</c:v>
+                  <c:v>0.22918322691841433</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>0.8675422294840992</c:v>
+                  <c:v>0.21265352331159817</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>0.6590553133109387</c:v>
+                  <c:v>0.15850838057370628</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>0.55690480640920115</c:v>
+                  <c:v>0.13141947691514633</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>0.6900740110575313</c:v>
+                  <c:v>0.15978015741332485</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>0.88748960126007914</c:v>
+                  <c:v>0.20162243291585419</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>0.89657040760989459</c:v>
+                  <c:v>0.1998519467283201</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>0.70518141768401166</c:v>
+                  <c:v>0.15423155850530809</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>0.55661350076572713</c:v>
+                  <c:v>0.11944680246224644</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>0.63911786018483696</c:v>
+                  <c:v>0.13457058838841912</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>0.84618192745587772</c:v>
+                  <c:v>0.17481606792447241</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>0.91281646691235685</c:v>
+                  <c:v>0.18503312042624454</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>0.7534713708741485</c:v>
+                  <c:v>0.14985842611112285</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>0.57066890389617997</c:v>
+                  <c:v>0.11136456494248173</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>0.59641257185913121</c:v>
+                  <c:v>0.11419787190539925</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>0.79655323537155398</c:v>
+                  <c:v>0.14964921126316411</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>0.91482725603840842</c:v>
+                  <c:v>0.16863477070381766</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>0.79978293457056804</c:v>
+                  <c:v>0.14465337438275366</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>0.59752220254091726</c:v>
+                  <c:v>0.10603735547583489</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>0.56497066389635109</c:v>
+                  <c:v>9.8373731044811882E-2</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>0.7423301629126049</c:v>
+                  <c:v>0.12682321485453055</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>0.90229421210949101</c:v>
+                  <c:v>0.15125099030843253</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>0.84017340305589028</c:v>
+                  <c:v>0.13818706389819643</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>0.63462674227306792</c:v>
+                  <c:v>0.10241539249288063</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>0.54688309259008383</c:v>
+                  <c:v>8.6594391906100826E-2</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>0.68756799365610932</c:v>
+                  <c:v>0.10682166102142801</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>0.87606642963116987</c:v>
+                  <c:v>0.13354545689558869</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>0.87121021586582081</c:v>
+                  <c:v>0.13030570903970465</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>0.67864986551615603</c:v>
+                  <c:v>9.9594339692611972E-2</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>0.54316262950467875</c:v>
+                  <c:v>7.8210880675283687E-2</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>0.63632584826626337</c:v>
+                  <c:v>8.9901153487554258E-2</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>0.8380718122212969</c:v>
+                  <c:v>0.11617571059983614</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>0.89023803195127527</c:v>
+                  <c:v>0.12108452780399717</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>0.72574496160538149</c:v>
+                  <c:v>9.6853416027492589E-2</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>0.55367428276301467</c:v>
+                  <c:v>7.2499276071749497E-2</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>0.59234480361431907</c:v>
+                  <c:v>7.6103092690937374E-2</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>0.79115347339063669</c:v>
+                  <c:v>9.9732537068490765E-2</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>0.8955815230492179</c:v>
+                  <c:v>0.11077191347699164</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>0.77186155973955617</c:v>
+                  <c:v>9.3672551601856141E-2</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>0.5771574134088483</c:v>
+                  <c:v>6.8725138053783136E-2</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>0.55875443144062298</c:v>
+                  <c:v>6.5281590646899854E-2</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>0.73883520095295308</c:v>
+                  <c:v>8.4696552073049935E-2</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>0.88666844698880565</c:v>
+                  <c:v>9.9730457420069446E-2</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>0.81306849995087949</c:v>
+                  <c:v>8.9730915292900962E-2</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>0.61133688092231453</c:v>
+                  <c:v>6.6197862054146434E-2</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>0.53783074144821963</c:v>
+                  <c:v>5.7142257468083199E-2</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>0.68503528651611123</c:v>
+                  <c:v>7.141231618782462E-2</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>0.86406403604745063</c:v>
+                  <c:v>8.838010447853907E-2</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>0.84586442870755296</c:v>
+                  <c:v>8.4890237374870253E-2</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>0.65311351963916042</c:v>
+                  <c:v>6.4312303449624117E-2</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>0.53082420931090035</c:v>
+                  <c:v>5.1286671854645548E-2</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>0.63375192343094355</c:v>
+                  <c:v>6.0078833404587272E-2</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>0.82941485623706568</c:v>
+                  <c:v>7.7147599196626546E-2</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>0.86745112700652827</c:v>
+                  <c:v>7.9166970483801613E-2</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>0.69881805441418277</c:v>
+                  <c:v>6.2576537919629541E-2</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>0.53787082738212644</c:v>
+                  <c:v>4.725783373500303E-2</c:v>
                 </c:pt>
                 <c:pt idx="128">
-                  <c:v>0.58874539994876329</c:v>
+                  <c:v>5.0754172538499176E-2</c:v>
                 </c:pt>
                 <c:pt idx="129">
-                  <c:v>0.78530748952833196</c:v>
+                  <c:v>6.6425123274626713E-2</c:v>
                 </c:pt>
                 <c:pt idx="130">
-                  <c:v>0.87594836941489151</c:v>
+                  <c:v>7.2697511204327631E-2</c:v>
                 </c:pt>
                 <c:pt idx="131">
-                  <c:v>0.74450769208670919</c:v>
+                  <c:v>6.0625959986033116E-2</c:v>
                 </c:pt>
                 <c:pt idx="132">
-                  <c:v>0.55799240453732746</c:v>
+                  <c:v>4.4582675878481644E-2</c:v>
                 </c:pt>
                 <c:pt idx="133">
-                  <c:v>0.55324231742637431</c:v>
+                  <c:v>4.3371220220273524E-2</c:v>
                 </c:pt>
                 <c:pt idx="134">
-                  <c:v>0.73505409120108023</c:v>
+                  <c:v>5.6539759010658643E-2</c:v>
                 </c:pt>
                 <c:pt idx="135">
-                  <c:v>0.87053386030789304</c:v>
+                  <c:v>6.5700507895840171E-2</c:v>
                 </c:pt>
                 <c:pt idx="136">
-                  <c:v>0.78628144826939406</c:v>
+                  <c:v>5.8224999373689169E-2</c:v>
                 </c:pt>
                 <c:pt idx="137">
-                  <c:v>0.58918520333208924</c:v>
+                  <c:v>4.2808666530639708E-2</c:v>
                 </c:pt>
                 <c:pt idx="138">
-                  <c:v>0.52968506607640342</c:v>
+                  <c:v>3.776121867469124E-2</c:v>
                 </c:pt>
                 <c:pt idx="139">
-                  <c:v>0.68242255243941341</c:v>
+                  <c:v>4.7734244021585777E-2</c:v>
                 </c:pt>
                 <c:pt idx="140">
-                  <c:v>0.85149789767342043</c:v>
+                  <c:v>5.8439792202270004E-2</c:v>
                 </c:pt>
                 <c:pt idx="141">
-                  <c:v>0.8205890217257753</c:v>
+                  <c:v>5.5258512535377266E-2</c:v>
                 </c:pt>
                 <c:pt idx="142">
-                  <c:v>0.6285890077308014</c:v>
+                  <c:v>4.1532557482096902E-2</c:v>
                 </c:pt>
                 <c:pt idx="143">
-                  <c:v>0.51954597125861857</c:v>
+                  <c:v>3.3681721381785948E-2</c:v>
                 </c:pt>
                 <c:pt idx="144">
-                  <c:v>0.63133321395647635</c:v>
+                  <c:v>4.0158486824106422E-2</c:v>
                 </c:pt>
                 <c:pt idx="145">
-                  <c:v>0.82020927882863126</c:v>
+                  <c:v>5.1190784508625631E-2</c:v>
                 </c:pt>
                 <c:pt idx="146">
-                  <c:v>0.84450879081651764</c:v>
+                  <c:v>5.1715376013712386E-2</c:v>
                 </c:pt>
                 <c:pt idx="147">
-                  <c:v>0.67272241623521123</c:v>
+                  <c:v>4.0420326404238024E-2</c:v>
                 </c:pt>
                 <c:pt idx="148">
-                  <c:v>0.52322020261223834</c:v>
+                  <c:v>3.0845855969615015E-2</c:v>
                 </c:pt>
                 <c:pt idx="149">
-                  <c:v>0.58554651013804837</c:v>
+                  <c:v>3.3870540219567119E-2</c:v>
                 </c:pt>
                 <c:pt idx="150">
-                  <c:v>0.77899603443970267</c:v>
+                  <c:v>4.4212429293133987E-2</c:v>
                 </c:pt>
                 <c:pt idx="151">
-                  <c:v>0.85597319775075553</c:v>
+                  <c:v>4.7666987131740467E-2</c:v>
                 </c:pt>
                 <c:pt idx="152">
-                  <c:v>0.71776504577291556</c:v>
+                  <c:v>3.9218253196873137E-2</c:v>
                 </c:pt>
                 <c:pt idx="153">
-                  <c:v>0.5400051532392246</c:v>
+                  <c:v>2.8950245454466166E-2</c:v>
                 </c:pt>
                 <c:pt idx="154">
-                  <c:v>0.54836639970610923</c:v>
+                  <c:v>2.8845202158575479E-2</c:v>
                 </c:pt>
                 <c:pt idx="155">
-                  <c:v>0.73095129455873697</c:v>
+                  <c:v>3.7725898784893734E-2</c:v>
                 </c:pt>
                 <c:pt idx="156">
-                  <c:v>0.85392417410154076</c:v>
+                  <c:v>4.3243304006731091E-2</c:v>
                 </c:pt>
                 <c:pt idx="157">
-                  <c:v>0.75986380447633461</c:v>
+                  <c:v>3.7755804013726732E-2</c:v>
                 </c:pt>
                 <c:pt idx="158">
-                  <c:v>0.56816706350967094</c:v>
+                  <c:v>2.7699531546509108E-2</c:v>
                 </c:pt>
                 <c:pt idx="159">
-                  <c:v>0.5223829399163965</c:v>
+                  <c:v>2.4988130204555294E-2</c:v>
                 </c:pt>
                 <c:pt idx="160">
-                  <c:v>0.6796804239258617</c:v>
+                  <c:v>3.1900533152229446E-2</c:v>
                 </c:pt>
                 <c:pt idx="161">
-                  <c:v>0.83838698046357896</c:v>
+                  <c:v>3.8608782805841554E-2</c:v>
                 </c:pt>
                 <c:pt idx="162">
-                  <c:v>0.79543871041300507</c:v>
+                  <c:v>3.5941542509268301E-2</c:v>
                 </c:pt>
                 <c:pt idx="163">
-                  <c:v>0.60508873898903381</c:v>
+                  <c:v>2.6826095415154731E-2</c:v>
                 </c:pt>
                 <c:pt idx="164">
-                  <c:v>0.50927402532445598</c:v>
+                  <c:v>2.2153294733271919E-2</c:v>
                 </c:pt>
                 <c:pt idx="165">
-                  <c:v>0.62901005979998637</c:v>
+                  <c:v>2.684681655578532E-2</c:v>
                 </c:pt>
                 <c:pt idx="166">
-                  <c:v>0.81045741752106815</c:v>
+                  <c:v>3.3940154137468502E-2</c:v>
                 </c:pt>
                 <c:pt idx="167">
-                  <c:v>0.82146401333551711</c:v>
+                  <c:v>3.3753635514810525E-2</c:v>
                 </c:pt>
                 <c:pt idx="168">
-                  <c:v>0.64748584347588833</c:v>
+                  <c:v>2.6104218509300968E-2</c:v>
                 </c:pt>
                 <c:pt idx="169">
-                  <c:v>0.50968142196098276</c:v>
+                  <c:v>2.0161722231690913E-2</c:v>
                 </c:pt>
                 <c:pt idx="170">
-                  <c:v>0.58268250091144325</c:v>
+                  <c:v>2.261565674293075E-2</c:v>
                 </c:pt>
                 <c:pt idx="171">
-                  <c:v>0.77220428449039047</c:v>
+                  <c:v>2.9407482013875285E-2</c:v>
                 </c:pt>
                 <c:pt idx="172">
-                  <c:v>0.83570257589007468</c:v>
+                  <c:v>3.1226677555269988E-2</c:v>
                 </c:pt>
                 <c:pt idx="173">
-                  <c:v>0.69167393559041923</c:v>
+                  <c:v>2.5358517083370585E-2</c:v>
                 </c:pt>
                 <c:pt idx="174">
-                  <c:v>0.52317018654282821</c:v>
+                  <c:v>1.8819749346647176E-2</c:v>
                 </c:pt>
                 <c:pt idx="175">
-                  <c:v>0.54405982427792765</c:v>
+                  <c:v>1.9202859724147418E-2</c:v>
                 </c:pt>
                 <c:pt idx="176">
-                  <c:v>0.72649566201755456</c:v>
+                  <c:v>2.5159423341676583E-2</c:v>
                 </c:pt>
                 <c:pt idx="177">
-                  <c:v>0.83687539597701677</c:v>
+                  <c:v>2.8436547157683328E-2</c:v>
                 </c:pt>
                 <c:pt idx="178">
-                  <c:v>0.73386457147698203</c:v>
+                  <c:v>2.4466981239411451E-2</c:v>
                 </c:pt>
                 <c:pt idx="179">
-                  <c:v>0.54827385855351307</c:v>
+                  <c:v>1.7935372926697148E-2</c:v>
                 </c:pt>
                 <c:pt idx="180">
-                  <c:v>0.51586109277943515</c:v>
+                  <c:v>1.6557472809691151E-2</c:v>
                 </c:pt>
                 <c:pt idx="181">
-                  <c:v>0.6767635509973049</c:v>
+                  <c:v>2.1313100954661428E-2</c:v>
                 </c:pt>
                 <c:pt idx="182">
-                  <c:v>0.82475347470021787</c:v>
+                  <c:v>2.5484859306427583E-2</c:v>
                 </c:pt>
                 <c:pt idx="183">
-                  <c:v>0.77046670731321443</c:v>
+                  <c:v>2.3359329266216328E-2</c:v>
                 </c:pt>
                 <c:pt idx="184">
-                  <c:v>0.58262098859432498</c:v>
+                  <c:v>1.7331694365625493E-2</c:v>
                 </c:pt>
                 <c:pt idx="185">
-                  <c:v>0.49995316025622272</c:v>
+                  <c:v>1.4592598010134966E-2</c:v>
                 </c:pt>
                 <c:pt idx="186">
-                  <c:v>0.62672614176426955</c:v>
+                  <c:v>1.7948556066539383E-2</c:v>
                 </c:pt>
                 <c:pt idx="187">
-                  <c:v>0.8001655186454929</c:v>
+                  <c:v>2.2484329605140348E-2</c:v>
                 </c:pt>
                 <c:pt idx="188">
-                  <c:v>0.79836945159113093</c:v>
+                  <c:v>2.2011641274076114E-2</c:v>
                 </c:pt>
                 <c:pt idx="189">
-                  <c:v>0.62313216164316898</c:v>
+                  <c:v>1.6856875814268917E-2</c:v>
                 </c:pt>
                 <c:pt idx="190">
-                  <c:v>0.4972111272613523</c:v>
+                  <c:v>1.3197332676825657E-2</c:v>
                 </c:pt>
                 <c:pt idx="191">
-                  <c:v>0.58009015568319022</c:v>
+                  <c:v>1.51073825100382E-2</c:v>
                 </c:pt>
                 <c:pt idx="192">
-                  <c:v>0.7649217032597122</c:v>
+                  <c:v>1.9546055080545209E-2</c:v>
                 </c:pt>
                 <c:pt idx="193">
-                  <c:v>0.81518393416307189</c:v>
+                  <c:v>2.0438365039781144E-2</c:v>
                 </c:pt>
                 <c:pt idx="194">
-                  <c:v>0.6662711924020247</c:v>
+                  <c:v>1.6390416158885372E-2</c:v>
                 </c:pt>
                 <c:pt idx="195">
-                  <c:v>0.50745881847667174</c:v>
+                  <c:v>1.2248647978096858E-2</c:v>
                 </c:pt>
                 <c:pt idx="196">
-                  <c:v>0.54025705786307787</c:v>
+                  <c:v>1.2794879596527035E-2</c:v>
                 </c:pt>
                 <c:pt idx="197">
-                  <c:v>0.72166037710935549</c:v>
+                  <c:v>1.6769380537258551E-2</c:v>
                 </c:pt>
                 <c:pt idx="198">
-                  <c:v>0.81942552177652028</c:v>
+                  <c:v>1.8682803681153756E-2</c:v>
                 </c:pt>
                 <c:pt idx="199">
-                  <c:v>0.70833003718628951</c:v>
+                  <c:v>1.5845889660763772E-2</c:v>
                 </c:pt>
                 <c:pt idx="200">
-                  <c:v>0.52949320493027241</c:v>
+                  <c:v>1.1622238001394419E-2</c:v>
                 </c:pt>
                 <c:pt idx="201">
-                  <c:v>0.51005639598897978</c:v>
+                  <c:v>1.0984896677100509E-2</c:v>
                 </c:pt>
                 <c:pt idx="202">
-                  <c:v>0.67363062812869801</c:v>
+                  <c:v>1.4234689829513902E-2</c:v>
                 </c:pt>
                 <c:pt idx="203">
-                  <c:v>0.8106225263370449</c:v>
+                  <c:v>1.6807118274995075E-2</c:v>
                 </c:pt>
                 <c:pt idx="204">
-                  <c:v>0.74572449706195687</c:v>
+                  <c:v>1.5170552679643384E-2</c:v>
                 </c:pt>
                 <c:pt idx="205">
-                  <c:v>0.56118999938619585</c:v>
+                  <c:v>1.1201632515778607E-2</c:v>
                 </c:pt>
                 <c:pt idx="206">
-                  <c:v>0.4915271381256871</c:v>
+                  <c:v>9.6264753637043989E-3</c:v>
                 </c:pt>
                 <c:pt idx="207">
-                  <c:v>0.62442858971099813</c:v>
+                  <c:v>1.1999163932710536E-2</c:v>
                 </c:pt>
                 <c:pt idx="208">
-                  <c:v>0.78934351815684578</c:v>
+                  <c:v>1.4882731934816606E-2</c:v>
                 </c:pt>
                 <c:pt idx="209">
-                  <c:v>0.77527715944141073</c:v>
+                  <c:v>1.4342405813291621E-2</c:v>
                 </c:pt>
                 <c:pt idx="210">
-                  <c:v>0.5996812448781117</c:v>
+                  <c:v>1.0885136725442505E-2</c:v>
                 </c:pt>
                 <c:pt idx="211">
-                  <c:v>0.48576386896474116</c:v>
+                  <c:v>8.6514128208910919E-3</c:v>
                 </c:pt>
                 <c:pt idx="212">
-                  <c:v>0.57770885443746522</c:v>
+                  <c:v>1.0095300612943016E-2</c:v>
                 </c:pt>
                 <c:pt idx="213">
-                  <c:v>0.75714188849715769</c:v>
+                  <c:v>1.2981829788004901E-2</c:v>
                 </c:pt>
                 <c:pt idx="214">
-                  <c:v>0.79446527152710322</c:v>
+                  <c:v>1.3365399944595152E-2</c:v>
                 </c:pt>
                 <c:pt idx="215">
-                  <c:v>0.64159009958115276</c:v>
+                  <c:v>1.0590417953108545E-2</c:v>
                 </c:pt>
                 <c:pt idx="216">
-                  <c:v>0.49283939380032543</c:v>
+                  <c:v>7.9819548309159691E-3</c:v>
                 </c:pt>
                 <c:pt idx="217">
-                  <c:v>0.53689412426637029</c:v>
+                  <c:v>8.5318047298875953E-3</c:v>
                 </c:pt>
                 <c:pt idx="218">
-                  <c:v>0.71642288025725909</c:v>
+                  <c:v>1.1170435576159946E-2</c:v>
                 </c:pt>
                 <c:pt idx="219">
-                  <c:v>0.80161424139541548</c:v>
+                  <c:v>1.2263501537582691E-2</c:v>
                 </c:pt>
                 <c:pt idx="220">
-                  <c:v>0.68330363352077605</c:v>
+                  <c:v>1.0256783785274762E-2</c:v>
                 </c:pt>
                 <c:pt idx="221">
-                  <c:v>0.51180912646275589</c:v>
+                  <c:v>7.5379612608852051E-3</c:v>
                 </c:pt>
                 <c:pt idx="222">
-                  <c:v>0.50490613569484644</c:v>
+                  <c:v>7.2963377346675542E-3</c:v>
                 </c:pt>
                 <c:pt idx="223">
-                  <c:v>0.67024440100242988</c:v>
+                  <c:v>9.503331520372419E-3</c:v>
                 </c:pt>
                 <c:pt idx="224">
-                  <c:v>0.79602196561431116</c:v>
+                  <c:v>1.1074296366970786E-2</c:v>
                 </c:pt>
                 <c:pt idx="225">
-                  <c:v>0.72126162966199692</c:v>
+                  <c:v>9.845376380716999E-3</c:v>
                 </c:pt>
                 <c:pt idx="226">
-                  <c:v>0.5407960995393587</c:v>
+                  <c:v>7.2430494488491485E-3</c:v>
                 </c:pt>
                 <c:pt idx="227">
-                  <c:v>0.48393898234007693</c:v>
+                  <c:v>6.3595576892862228E-3</c:v>
                 </c:pt>
                 <c:pt idx="228">
-                  <c:v>0.62206807014463661</c:v>
+                  <c:v>8.0208910907841498E-3</c:v>
                 </c:pt>
                 <c:pt idx="229">
-                  <c:v>0.7780048141184166</c:v>
+                  <c:v>9.8427260664783345E-3</c:v>
                 </c:pt>
                 <c:pt idx="230">
-                  <c:v>0.75223833196092149</c:v>
+                  <c:v>9.3376368334563264E-3</c:v>
                 </c:pt>
                 <c:pt idx="231">
-                  <c:v>0.57714905447211085</c:v>
+                  <c:v>7.0293944194682375E-3</c:v>
                 </c:pt>
                 <c:pt idx="232">
-                  <c:v>0.47529238565069842</c:v>
+                  <c:v>5.6798803274519839E-3</c:v>
                 </c:pt>
                 <c:pt idx="233">
-                  <c:v>0.57548073417621592</c:v>
+                  <c:v>6.7477272935088052E-3</c:v>
                 </c:pt>
                 <c:pt idx="234">
-                  <c:v>0.74886240586193331</c:v>
+                  <c:v>8.6154341455360831E-3</c:v>
                 </c:pt>
                 <c:pt idx="235">
-                  <c:v>0.77359487159982543</c:v>
+                  <c:v>8.7324704593321218E-3</c:v>
                 </c:pt>
                 <c:pt idx="236">
-                  <c:v>0.61766034988554641</c:v>
+                  <c:v>6.8410327749081051E-3</c:v>
                 </c:pt>
                 <c:pt idx="237">
-                  <c:v>0.47927753671928208</c:v>
+                  <c:v>5.2084371430343255E-3</c:v>
                 </c:pt>
                 <c:pt idx="238">
-                  <c:v>0.53390882402555895</c:v>
+                  <c:v>5.6929301637602178E-3</c:v>
                 </c:pt>
                 <c:pt idx="239">
-                  <c:v>0.71076477612725997</c:v>
+                  <c:v>7.4360629827549471E-3</c:v>
                 </c:pt>
                 <c:pt idx="240">
-                  <c:v>0.78348264904391773</c:v>
+                  <c:v>8.042571867899341E-3</c:v>
                 </c:pt>
                 <c:pt idx="241">
-                  <c:v>0.65882581564605569</c:v>
+                  <c:v>6.6356669546168562E-3</c:v>
                 </c:pt>
                 <c:pt idx="242">
-                  <c:v>0.49520225262135592</c:v>
+                  <c:v>4.8937861625742733E-3</c:v>
                 </c:pt>
                 <c:pt idx="243">
-                  <c:v>0.50034827350477595</c:v>
+                  <c:v>4.851579892599431E-3</c:v>
                 </c:pt>
                 <c:pt idx="244">
-                  <c:v>0.66657165387058459</c:v>
+                  <c:v>6.3417048844769518E-3</c:v>
                 </c:pt>
                 <c:pt idx="245">
-                  <c:v>0.7809820343644297</c:v>
+                  <c:v>7.2903543039212204E-3</c:v>
                 </c:pt>
                 <c:pt idx="246">
-                  <c:v>0.69712553223687135</c:v>
+                  <c:v>6.3850894461696768E-3</c:v>
                 </c:pt>
                 <c:pt idx="247">
-                  <c:v>0.52143583499741741</c:v>
+                  <c:v>4.6860322747985187E-3</c:v>
                 </c:pt>
                 <c:pt idx="248">
-                  <c:v>0.47713125796950384</c:v>
+                  <c:v>4.207175950376482E-3</c:v>
                 </c:pt>
                 <c:pt idx="249">
-                  <c:v>0.61959885357763</c:v>
+                  <c:v>5.3605804293566251E-3</c:v>
                 </c:pt>
                 <c:pt idx="250">
-                  <c:v>0.7661660322894901</c:v>
+                  <c:v>6.5038798484501363E-3</c:v>
                 </c:pt>
                 <c:pt idx="251">
-                  <c:v>0.72930306508419107</c:v>
+                  <c:v>6.0744373810006826E-3</c:v>
                 </c:pt>
                 <c:pt idx="252">
-                  <c:v>0.55554769538488258</c:v>
+                  <c:v>4.5401246411432717E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1649,11 +1649,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="280560000"/>
-        <c:axId val="280576384"/>
+        <c:axId val="230771328"/>
+        <c:axId val="230773120"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="280560000"/>
+        <c:axId val="230771328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1663,12 +1663,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="280576384"/>
+        <c:crossAx val="230773120"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="280576384"/>
+        <c:axId val="230773120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1679,7 +1679,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="280560000"/>
+        <c:crossAx val="230771328"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2027,7 +2027,7 @@
   <dimension ref="A1:H253"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -2040,15 +2040,14 @@
         <v>1</v>
       </c>
       <c r="B1">
-        <f>EXP(-lambda*A1)*(4+COS(freq*A1))/5</f>
-        <v>0.87159951543483927</v>
+        <f t="shared" ref="B1:B64" si="0">EXP(-lambda*A1)*(4+COS(freq*A1))/5</f>
+        <v>0.85519545668549424</v>
       </c>
       <c r="D1" t="s">
         <v>0</v>
       </c>
       <c r="E1">
-        <f>G1*H1</f>
-        <v>1E-3</v>
+        <v>0.02</v>
       </c>
       <c r="F1" t="s">
         <v>2</v>
@@ -2065,8 +2064,8 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <f>EXP(-lambda*A2)*(4+COS(freq*A2))/5</f>
-        <v>0.65121751855088772</v>
+        <f t="shared" si="0"/>
+        <v>0.62693553244399436</v>
       </c>
       <c r="D2" t="s">
         <v>1</v>
@@ -2081,118 +2080,118 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <f>EXP(-lambda*A3)*(4+COS(freq*A3))/5</f>
-        <v>0.61878916190957234</v>
+        <f t="shared" si="0"/>
+        <v>0.58450457252806343</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4">
-        <f t="shared" ref="A4:A14" si="0">A3+1</f>
+        <f t="shared" ref="A4:A14" si="1">A3+1</f>
         <v>4</v>
       </c>
       <c r="B4">
-        <f>EXP(-lambda*A4)*(4+COS(freq*A4))/5</f>
-        <v>0.81423632878822649</v>
+        <f t="shared" si="0"/>
+        <v>0.75464742549034192</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="B5">
-        <f>EXP(-lambda*A5)*(4+COS(freq*A5))/5</f>
-        <v>0.98708626682757183</v>
+        <f t="shared" si="0"/>
+        <v>0.89762953503828058</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="B6">
-        <f>EXP(-lambda*A6)*(4+COS(freq*A6))/5</f>
-        <v>0.91615679826332586</v>
+        <f t="shared" si="0"/>
+        <v>0.81744819208620689</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="B7">
-        <f>EXP(-lambda*A7)*(4+COS(freq*A7))/5</f>
-        <v>0.69128628905143386</v>
+        <f t="shared" si="0"/>
+        <v>0.60519701471794418</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="B8">
-        <f>EXP(-lambda*A8)*(4+COS(freq*A8))/5</f>
-        <v>0.59825717604959905</v>
+        <f t="shared" si="0"/>
+        <v>0.51389590309588473</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="B9">
-        <f>EXP(-lambda*A9)*(4+COS(freq*A9))/5</f>
-        <v>0.7543145461982278</v>
+        <f t="shared" si="0"/>
+        <v>0.63575257271932128</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="B10">
-        <f>EXP(-lambda*A10)*(4+COS(freq*A10))/5</f>
-        <v>0.95913136130967069</v>
+        <f t="shared" si="0"/>
+        <v>0.79316243988656332</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
       <c r="B11">
-        <f>EXP(-lambda*A11)*(4+COS(freq*A11))/5</f>
-        <v>0.95066178538118729</v>
+        <f t="shared" si="0"/>
+        <v>0.77136244336655468</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="B12">
-        <f>EXP(-lambda*A12)*(4+COS(freq*A12))/5</f>
-        <v>0.73911373425246796</v>
+        <f t="shared" si="0"/>
+        <v>0.58842637461596436</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>13</v>
       </c>
       <c r="B13">
-        <f>EXP(-lambda*A13)*(4+COS(freq*A13))/5</f>
-        <v>0.59339991577401219</v>
+        <f t="shared" si="0"/>
+        <v>0.46352882174917215</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>14</v>
       </c>
       <c r="B14">
-        <f>EXP(-lambda*A14)*(4+COS(freq*A14))/5</f>
-        <v>0.69802323066212379</v>
+        <f t="shared" si="0"/>
+        <v>0.53499231588412077</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
@@ -2201,2388 +2200,2388 @@
         <v>15</v>
       </c>
       <c r="B15">
-        <f>EXP(-lambda*A15)*(4+COS(freq*A15))/5</f>
-        <v>0.91818672632457721</v>
+        <f t="shared" si="0"/>
+        <v>0.69048950632293205</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16">
-        <f t="shared" ref="A16:A79" si="1">A15+1</f>
+        <f t="shared" ref="A16:A79" si="2">A15+1</f>
         <v>16</v>
       </c>
       <c r="B16">
-        <f>EXP(-lambda*A16)*(4+COS(freq*A16))/5</f>
-        <v>0.97216433659146551</v>
+        <f t="shared" si="0"/>
+        <v>0.71732201972974297</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>17</v>
       </c>
       <c r="B17">
-        <f>EXP(-lambda*A17)*(4+COS(freq*A17))/5</f>
-        <v>0.79051650832763554</v>
+        <f t="shared" si="0"/>
+        <v>0.57231328347542443</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>18</v>
       </c>
       <c r="B18">
-        <f>EXP(-lambda*A18)*(4+COS(freq*A18))/5</f>
-        <v>0.60413279531948805</v>
+        <f t="shared" si="0"/>
+        <v>0.42914464656113516</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>19</v>
       </c>
       <c r="B19">
-        <f>EXP(-lambda*A19)*(4+COS(freq*A19))/5</f>
-        <v>0.64947600426052199</v>
+        <f t="shared" si="0"/>
+        <v>0.45267113497776501</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="B20">
-        <f>EXP(-lambda*A20)*(4+COS(freq*A20))/5</f>
-        <v>0.86731487869266444</v>
+        <f t="shared" si="0"/>
+        <v>0.59312317517360902</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>21</v>
       </c>
       <c r="B21">
-        <f>EXP(-lambda*A21)*(4+COS(freq*A21))/5</f>
-        <v>0.97877615810924967</v>
+        <f t="shared" si="0"/>
+        <v>0.65674970079775663</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>22</v>
       </c>
       <c r="B22">
-        <f>EXP(-lambda*A22)*(4+COS(freq*A22))/5</f>
-        <v>0.84107097967662714</v>
+        <f t="shared" si="0"/>
+        <v>0.55372936444335674</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>23</v>
       </c>
       <c r="B23">
-        <f>EXP(-lambda*A23)*(4+COS(freq*A23))/5</f>
-        <v>0.62913753993543087</v>
+        <f t="shared" si="0"/>
+        <v>0.40640487722624907</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>24</v>
       </c>
       <c r="B24">
-        <f>EXP(-lambda*A24)*(4+COS(freq*A24))/5</f>
-        <v>0.6121331154698233</v>
+        <f t="shared" si="0"/>
+        <v>0.38797843873101795</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>25</v>
       </c>
       <c r="B25">
-        <f>EXP(-lambda*A25)*(4+COS(freq*A25))/5</f>
-        <v>0.8103365232266867</v>
+        <f t="shared" si="0"/>
+        <v>0.50393617450249617</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>26</v>
       </c>
       <c r="B26">
-        <f>EXP(-lambda*A26)*(4+COS(freq*A26))/5</f>
-        <v>0.96980994634085604</v>
+        <f t="shared" si="0"/>
+        <v>0.59175939250739373</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>27</v>
       </c>
       <c r="B27">
-        <f>EXP(-lambda*A27)*(4+COS(freq*A27))/5</f>
-        <v>0.88646635047077638</v>
+        <f t="shared" si="0"/>
+        <v>0.5307245598932937</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>28</v>
       </c>
       <c r="B28">
-        <f>EXP(-lambda*A28)*(4+COS(freq*A28))/5</f>
-        <v>0.6659789755390213</v>
+        <f t="shared" si="0"/>
+        <v>0.39121532110882651</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>29</v>
       </c>
       <c r="B29">
-        <f>EXP(-lambda*A29)*(4+COS(freq*A29))/5</f>
-        <v>0.58853357982414112</v>
+        <f t="shared" si="0"/>
+        <v>0.33921495266539559</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>30</v>
       </c>
       <c r="B30">
-        <f>EXP(-lambda*A30)*(4+COS(freq*A30))/5</f>
-        <v>0.75152006862774601</v>
+        <f t="shared" si="0"/>
+        <v>0.4250037165022123</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>31</v>
       </c>
       <c r="B31">
-        <f>EXP(-lambda*A31)*(4+COS(freq*A31))/5</f>
-        <v>0.94582192429016509</v>
+        <f t="shared" si="0"/>
+        <v>0.52481945626812165</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>32</v>
       </c>
       <c r="B32">
-        <f>EXP(-lambda*A32)*(4+COS(freq*A32))/5</f>
-        <v>0.92284531638829592</v>
+        <f t="shared" si="0"/>
+        <v>0.50243266581678969</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>33</v>
       </c>
       <c r="B33">
-        <f>EXP(-lambda*A33)*(4+COS(freq*A33))/5</f>
-        <v>0.71130921192896257</v>
+        <f t="shared" si="0"/>
+        <v>0.37997567309139701</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>34</v>
       </c>
       <c r="B34">
-        <f>EXP(-lambda*A34)*(4+COS(freq*A34))/5</f>
-        <v>0.58010302765643595</v>
+        <f t="shared" si="0"/>
+        <v>0.30405412297323375</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>35</v>
       </c>
       <c r="B35">
-        <f>EXP(-lambda*A35)*(4+COS(freq*A35))/5</f>
-        <v>0.69523873569080497</v>
+        <f t="shared" si="0"/>
+        <v>0.35754287720200895</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>36</v>
       </c>
       <c r="B36">
-        <f>EXP(-lambda*A36)*(4+COS(freq*A36))/5</f>
-        <v>0.90855535926733599</v>
+        <f t="shared" si="0"/>
+        <v>0.4584521025874353</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>37</v>
       </c>
       <c r="B37">
-        <f>EXP(-lambda*A37)*(4+COS(freq*A37))/5</f>
-        <v>0.94710538062804728</v>
+        <f t="shared" si="0"/>
+        <v>0.46890977164108422</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>38</v>
       </c>
       <c r="B38">
-        <f>EXP(-lambda*A38)*(4+COS(freq*A38))/5</f>
-        <v>0.76114216090301379</v>
+        <f t="shared" si="0"/>
+        <v>0.36974742907952929</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>39</v>
       </c>
       <c r="B39">
-        <f>EXP(-lambda*A39)*(4+COS(freq*A39))/5</f>
-        <v>0.58705174079661493</v>
+        <f t="shared" si="0"/>
+        <v>0.27981060410885461</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>40</v>
       </c>
       <c r="B40">
-        <f>EXP(-lambda*A40)*(4+COS(freq*A40))/5</f>
-        <v>0.64562276714282918</v>
+        <f t="shared" si="0"/>
+        <v>0.30193609270593752</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>41</v>
       </c>
       <c r="B41">
-        <f>EXP(-lambda*A41)*(4+COS(freq*A41))/5</f>
-        <v>0.86079052546358048</v>
+        <f t="shared" si="0"/>
+        <v>0.39498634025999185</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>42</v>
       </c>
       <c r="B42">
-        <f>EXP(-lambda*A42)*(4+COS(freq*A42))/5</f>
-        <v>0.95713732341421098</v>
+        <f t="shared" si="0"/>
+        <v>0.43093052180448976</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>43</v>
       </c>
       <c r="B43">
-        <f>EXP(-lambda*A43)*(4+COS(freq*A43))/5</f>
-        <v>0.81117592371743119</v>
+        <f t="shared" si="0"/>
+        <v>0.35834096615373967</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>44</v>
       </c>
       <c r="B44">
-        <f>EXP(-lambda*A44)*(4+COS(freq*A44))/5</f>
-        <v>0.60837006519549619</v>
+        <f t="shared" si="0"/>
+        <v>0.26369242224363632</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>45</v>
       </c>
       <c r="B45">
-        <f>EXP(-lambda*A45)*(4+COS(freq*A45))/5</f>
-        <v>0.60623436309115974</v>
+        <f t="shared" si="0"/>
+        <v>0.25782128447913844</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>46</v>
       </c>
       <c r="B46">
-        <f>EXP(-lambda*A46)*(4+COS(freq*A46))/5</f>
-        <v>0.80611393829812616</v>
+        <f t="shared" si="0"/>
+        <v>0.33637449076952586</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>47</v>
       </c>
       <c r="B47">
-        <f>EXP(-lambda*A47)*(4+COS(freq*A47))/5</f>
-        <v>0.95198254477359401</v>
+        <f t="shared" si="0"/>
+        <v>0.38976605466459036</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>48</v>
       </c>
       <c r="B48">
-        <f>EXP(-lambda*A48)*(4+COS(freq*A48))/5</f>
-        <v>0.85713701044602608</v>
+        <f t="shared" si="0"/>
+        <v>0.34432906277728204</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>49</v>
       </c>
       <c r="B49">
-        <f>EXP(-lambda*A49)*(4+COS(freq*A49))/5</f>
-        <v>0.64192059428707915</v>
+        <f t="shared" si="0"/>
+        <v>0.25301900668154509</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>50</v>
       </c>
       <c r="B50">
-        <f>EXP(-lambda*A50)*(4+COS(freq*A50))/5</f>
-        <v>0.57979088935110734</v>
+        <f t="shared" si="0"/>
+        <v>0.22422892193724273</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>51</v>
       </c>
       <c r="B51">
-        <f>EXP(-lambda*A51)*(4+COS(freq*A51))/5</f>
-        <v>0.74862596051257202</v>
+        <f t="shared" si="0"/>
+        <v>0.28407533686070718</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>52</v>
       </c>
       <c r="B52">
-        <f>EXP(-lambda*A52)*(4+COS(freq*A52))/5</f>
-        <v>0.93189761257317816</v>
+        <f t="shared" si="0"/>
+        <v>0.34696466711857715</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>53</v>
       </c>
       <c r="B53">
-        <f>EXP(-lambda*A53)*(4+COS(freq*A53))/5</f>
-        <v>0.895118881887632</v>
+        <f t="shared" si="0"/>
+        <v>0.32699881216855881</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>54</v>
       </c>
       <c r="B54">
-        <f>EXP(-lambda*A54)*(4+COS(freq*A54))/5</f>
-        <v>0.68461885126183775</v>
+        <f t="shared" si="0"/>
+        <v>0.24539330793752967</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>55</v>
       </c>
       <c r="B55">
-        <f>EXP(-lambda*A55)*(4+COS(freq*A55))/5</f>
-        <v>0.56795782431046016</v>
+        <f t="shared" si="0"/>
+        <v>0.1997461205617542</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>56</v>
       </c>
       <c r="B56">
-        <f>EXP(-lambda*A56)*(4+COS(freq*A56))/5</f>
-        <v>0.69261057625911349</v>
+        <f t="shared" si="0"/>
+        <v>0.23900103972191791</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>57</v>
       </c>
       <c r="B57">
-        <f>EXP(-lambda*A57)*(4+COS(freq*A57))/5</f>
-        <v>0.89832182132061877</v>
+        <f t="shared" si="0"/>
+        <v>0.30415224432191723</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>58</v>
       </c>
       <c r="B58">
-        <f>EXP(-lambda*A58)*(4+COS(freq*A58))/5</f>
-        <v>0.92188802854151208</v>
+        <f t="shared" si="0"/>
+        <v>0.30625674070546033</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>59</v>
       </c>
       <c r="B59">
-        <f>EXP(-lambda*A59)*(4+COS(freq*A59))/5</f>
-        <v>0.73268726391674976</v>
+        <f t="shared" si="0"/>
+        <v>0.23882210843437163</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>60</v>
       </c>
       <c r="B60">
-        <f>EXP(-lambda*A60)*(4+COS(freq*A60))/5</f>
-        <v>0.57122716704243037</v>
+        <f t="shared" si="0"/>
+        <v>0.18268931379840853</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>61</v>
       </c>
       <c r="B61">
-        <f>EXP(-lambda*A61)*(4+COS(freq*A61))/5</f>
-        <v>0.64219389223873125</v>
+        <f t="shared" si="0"/>
+        <v>0.20152033026773614</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>62</v>
       </c>
       <c r="B62">
-        <f>EXP(-lambda*A62)*(4+COS(freq*A62))/5</f>
-        <v>0.85375129895189128</v>
+        <f t="shared" si="0"/>
+        <v>0.26286482649466203</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>63</v>
       </c>
       <c r="B63">
-        <f>EXP(-lambda*A63)*(4+COS(freq*A63))/5</f>
-        <v>0.93513364157864165</v>
+        <f t="shared" si="0"/>
+        <v>0.28250307945267816</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>64</v>
       </c>
       <c r="B64">
-        <f>EXP(-lambda*A64)*(4+COS(freq*A64))/5</f>
-        <v>0.78196156590485955</v>
+        <f t="shared" si="0"/>
+        <v>0.23178392753888194</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>65</v>
       </c>
       <c r="B65">
-        <f>EXP(-lambda*A65)*(4+COS(freq*A65))/5</f>
-        <v>0.58889009696904859</v>
+        <f t="shared" ref="B65:B128" si="3">EXP(-lambda*A65)*(4+COS(freq*A65))/5</f>
+        <v>0.17126971141277431</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>66</v>
       </c>
       <c r="B66">
-        <f>EXP(-lambda*A66)*(4+COS(freq*A66))/5</f>
-        <v>0.60101855447682262</v>
+        <f t="shared" si="3"/>
+        <v>0.17150729578683149</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>67</v>
       </c>
       <c r="B67">
-        <f>EXP(-lambda*A67)*(4+COS(freq*A67))/5</f>
-        <v>0.80153057316395748</v>
+        <f t="shared" si="3"/>
+        <v>0.2244208572902083</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>68</v>
       </c>
       <c r="B68">
-        <f>EXP(-lambda*A68)*(4+COS(freq*A68))/5</f>
-        <v>0.93364164141566075</v>
+        <f t="shared" si="3"/>
+        <v>0.25649077089220573</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>69</v>
       </c>
       <c r="B69">
-        <f>EXP(-lambda*A69)*(4+COS(freq*A69))/5</f>
-        <v>0.82822480909722673</v>
+        <f t="shared" si="3"/>
+        <v>0.22324830472371673</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>70</v>
       </c>
       <c r="B70">
-        <f>EXP(-lambda*A70)*(4+COS(freq*A70))/5</f>
-        <v>0.61910511498946375</v>
+        <f t="shared" si="3"/>
+        <v>0.16373922526912593</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>71</v>
       </c>
       <c r="B71">
-        <f>EXP(-lambda*A71)*(4+COS(freq*A71))/5</f>
-        <v>0.57195973688961232</v>
+        <f t="shared" si="3"/>
+        <v>0.14842334042370314</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>72</v>
       </c>
       <c r="B72">
-        <f>EXP(-lambda*A72)*(4+COS(freq*A72))/5</f>
-        <v>0.74557894466350361</v>
+        <f t="shared" si="3"/>
+        <v>0.18983609149883141</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>73</v>
       </c>
       <c r="B73">
-        <f>EXP(-lambda*A73)*(4+COS(freq*A73))/5</f>
-        <v>0.91738001834236038</v>
+        <f t="shared" si="3"/>
+        <v>0.22918322691841433</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>74</v>
       </c>
       <c r="B74">
-        <f>EXP(-lambda*A74)*(4+COS(freq*A74))/5</f>
-        <v>0.8675422294840992</v>
+        <f t="shared" si="3"/>
+        <v>0.21265352331159817</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A75">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>75</v>
       </c>
       <c r="B75">
-        <f>EXP(-lambda*A75)*(4+COS(freq*A75))/5</f>
-        <v>0.6590553133109387</v>
+        <f t="shared" si="3"/>
+        <v>0.15850838057370628</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A76">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>76</v>
       </c>
       <c r="B76">
-        <f>EXP(-lambda*A76)*(4+COS(freq*A76))/5</f>
-        <v>0.55690480640920115</v>
+        <f t="shared" si="3"/>
+        <v>0.13141947691514633</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A77">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>77</v>
       </c>
       <c r="B77">
-        <f>EXP(-lambda*A77)*(4+COS(freq*A77))/5</f>
-        <v>0.6900740110575313</v>
+        <f t="shared" si="3"/>
+        <v>0.15978015741332485</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A78">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>78</v>
       </c>
       <c r="B78">
-        <f>EXP(-lambda*A78)*(4+COS(freq*A78))/5</f>
-        <v>0.88748960126007914</v>
+        <f t="shared" si="3"/>
+        <v>0.20162243291585419</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A79">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>79</v>
       </c>
       <c r="B79">
-        <f>EXP(-lambda*A79)*(4+COS(freq*A79))/5</f>
-        <v>0.89657040760989459</v>
+        <f t="shared" si="3"/>
+        <v>0.1998519467283201</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A80">
-        <f t="shared" ref="A80:A143" si="2">A79+1</f>
+        <f t="shared" ref="A80:A143" si="4">A79+1</f>
         <v>80</v>
       </c>
       <c r="B80">
-        <f>EXP(-lambda*A80)*(4+COS(freq*A80))/5</f>
-        <v>0.70518141768401166</v>
+        <f t="shared" si="3"/>
+        <v>0.15423155850530809</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A81">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>81</v>
       </c>
       <c r="B81">
-        <f>EXP(-lambda*A81)*(4+COS(freq*A81))/5</f>
-        <v>0.55661350076572713</v>
+        <f t="shared" si="3"/>
+        <v>0.11944680246224644</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A82">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>82</v>
       </c>
       <c r="B82">
-        <f>EXP(-lambda*A82)*(4+COS(freq*A82))/5</f>
-        <v>0.63911786018483696</v>
+        <f t="shared" si="3"/>
+        <v>0.13457058838841912</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A83">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>83</v>
       </c>
       <c r="B83">
-        <f>EXP(-lambda*A83)*(4+COS(freq*A83))/5</f>
-        <v>0.84618192745587772</v>
+        <f t="shared" si="3"/>
+        <v>0.17481606792447241</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A84">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>84</v>
       </c>
       <c r="B84">
-        <f>EXP(-lambda*A84)*(4+COS(freq*A84))/5</f>
-        <v>0.91281646691235685</v>
+        <f t="shared" si="3"/>
+        <v>0.18503312042624454</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A85">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>85</v>
       </c>
       <c r="B85">
-        <f>EXP(-lambda*A85)*(4+COS(freq*A85))/5</f>
-        <v>0.7534713708741485</v>
+        <f t="shared" si="3"/>
+        <v>0.14985842611112285</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A86">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>86</v>
       </c>
       <c r="B86">
-        <f>EXP(-lambda*A86)*(4+COS(freq*A86))/5</f>
-        <v>0.57066890389617997</v>
+        <f t="shared" si="3"/>
+        <v>0.11136456494248173</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A87">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>87</v>
       </c>
       <c r="B87">
-        <f>EXP(-lambda*A87)*(4+COS(freq*A87))/5</f>
-        <v>0.59641257185913121</v>
+        <f t="shared" si="3"/>
+        <v>0.11419787190539925</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A88">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>88</v>
       </c>
       <c r="B88">
-        <f>EXP(-lambda*A88)*(4+COS(freq*A88))/5</f>
-        <v>0.79655323537155398</v>
+        <f t="shared" si="3"/>
+        <v>0.14964921126316411</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A89">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>89</v>
       </c>
       <c r="B89">
-        <f>EXP(-lambda*A89)*(4+COS(freq*A89))/5</f>
-        <v>0.91482725603840842</v>
+        <f t="shared" si="3"/>
+        <v>0.16863477070381766</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A90">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>90</v>
       </c>
       <c r="B90">
-        <f>EXP(-lambda*A90)*(4+COS(freq*A90))/5</f>
-        <v>0.79978293457056804</v>
+        <f t="shared" si="3"/>
+        <v>0.14465337438275366</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A91">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>91</v>
       </c>
       <c r="B91">
-        <f>EXP(-lambda*A91)*(4+COS(freq*A91))/5</f>
-        <v>0.59752220254091726</v>
+        <f t="shared" si="3"/>
+        <v>0.10603735547583489</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A92">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>92</v>
       </c>
       <c r="B92">
-        <f>EXP(-lambda*A92)*(4+COS(freq*A92))/5</f>
-        <v>0.56497066389635109</v>
+        <f t="shared" si="3"/>
+        <v>9.8373731044811882E-2</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A93">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>93</v>
       </c>
       <c r="B93">
-        <f>EXP(-lambda*A93)*(4+COS(freq*A93))/5</f>
-        <v>0.7423301629126049</v>
+        <f t="shared" si="3"/>
+        <v>0.12682321485453055</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A94">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>94</v>
       </c>
       <c r="B94">
-        <f>EXP(-lambda*A94)*(4+COS(freq*A94))/5</f>
-        <v>0.90229421210949101</v>
+        <f t="shared" si="3"/>
+        <v>0.15125099030843253</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A95">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>95</v>
       </c>
       <c r="B95">
-        <f>EXP(-lambda*A95)*(4+COS(freq*A95))/5</f>
-        <v>0.84017340305589028</v>
+        <f t="shared" si="3"/>
+        <v>0.13818706389819643</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A96">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>96</v>
       </c>
       <c r="B96">
-        <f>EXP(-lambda*A96)*(4+COS(freq*A96))/5</f>
-        <v>0.63462674227306792</v>
+        <f t="shared" si="3"/>
+        <v>0.10241539249288063</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A97">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>97</v>
       </c>
       <c r="B97">
-        <f>EXP(-lambda*A97)*(4+COS(freq*A97))/5</f>
-        <v>0.54688309259008383</v>
+        <f t="shared" si="3"/>
+        <v>8.6594391906100826E-2</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A98">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>98</v>
       </c>
       <c r="B98">
-        <f>EXP(-lambda*A98)*(4+COS(freq*A98))/5</f>
-        <v>0.68756799365610932</v>
+        <f t="shared" si="3"/>
+        <v>0.10682166102142801</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A99">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>99</v>
       </c>
       <c r="B99">
-        <f>EXP(-lambda*A99)*(4+COS(freq*A99))/5</f>
-        <v>0.87606642963116987</v>
+        <f t="shared" si="3"/>
+        <v>0.13354545689558869</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A100">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>100</v>
       </c>
       <c r="B100">
-        <f>EXP(-lambda*A100)*(4+COS(freq*A100))/5</f>
-        <v>0.87121021586582081</v>
+        <f t="shared" si="3"/>
+        <v>0.13030570903970465</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A101">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>101</v>
       </c>
       <c r="B101">
-        <f>EXP(-lambda*A101)*(4+COS(freq*A101))/5</f>
-        <v>0.67864986551615603</v>
+        <f t="shared" si="3"/>
+        <v>9.9594339692611972E-2</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A102">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>102</v>
       </c>
       <c r="B102">
-        <f>EXP(-lambda*A102)*(4+COS(freq*A102))/5</f>
-        <v>0.54316262950467875</v>
+        <f t="shared" si="3"/>
+        <v>7.8210880675283687E-2</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A103">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>103</v>
       </c>
       <c r="B103">
-        <f>EXP(-lambda*A103)*(4+COS(freq*A103))/5</f>
-        <v>0.63632584826626337</v>
+        <f t="shared" si="3"/>
+        <v>8.9901153487554258E-2</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A104">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>104</v>
       </c>
       <c r="B104">
-        <f>EXP(-lambda*A104)*(4+COS(freq*A104))/5</f>
-        <v>0.8380718122212969</v>
+        <f t="shared" si="3"/>
+        <v>0.11617571059983614</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A105">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>105</v>
       </c>
       <c r="B105">
-        <f>EXP(-lambda*A105)*(4+COS(freq*A105))/5</f>
-        <v>0.89023803195127527</v>
+        <f t="shared" si="3"/>
+        <v>0.12108452780399717</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A106">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>106</v>
       </c>
       <c r="B106">
-        <f>EXP(-lambda*A106)*(4+COS(freq*A106))/5</f>
-        <v>0.72574496160538149</v>
+        <f t="shared" si="3"/>
+        <v>9.6853416027492589E-2</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A107">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>107</v>
       </c>
       <c r="B107">
-        <f>EXP(-lambda*A107)*(4+COS(freq*A107))/5</f>
-        <v>0.55367428276301467</v>
+        <f t="shared" si="3"/>
+        <v>7.2499276071749497E-2</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A108">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>108</v>
       </c>
       <c r="B108">
-        <f>EXP(-lambda*A108)*(4+COS(freq*A108))/5</f>
-        <v>0.59234480361431907</v>
+        <f t="shared" si="3"/>
+        <v>7.6103092690937374E-2</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A109">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>109</v>
       </c>
       <c r="B109">
-        <f>EXP(-lambda*A109)*(4+COS(freq*A109))/5</f>
-        <v>0.79115347339063669</v>
+        <f t="shared" si="3"/>
+        <v>9.9732537068490765E-2</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A110">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>110</v>
       </c>
       <c r="B110">
-        <f>EXP(-lambda*A110)*(4+COS(freq*A110))/5</f>
-        <v>0.8955815230492179</v>
+        <f t="shared" si="3"/>
+        <v>0.11077191347699164</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A111">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>111</v>
       </c>
       <c r="B111">
-        <f>EXP(-lambda*A111)*(4+COS(freq*A111))/5</f>
-        <v>0.77186155973955617</v>
+        <f t="shared" si="3"/>
+        <v>9.3672551601856141E-2</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A112">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>112</v>
       </c>
       <c r="B112">
-        <f>EXP(-lambda*A112)*(4+COS(freq*A112))/5</f>
-        <v>0.5771574134088483</v>
+        <f t="shared" si="3"/>
+        <v>6.8725138053783136E-2</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A113">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>113</v>
       </c>
       <c r="B113">
-        <f>EXP(-lambda*A113)*(4+COS(freq*A113))/5</f>
-        <v>0.55875443144062298</v>
+        <f t="shared" si="3"/>
+        <v>6.5281590646899854E-2</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A114">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>114</v>
       </c>
       <c r="B114">
-        <f>EXP(-lambda*A114)*(4+COS(freq*A114))/5</f>
-        <v>0.73883520095295308</v>
+        <f t="shared" si="3"/>
+        <v>8.4696552073049935E-2</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A115">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>115</v>
       </c>
       <c r="B115">
-        <f>EXP(-lambda*A115)*(4+COS(freq*A115))/5</f>
-        <v>0.88666844698880565</v>
+        <f t="shared" si="3"/>
+        <v>9.9730457420069446E-2</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A116">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>116</v>
       </c>
       <c r="B116">
-        <f>EXP(-lambda*A116)*(4+COS(freq*A116))/5</f>
-        <v>0.81306849995087949</v>
+        <f t="shared" si="3"/>
+        <v>8.9730915292900962E-2</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A117">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>117</v>
       </c>
       <c r="B117">
-        <f>EXP(-lambda*A117)*(4+COS(freq*A117))/5</f>
-        <v>0.61133688092231453</v>
+        <f t="shared" si="3"/>
+        <v>6.6197862054146434E-2</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A118">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>118</v>
       </c>
       <c r="B118">
-        <f>EXP(-lambda*A118)*(4+COS(freq*A118))/5</f>
-        <v>0.53783074144821963</v>
+        <f t="shared" si="3"/>
+        <v>5.7142257468083199E-2</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A119">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>119</v>
       </c>
       <c r="B119">
-        <f>EXP(-lambda*A119)*(4+COS(freq*A119))/5</f>
-        <v>0.68503528651611123</v>
+        <f t="shared" si="3"/>
+        <v>7.141231618782462E-2</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A120">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>120</v>
       </c>
       <c r="B120">
-        <f>EXP(-lambda*A120)*(4+COS(freq*A120))/5</f>
-        <v>0.86406403604745063</v>
+        <f t="shared" si="3"/>
+        <v>8.838010447853907E-2</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A121">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>121</v>
       </c>
       <c r="B121">
-        <f>EXP(-lambda*A121)*(4+COS(freq*A121))/5</f>
-        <v>0.84586442870755296</v>
+        <f t="shared" si="3"/>
+        <v>8.4890237374870253E-2</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A122">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>122</v>
       </c>
       <c r="B122">
-        <f>EXP(-lambda*A122)*(4+COS(freq*A122))/5</f>
-        <v>0.65311351963916042</v>
+        <f t="shared" si="3"/>
+        <v>6.4312303449624117E-2</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A123">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>123</v>
       </c>
       <c r="B123">
-        <f>EXP(-lambda*A123)*(4+COS(freq*A123))/5</f>
-        <v>0.53082420931090035</v>
+        <f t="shared" si="3"/>
+        <v>5.1286671854645548E-2</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A124">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>124</v>
       </c>
       <c r="B124">
-        <f>EXP(-lambda*A124)*(4+COS(freq*A124))/5</f>
-        <v>0.63375192343094355</v>
+        <f t="shared" si="3"/>
+        <v>6.0078833404587272E-2</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A125">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>125</v>
       </c>
       <c r="B125">
-        <f>EXP(-lambda*A125)*(4+COS(freq*A125))/5</f>
-        <v>0.82941485623706568</v>
+        <f t="shared" si="3"/>
+        <v>7.7147599196626546E-2</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A126">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>126</v>
       </c>
       <c r="B126">
-        <f>EXP(-lambda*A126)*(4+COS(freq*A126))/5</f>
-        <v>0.86745112700652827</v>
+        <f t="shared" si="3"/>
+        <v>7.9166970483801613E-2</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A127">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>127</v>
       </c>
       <c r="B127">
-        <f>EXP(-lambda*A127)*(4+COS(freq*A127))/5</f>
-        <v>0.69881805441418277</v>
+        <f t="shared" si="3"/>
+        <v>6.2576537919629541E-2</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A128">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>128</v>
       </c>
       <c r="B128">
-        <f>EXP(-lambda*A128)*(4+COS(freq*A128))/5</f>
-        <v>0.53787082738212644</v>
+        <f t="shared" si="3"/>
+        <v>4.725783373500303E-2</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A129">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>129</v>
       </c>
       <c r="B129">
-        <f>EXP(-lambda*A129)*(4+COS(freq*A129))/5</f>
-        <v>0.58874539994876329</v>
+        <f t="shared" ref="B129:B192" si="5">EXP(-lambda*A129)*(4+COS(freq*A129))/5</f>
+        <v>5.0754172538499176E-2</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A130">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>130</v>
       </c>
       <c r="B130">
-        <f>EXP(-lambda*A130)*(4+COS(freq*A130))/5</f>
-        <v>0.78530748952833196</v>
+        <f t="shared" si="5"/>
+        <v>6.6425123274626713E-2</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A131">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>131</v>
       </c>
       <c r="B131">
-        <f>EXP(-lambda*A131)*(4+COS(freq*A131))/5</f>
-        <v>0.87594836941489151</v>
+        <f t="shared" si="5"/>
+        <v>7.2697511204327631E-2</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A132">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>132</v>
       </c>
       <c r="B132">
-        <f>EXP(-lambda*A132)*(4+COS(freq*A132))/5</f>
-        <v>0.74450769208670919</v>
+        <f t="shared" si="5"/>
+        <v>6.0625959986033116E-2</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A133">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>133</v>
       </c>
       <c r="B133">
-        <f>EXP(-lambda*A133)*(4+COS(freq*A133))/5</f>
-        <v>0.55799240453732746</v>
+        <f t="shared" si="5"/>
+        <v>4.4582675878481644E-2</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A134">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>134</v>
       </c>
       <c r="B134">
-        <f>EXP(-lambda*A134)*(4+COS(freq*A134))/5</f>
-        <v>0.55324231742637431</v>
+        <f t="shared" si="5"/>
+        <v>4.3371220220273524E-2</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A135">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>135</v>
       </c>
       <c r="B135">
-        <f>EXP(-lambda*A135)*(4+COS(freq*A135))/5</f>
-        <v>0.73505409120108023</v>
+        <f t="shared" si="5"/>
+        <v>5.6539759010658643E-2</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A136">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>136</v>
       </c>
       <c r="B136">
-        <f>EXP(-lambda*A136)*(4+COS(freq*A136))/5</f>
-        <v>0.87053386030789304</v>
+        <f t="shared" si="5"/>
+        <v>6.5700507895840171E-2</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A137">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>137</v>
       </c>
       <c r="B137">
-        <f>EXP(-lambda*A137)*(4+COS(freq*A137))/5</f>
-        <v>0.78628144826939406</v>
+        <f t="shared" si="5"/>
+        <v>5.8224999373689169E-2</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A138">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>138</v>
       </c>
       <c r="B138">
-        <f>EXP(-lambda*A138)*(4+COS(freq*A138))/5</f>
-        <v>0.58918520333208924</v>
+        <f t="shared" si="5"/>
+        <v>4.2808666530639708E-2</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A139">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>139</v>
       </c>
       <c r="B139">
-        <f>EXP(-lambda*A139)*(4+COS(freq*A139))/5</f>
-        <v>0.52968506607640342</v>
+        <f t="shared" si="5"/>
+        <v>3.776121867469124E-2</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A140">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>140</v>
       </c>
       <c r="B140">
-        <f>EXP(-lambda*A140)*(4+COS(freq*A140))/5</f>
-        <v>0.68242255243941341</v>
+        <f t="shared" si="5"/>
+        <v>4.7734244021585777E-2</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A141">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>141</v>
       </c>
       <c r="B141">
-        <f>EXP(-lambda*A141)*(4+COS(freq*A141))/5</f>
-        <v>0.85149789767342043</v>
+        <f t="shared" si="5"/>
+        <v>5.8439792202270004E-2</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A142">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>142</v>
       </c>
       <c r="B142">
-        <f>EXP(-lambda*A142)*(4+COS(freq*A142))/5</f>
-        <v>0.8205890217257753</v>
+        <f t="shared" si="5"/>
+        <v>5.5258512535377266E-2</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A143">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>143</v>
       </c>
       <c r="B143">
-        <f>EXP(-lambda*A143)*(4+COS(freq*A143))/5</f>
-        <v>0.6285890077308014</v>
+        <f t="shared" si="5"/>
+        <v>4.1532557482096902E-2</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A144">
-        <f t="shared" ref="A144:A207" si="3">A143+1</f>
+        <f t="shared" ref="A144:A207" si="6">A143+1</f>
         <v>144</v>
       </c>
       <c r="B144">
-        <f>EXP(-lambda*A144)*(4+COS(freq*A144))/5</f>
-        <v>0.51954597125861857</v>
+        <f t="shared" si="5"/>
+        <v>3.3681721381785948E-2</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A145">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>145</v>
       </c>
       <c r="B145">
-        <f>EXP(-lambda*A145)*(4+COS(freq*A145))/5</f>
-        <v>0.63133321395647635</v>
+        <f t="shared" si="5"/>
+        <v>4.0158486824106422E-2</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A146">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>146</v>
       </c>
       <c r="B146">
-        <f>EXP(-lambda*A146)*(4+COS(freq*A146))/5</f>
-        <v>0.82020927882863126</v>
+        <f t="shared" si="5"/>
+        <v>5.1190784508625631E-2</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A147">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>147</v>
       </c>
       <c r="B147">
-        <f>EXP(-lambda*A147)*(4+COS(freq*A147))/5</f>
-        <v>0.84450879081651764</v>
+        <f t="shared" si="5"/>
+        <v>5.1715376013712386E-2</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A148">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>148</v>
       </c>
       <c r="B148">
-        <f>EXP(-lambda*A148)*(4+COS(freq*A148))/5</f>
-        <v>0.67272241623521123</v>
+        <f t="shared" si="5"/>
+        <v>4.0420326404238024E-2</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A149">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>149</v>
       </c>
       <c r="B149">
-        <f>EXP(-lambda*A149)*(4+COS(freq*A149))/5</f>
-        <v>0.52322020261223834</v>
+        <f t="shared" si="5"/>
+        <v>3.0845855969615015E-2</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A150">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>150</v>
       </c>
       <c r="B150">
-        <f>EXP(-lambda*A150)*(4+COS(freq*A150))/5</f>
-        <v>0.58554651013804837</v>
+        <f t="shared" si="5"/>
+        <v>3.3870540219567119E-2</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A151">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>151</v>
       </c>
       <c r="B151">
-        <f>EXP(-lambda*A151)*(4+COS(freq*A151))/5</f>
-        <v>0.77899603443970267</v>
+        <f t="shared" si="5"/>
+        <v>4.4212429293133987E-2</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A152">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>152</v>
       </c>
       <c r="B152">
-        <f>EXP(-lambda*A152)*(4+COS(freq*A152))/5</f>
-        <v>0.85597319775075553</v>
+        <f t="shared" si="5"/>
+        <v>4.7666987131740467E-2</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A153">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>153</v>
       </c>
       <c r="B153">
-        <f>EXP(-lambda*A153)*(4+COS(freq*A153))/5</f>
-        <v>0.71776504577291556</v>
+        <f t="shared" si="5"/>
+        <v>3.9218253196873137E-2</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A154">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>154</v>
       </c>
       <c r="B154">
-        <f>EXP(-lambda*A154)*(4+COS(freq*A154))/5</f>
-        <v>0.5400051532392246</v>
+        <f t="shared" si="5"/>
+        <v>2.8950245454466166E-2</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A155">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>155</v>
       </c>
       <c r="B155">
-        <f>EXP(-lambda*A155)*(4+COS(freq*A155))/5</f>
-        <v>0.54836639970610923</v>
+        <f t="shared" si="5"/>
+        <v>2.8845202158575479E-2</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A156">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>156</v>
       </c>
       <c r="B156">
-        <f>EXP(-lambda*A156)*(4+COS(freq*A156))/5</f>
-        <v>0.73095129455873697</v>
+        <f t="shared" si="5"/>
+        <v>3.7725898784893734E-2</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A157">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>157</v>
       </c>
       <c r="B157">
-        <f>EXP(-lambda*A157)*(4+COS(freq*A157))/5</f>
-        <v>0.85392417410154076</v>
+        <f t="shared" si="5"/>
+        <v>4.3243304006731091E-2</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A158">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>158</v>
       </c>
       <c r="B158">
-        <f>EXP(-lambda*A158)*(4+COS(freq*A158))/5</f>
-        <v>0.75986380447633461</v>
+        <f t="shared" si="5"/>
+        <v>3.7755804013726732E-2</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A159">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>159</v>
       </c>
       <c r="B159">
-        <f>EXP(-lambda*A159)*(4+COS(freq*A159))/5</f>
-        <v>0.56816706350967094</v>
+        <f t="shared" si="5"/>
+        <v>2.7699531546509108E-2</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A160">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>160</v>
       </c>
       <c r="B160">
-        <f>EXP(-lambda*A160)*(4+COS(freq*A160))/5</f>
-        <v>0.5223829399163965</v>
+        <f t="shared" si="5"/>
+        <v>2.4988130204555294E-2</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A161">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>161</v>
       </c>
       <c r="B161">
-        <f>EXP(-lambda*A161)*(4+COS(freq*A161))/5</f>
-        <v>0.6796804239258617</v>
+        <f t="shared" si="5"/>
+        <v>3.1900533152229446E-2</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A162">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>162</v>
       </c>
       <c r="B162">
-        <f>EXP(-lambda*A162)*(4+COS(freq*A162))/5</f>
-        <v>0.83838698046357896</v>
+        <f t="shared" si="5"/>
+        <v>3.8608782805841554E-2</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A163">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>163</v>
       </c>
       <c r="B163">
-        <f>EXP(-lambda*A163)*(4+COS(freq*A163))/5</f>
-        <v>0.79543871041300507</v>
+        <f t="shared" si="5"/>
+        <v>3.5941542509268301E-2</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A164">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>164</v>
       </c>
       <c r="B164">
-        <f>EXP(-lambda*A164)*(4+COS(freq*A164))/5</f>
-        <v>0.60508873898903381</v>
+        <f t="shared" si="5"/>
+        <v>2.6826095415154731E-2</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A165">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>165</v>
       </c>
       <c r="B165">
-        <f>EXP(-lambda*A165)*(4+COS(freq*A165))/5</f>
-        <v>0.50927402532445598</v>
+        <f t="shared" si="5"/>
+        <v>2.2153294733271919E-2</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A166">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>166</v>
       </c>
       <c r="B166">
-        <f>EXP(-lambda*A166)*(4+COS(freq*A166))/5</f>
-        <v>0.62901005979998637</v>
+        <f t="shared" si="5"/>
+        <v>2.684681655578532E-2</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A167">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>167</v>
       </c>
       <c r="B167">
-        <f>EXP(-lambda*A167)*(4+COS(freq*A167))/5</f>
-        <v>0.81045741752106815</v>
+        <f t="shared" si="5"/>
+        <v>3.3940154137468502E-2</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A168">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>168</v>
       </c>
       <c r="B168">
-        <f>EXP(-lambda*A168)*(4+COS(freq*A168))/5</f>
-        <v>0.82146401333551711</v>
+        <f t="shared" si="5"/>
+        <v>3.3753635514810525E-2</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A169">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>169</v>
       </c>
       <c r="B169">
-        <f>EXP(-lambda*A169)*(4+COS(freq*A169))/5</f>
-        <v>0.64748584347588833</v>
+        <f t="shared" si="5"/>
+        <v>2.6104218509300968E-2</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A170">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>170</v>
       </c>
       <c r="B170">
-        <f>EXP(-lambda*A170)*(4+COS(freq*A170))/5</f>
-        <v>0.50968142196098276</v>
+        <f t="shared" si="5"/>
+        <v>2.0161722231690913E-2</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A171">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>171</v>
       </c>
       <c r="B171">
-        <f>EXP(-lambda*A171)*(4+COS(freq*A171))/5</f>
-        <v>0.58268250091144325</v>
+        <f t="shared" si="5"/>
+        <v>2.261565674293075E-2</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A172">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>172</v>
       </c>
       <c r="B172">
-        <f>EXP(-lambda*A172)*(4+COS(freq*A172))/5</f>
-        <v>0.77220428449039047</v>
+        <f t="shared" si="5"/>
+        <v>2.9407482013875285E-2</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A173">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>173</v>
       </c>
       <c r="B173">
-        <f>EXP(-lambda*A173)*(4+COS(freq*A173))/5</f>
-        <v>0.83570257589007468</v>
+        <f t="shared" si="5"/>
+        <v>3.1226677555269988E-2</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A174">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>174</v>
       </c>
       <c r="B174">
-        <f>EXP(-lambda*A174)*(4+COS(freq*A174))/5</f>
-        <v>0.69167393559041923</v>
+        <f t="shared" si="5"/>
+        <v>2.5358517083370585E-2</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A175">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>175</v>
       </c>
       <c r="B175">
-        <f>EXP(-lambda*A175)*(4+COS(freq*A175))/5</f>
-        <v>0.52317018654282821</v>
+        <f t="shared" si="5"/>
+        <v>1.8819749346647176E-2</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A176">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>176</v>
       </c>
       <c r="B176">
-        <f>EXP(-lambda*A176)*(4+COS(freq*A176))/5</f>
-        <v>0.54405982427792765</v>
+        <f t="shared" si="5"/>
+        <v>1.9202859724147418E-2</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A177">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>177</v>
       </c>
       <c r="B177">
-        <f>EXP(-lambda*A177)*(4+COS(freq*A177))/5</f>
-        <v>0.72649566201755456</v>
+        <f t="shared" si="5"/>
+        <v>2.5159423341676583E-2</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A178">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>178</v>
       </c>
       <c r="B178">
-        <f>EXP(-lambda*A178)*(4+COS(freq*A178))/5</f>
-        <v>0.83687539597701677</v>
+        <f t="shared" si="5"/>
+        <v>2.8436547157683328E-2</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A179">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>179</v>
       </c>
       <c r="B179">
-        <f>EXP(-lambda*A179)*(4+COS(freq*A179))/5</f>
-        <v>0.73386457147698203</v>
+        <f t="shared" si="5"/>
+        <v>2.4466981239411451E-2</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A180">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>180</v>
       </c>
       <c r="B180">
-        <f>EXP(-lambda*A180)*(4+COS(freq*A180))/5</f>
-        <v>0.54827385855351307</v>
+        <f t="shared" si="5"/>
+        <v>1.7935372926697148E-2</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A181">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>181</v>
       </c>
       <c r="B181">
-        <f>EXP(-lambda*A181)*(4+COS(freq*A181))/5</f>
-        <v>0.51586109277943515</v>
+        <f t="shared" si="5"/>
+        <v>1.6557472809691151E-2</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A182">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>182</v>
       </c>
       <c r="B182">
-        <f>EXP(-lambda*A182)*(4+COS(freq*A182))/5</f>
-        <v>0.6767635509973049</v>
+        <f t="shared" si="5"/>
+        <v>2.1313100954661428E-2</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A183">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>183</v>
       </c>
       <c r="B183">
-        <f>EXP(-lambda*A183)*(4+COS(freq*A183))/5</f>
-        <v>0.82475347470021787</v>
+        <f t="shared" si="5"/>
+        <v>2.5484859306427583E-2</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A184">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>184</v>
       </c>
       <c r="B184">
-        <f>EXP(-lambda*A184)*(4+COS(freq*A184))/5</f>
-        <v>0.77046670731321443</v>
+        <f t="shared" si="5"/>
+        <v>2.3359329266216328E-2</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A185">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>185</v>
       </c>
       <c r="B185">
-        <f>EXP(-lambda*A185)*(4+COS(freq*A185))/5</f>
-        <v>0.58262098859432498</v>
+        <f t="shared" si="5"/>
+        <v>1.7331694365625493E-2</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A186">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>186</v>
       </c>
       <c r="B186">
-        <f>EXP(-lambda*A186)*(4+COS(freq*A186))/5</f>
-        <v>0.49995316025622272</v>
+        <f t="shared" si="5"/>
+        <v>1.4592598010134966E-2</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A187">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>187</v>
       </c>
       <c r="B187">
-        <f>EXP(-lambda*A187)*(4+COS(freq*A187))/5</f>
-        <v>0.62672614176426955</v>
+        <f t="shared" si="5"/>
+        <v>1.7948556066539383E-2</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A188">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>188</v>
       </c>
       <c r="B188">
-        <f>EXP(-lambda*A188)*(4+COS(freq*A188))/5</f>
-        <v>0.8001655186454929</v>
+        <f t="shared" si="5"/>
+        <v>2.2484329605140348E-2</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A189">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>189</v>
       </c>
       <c r="B189">
-        <f>EXP(-lambda*A189)*(4+COS(freq*A189))/5</f>
-        <v>0.79836945159113093</v>
+        <f t="shared" si="5"/>
+        <v>2.2011641274076114E-2</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A190">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>190</v>
       </c>
       <c r="B190">
-        <f>EXP(-lambda*A190)*(4+COS(freq*A190))/5</f>
-        <v>0.62313216164316898</v>
+        <f t="shared" si="5"/>
+        <v>1.6856875814268917E-2</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A191">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>191</v>
       </c>
       <c r="B191">
-        <f>EXP(-lambda*A191)*(4+COS(freq*A191))/5</f>
-        <v>0.4972111272613523</v>
+        <f t="shared" si="5"/>
+        <v>1.3197332676825657E-2</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A192">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>192</v>
       </c>
       <c r="B192">
-        <f>EXP(-lambda*A192)*(4+COS(freq*A192))/5</f>
-        <v>0.58009015568319022</v>
+        <f t="shared" si="5"/>
+        <v>1.51073825100382E-2</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A193">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>193</v>
       </c>
       <c r="B193">
-        <f>EXP(-lambda*A193)*(4+COS(freq*A193))/5</f>
-        <v>0.7649217032597122</v>
+        <f t="shared" ref="B193:B256" si="7">EXP(-lambda*A193)*(4+COS(freq*A193))/5</f>
+        <v>1.9546055080545209E-2</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A194">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>194</v>
       </c>
       <c r="B194">
-        <f>EXP(-lambda*A194)*(4+COS(freq*A194))/5</f>
-        <v>0.81518393416307189</v>
+        <f t="shared" si="7"/>
+        <v>2.0438365039781144E-2</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A195">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>195</v>
       </c>
       <c r="B195">
-        <f>EXP(-lambda*A195)*(4+COS(freq*A195))/5</f>
-        <v>0.6662711924020247</v>
+        <f t="shared" si="7"/>
+        <v>1.6390416158885372E-2</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A196">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>196</v>
       </c>
       <c r="B196">
-        <f>EXP(-lambda*A196)*(4+COS(freq*A196))/5</f>
-        <v>0.50745881847667174</v>
+        <f t="shared" si="7"/>
+        <v>1.2248647978096858E-2</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A197">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>197</v>
       </c>
       <c r="B197">
-        <f>EXP(-lambda*A197)*(4+COS(freq*A197))/5</f>
-        <v>0.54025705786307787</v>
+        <f t="shared" si="7"/>
+        <v>1.2794879596527035E-2</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A198">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>198</v>
       </c>
       <c r="B198">
-        <f>EXP(-lambda*A198)*(4+COS(freq*A198))/5</f>
-        <v>0.72166037710935549</v>
+        <f t="shared" si="7"/>
+        <v>1.6769380537258551E-2</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A199">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>199</v>
       </c>
       <c r="B199">
-        <f>EXP(-lambda*A199)*(4+COS(freq*A199))/5</f>
-        <v>0.81942552177652028</v>
+        <f t="shared" si="7"/>
+        <v>1.8682803681153756E-2</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A200">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>200</v>
       </c>
       <c r="B200">
-        <f>EXP(-lambda*A200)*(4+COS(freq*A200))/5</f>
-        <v>0.70833003718628951</v>
+        <f t="shared" si="7"/>
+        <v>1.5845889660763772E-2</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A201">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>201</v>
       </c>
       <c r="B201">
-        <f>EXP(-lambda*A201)*(4+COS(freq*A201))/5</f>
-        <v>0.52949320493027241</v>
+        <f t="shared" si="7"/>
+        <v>1.1622238001394419E-2</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A202">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>202</v>
       </c>
       <c r="B202">
-        <f>EXP(-lambda*A202)*(4+COS(freq*A202))/5</f>
-        <v>0.51005639598897978</v>
+        <f t="shared" si="7"/>
+        <v>1.0984896677100509E-2</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A203">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>203</v>
       </c>
       <c r="B203">
-        <f>EXP(-lambda*A203)*(4+COS(freq*A203))/5</f>
-        <v>0.67363062812869801</v>
+        <f t="shared" si="7"/>
+        <v>1.4234689829513902E-2</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A204">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>204</v>
       </c>
       <c r="B204">
-        <f>EXP(-lambda*A204)*(4+COS(freq*A204))/5</f>
-        <v>0.8106225263370449</v>
+        <f t="shared" si="7"/>
+        <v>1.6807118274995075E-2</v>
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A205">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>205</v>
       </c>
       <c r="B205">
-        <f>EXP(-lambda*A205)*(4+COS(freq*A205))/5</f>
-        <v>0.74572449706195687</v>
+        <f t="shared" si="7"/>
+        <v>1.5170552679643384E-2</v>
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A206">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>206</v>
       </c>
       <c r="B206">
-        <f>EXP(-lambda*A206)*(4+COS(freq*A206))/5</f>
-        <v>0.56118999938619585</v>
+        <f t="shared" si="7"/>
+        <v>1.1201632515778607E-2</v>
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A207">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>207</v>
       </c>
       <c r="B207">
-        <f>EXP(-lambda*A207)*(4+COS(freq*A207))/5</f>
-        <v>0.4915271381256871</v>
+        <f t="shared" si="7"/>
+        <v>9.6264753637043989E-3</v>
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A208">
-        <f t="shared" ref="A208:A253" si="4">A207+1</f>
+        <f t="shared" ref="A208:A253" si="8">A207+1</f>
         <v>208</v>
       </c>
       <c r="B208">
-        <f>EXP(-lambda*A208)*(4+COS(freq*A208))/5</f>
-        <v>0.62442858971099813</v>
+        <f t="shared" si="7"/>
+        <v>1.1999163932710536E-2</v>
       </c>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A209">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>209</v>
       </c>
       <c r="B209">
-        <f>EXP(-lambda*A209)*(4+COS(freq*A209))/5</f>
-        <v>0.78934351815684578</v>
+        <f t="shared" si="7"/>
+        <v>1.4882731934816606E-2</v>
       </c>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A210">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>210</v>
       </c>
       <c r="B210">
-        <f>EXP(-lambda*A210)*(4+COS(freq*A210))/5</f>
-        <v>0.77527715944141073</v>
+        <f t="shared" si="7"/>
+        <v>1.4342405813291621E-2</v>
       </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A211">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>211</v>
       </c>
       <c r="B211">
-        <f>EXP(-lambda*A211)*(4+COS(freq*A211))/5</f>
-        <v>0.5996812448781117</v>
+        <f t="shared" si="7"/>
+        <v>1.0885136725442505E-2</v>
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A212">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>212</v>
       </c>
       <c r="B212">
-        <f>EXP(-lambda*A212)*(4+COS(freq*A212))/5</f>
-        <v>0.48576386896474116</v>
+        <f t="shared" si="7"/>
+        <v>8.6514128208910919E-3</v>
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A213">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>213</v>
       </c>
       <c r="B213">
-        <f>EXP(-lambda*A213)*(4+COS(freq*A213))/5</f>
-        <v>0.57770885443746522</v>
+        <f t="shared" si="7"/>
+        <v>1.0095300612943016E-2</v>
       </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A214">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>214</v>
       </c>
       <c r="B214">
-        <f>EXP(-lambda*A214)*(4+COS(freq*A214))/5</f>
-        <v>0.75714188849715769</v>
+        <f t="shared" si="7"/>
+        <v>1.2981829788004901E-2</v>
       </c>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A215">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>215</v>
       </c>
       <c r="B215">
-        <f>EXP(-lambda*A215)*(4+COS(freq*A215))/5</f>
-        <v>0.79446527152710322</v>
+        <f t="shared" si="7"/>
+        <v>1.3365399944595152E-2</v>
       </c>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A216">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>216</v>
       </c>
       <c r="B216">
-        <f>EXP(-lambda*A216)*(4+COS(freq*A216))/5</f>
-        <v>0.64159009958115276</v>
+        <f t="shared" si="7"/>
+        <v>1.0590417953108545E-2</v>
       </c>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A217">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>217</v>
       </c>
       <c r="B217">
-        <f>EXP(-lambda*A217)*(4+COS(freq*A217))/5</f>
-        <v>0.49283939380032543</v>
+        <f t="shared" si="7"/>
+        <v>7.9819548309159691E-3</v>
       </c>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A218">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>218</v>
       </c>
       <c r="B218">
-        <f>EXP(-lambda*A218)*(4+COS(freq*A218))/5</f>
-        <v>0.53689412426637029</v>
+        <f t="shared" si="7"/>
+        <v>8.5318047298875953E-3</v>
       </c>
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A219">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>219</v>
       </c>
       <c r="B219">
-        <f>EXP(-lambda*A219)*(4+COS(freq*A219))/5</f>
-        <v>0.71642288025725909</v>
+        <f t="shared" si="7"/>
+        <v>1.1170435576159946E-2</v>
       </c>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A220">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>220</v>
       </c>
       <c r="B220">
-        <f>EXP(-lambda*A220)*(4+COS(freq*A220))/5</f>
-        <v>0.80161424139541548</v>
+        <f t="shared" si="7"/>
+        <v>1.2263501537582691E-2</v>
       </c>
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A221">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>221</v>
       </c>
       <c r="B221">
-        <f>EXP(-lambda*A221)*(4+COS(freq*A221))/5</f>
-        <v>0.68330363352077605</v>
+        <f t="shared" si="7"/>
+        <v>1.0256783785274762E-2</v>
       </c>
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A222">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>222</v>
       </c>
       <c r="B222">
-        <f>EXP(-lambda*A222)*(4+COS(freq*A222))/5</f>
-        <v>0.51180912646275589</v>
+        <f t="shared" si="7"/>
+        <v>7.5379612608852051E-3</v>
       </c>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A223">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>223</v>
       </c>
       <c r="B223">
-        <f>EXP(-lambda*A223)*(4+COS(freq*A223))/5</f>
-        <v>0.50490613569484644</v>
+        <f t="shared" si="7"/>
+        <v>7.2963377346675542E-3</v>
       </c>
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A224">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>224</v>
       </c>
       <c r="B224">
-        <f>EXP(-lambda*A224)*(4+COS(freq*A224))/5</f>
-        <v>0.67024440100242988</v>
+        <f t="shared" si="7"/>
+        <v>9.503331520372419E-3</v>
       </c>
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A225">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>225</v>
       </c>
       <c r="B225">
-        <f>EXP(-lambda*A225)*(4+COS(freq*A225))/5</f>
-        <v>0.79602196561431116</v>
+        <f t="shared" si="7"/>
+        <v>1.1074296366970786E-2</v>
       </c>
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A226">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>226</v>
       </c>
       <c r="B226">
-        <f>EXP(-lambda*A226)*(4+COS(freq*A226))/5</f>
-        <v>0.72126162966199692</v>
+        <f t="shared" si="7"/>
+        <v>9.845376380716999E-3</v>
       </c>
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A227">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>227</v>
       </c>
       <c r="B227">
-        <f>EXP(-lambda*A227)*(4+COS(freq*A227))/5</f>
-        <v>0.5407960995393587</v>
+        <f t="shared" si="7"/>
+        <v>7.2430494488491485E-3</v>
       </c>
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A228">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>228</v>
       </c>
       <c r="B228">
-        <f>EXP(-lambda*A228)*(4+COS(freq*A228))/5</f>
-        <v>0.48393898234007693</v>
+        <f t="shared" si="7"/>
+        <v>6.3595576892862228E-3</v>
       </c>
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A229">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>229</v>
       </c>
       <c r="B229">
-        <f>EXP(-lambda*A229)*(4+COS(freq*A229))/5</f>
-        <v>0.62206807014463661</v>
+        <f t="shared" si="7"/>
+        <v>8.0208910907841498E-3</v>
       </c>
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A230">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>230</v>
       </c>
       <c r="B230">
-        <f>EXP(-lambda*A230)*(4+COS(freq*A230))/5</f>
-        <v>0.7780048141184166</v>
+        <f t="shared" si="7"/>
+        <v>9.8427260664783345E-3</v>
       </c>
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A231">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>231</v>
       </c>
       <c r="B231">
-        <f>EXP(-lambda*A231)*(4+COS(freq*A231))/5</f>
-        <v>0.75223833196092149</v>
+        <f t="shared" si="7"/>
+        <v>9.3376368334563264E-3</v>
       </c>
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A232">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>232</v>
       </c>
       <c r="B232">
-        <f>EXP(-lambda*A232)*(4+COS(freq*A232))/5</f>
-        <v>0.57714905447211085</v>
+        <f t="shared" si="7"/>
+        <v>7.0293944194682375E-3</v>
       </c>
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A233">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>233</v>
       </c>
       <c r="B233">
-        <f>EXP(-lambda*A233)*(4+COS(freq*A233))/5</f>
-        <v>0.47529238565069842</v>
+        <f t="shared" si="7"/>
+        <v>5.6798803274519839E-3</v>
       </c>
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A234">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>234</v>
       </c>
       <c r="B234">
-        <f>EXP(-lambda*A234)*(4+COS(freq*A234))/5</f>
-        <v>0.57548073417621592</v>
+        <f t="shared" si="7"/>
+        <v>6.7477272935088052E-3</v>
       </c>
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A235">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>235</v>
       </c>
       <c r="B235">
-        <f>EXP(-lambda*A235)*(4+COS(freq*A235))/5</f>
-        <v>0.74886240586193331</v>
+        <f t="shared" si="7"/>
+        <v>8.6154341455360831E-3</v>
       </c>
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A236">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>236</v>
       </c>
       <c r="B236">
-        <f>EXP(-lambda*A236)*(4+COS(freq*A236))/5</f>
-        <v>0.77359487159982543</v>
+        <f t="shared" si="7"/>
+        <v>8.7324704593321218E-3</v>
       </c>
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A237">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>237</v>
       </c>
       <c r="B237">
-        <f>EXP(-lambda*A237)*(4+COS(freq*A237))/5</f>
-        <v>0.61766034988554641</v>
+        <f t="shared" si="7"/>
+        <v>6.8410327749081051E-3</v>
       </c>
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A238">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>238</v>
       </c>
       <c r="B238">
-        <f>EXP(-lambda*A238)*(4+COS(freq*A238))/5</f>
-        <v>0.47927753671928208</v>
+        <f t="shared" si="7"/>
+        <v>5.2084371430343255E-3</v>
       </c>
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A239">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>239</v>
       </c>
       <c r="B239">
-        <f>EXP(-lambda*A239)*(4+COS(freq*A239))/5</f>
-        <v>0.53390882402555895</v>
+        <f t="shared" si="7"/>
+        <v>5.6929301637602178E-3</v>
       </c>
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A240">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>240</v>
       </c>
       <c r="B240">
-        <f>EXP(-lambda*A240)*(4+COS(freq*A240))/5</f>
-        <v>0.71076477612725997</v>
+        <f t="shared" si="7"/>
+        <v>7.4360629827549471E-3</v>
       </c>
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A241">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>241</v>
       </c>
       <c r="B241">
-        <f>EXP(-lambda*A241)*(4+COS(freq*A241))/5</f>
-        <v>0.78348264904391773</v>
+        <f t="shared" si="7"/>
+        <v>8.042571867899341E-3</v>
       </c>
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A242">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>242</v>
       </c>
       <c r="B242">
-        <f>EXP(-lambda*A242)*(4+COS(freq*A242))/5</f>
-        <v>0.65882581564605569</v>
+        <f t="shared" si="7"/>
+        <v>6.6356669546168562E-3</v>
       </c>
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A243">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>243</v>
       </c>
       <c r="B243">
-        <f>EXP(-lambda*A243)*(4+COS(freq*A243))/5</f>
-        <v>0.49520225262135592</v>
+        <f t="shared" si="7"/>
+        <v>4.8937861625742733E-3</v>
       </c>
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A244">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>244</v>
       </c>
       <c r="B244">
-        <f>EXP(-lambda*A244)*(4+COS(freq*A244))/5</f>
-        <v>0.50034827350477595</v>
+        <f t="shared" si="7"/>
+        <v>4.851579892599431E-3</v>
       </c>
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A245">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>245</v>
       </c>
       <c r="B245">
-        <f>EXP(-lambda*A245)*(4+COS(freq*A245))/5</f>
-        <v>0.66657165387058459</v>
+        <f t="shared" si="7"/>
+        <v>6.3417048844769518E-3</v>
       </c>
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A246">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>246</v>
       </c>
       <c r="B246">
-        <f>EXP(-lambda*A246)*(4+COS(freq*A246))/5</f>
-        <v>0.7809820343644297</v>
+        <f t="shared" si="7"/>
+        <v>7.2903543039212204E-3</v>
       </c>
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A247">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>247</v>
       </c>
       <c r="B247">
-        <f>EXP(-lambda*A247)*(4+COS(freq*A247))/5</f>
-        <v>0.69712553223687135</v>
+        <f t="shared" si="7"/>
+        <v>6.3850894461696768E-3</v>
       </c>
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A248">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>248</v>
       </c>
       <c r="B248">
-        <f>EXP(-lambda*A248)*(4+COS(freq*A248))/5</f>
-        <v>0.52143583499741741</v>
+        <f t="shared" si="7"/>
+        <v>4.6860322747985187E-3</v>
       </c>
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A249">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>249</v>
       </c>
       <c r="B249">
-        <f>EXP(-lambda*A249)*(4+COS(freq*A249))/5</f>
-        <v>0.47713125796950384</v>
+        <f t="shared" si="7"/>
+        <v>4.207175950376482E-3</v>
       </c>
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A250">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>250</v>
       </c>
       <c r="B250">
-        <f>EXP(-lambda*A250)*(4+COS(freq*A250))/5</f>
-        <v>0.61959885357763</v>
+        <f t="shared" si="7"/>
+        <v>5.3605804293566251E-3</v>
       </c>
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A251">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>251</v>
       </c>
       <c r="B251">
-        <f>EXP(-lambda*A251)*(4+COS(freq*A251))/5</f>
-        <v>0.7661660322894901</v>
+        <f t="shared" si="7"/>
+        <v>6.5038798484501363E-3</v>
       </c>
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A252">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>252</v>
       </c>
       <c r="B252">
-        <f>EXP(-lambda*A252)*(4+COS(freq*A252))/5</f>
-        <v>0.72930306508419107</v>
+        <f t="shared" si="7"/>
+        <v>6.0744373810006826E-3</v>
       </c>
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A253">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>253</v>
       </c>
       <c r="B253">
-        <f>EXP(-lambda*A253)*(4+COS(freq*A253))/5</f>
-        <v>0.55554769538488258</v>
+        <f t="shared" si="7"/>
+        <v>4.5401246411432717E-3</v>
       </c>
     </row>
   </sheetData>
